--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7720" uniqueCount="2411">
   <si>
     <t>File Name</t>
   </si>
@@ -5565,6 +5565,1686 @@
   </si>
   <si>
     <t>0252a155456248049e92b34c007dad9d</t>
+  </si>
+  <si>
+    <t>Hammer-KVU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Hammer-KVU.jpg</t>
+  </si>
+  <si>
+    <t>58ee3a76b89a44a78046b34c007db52a</t>
+  </si>
+  <si>
+    <t>Pine-Z1V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pine-Z1V.jpg</t>
+  </si>
+  <si>
+    <t>b9efa20de81a4173b186b34c007db777</t>
+  </si>
+  <si>
+    <t>Flame-ZAC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Flame-ZAC.jpg</t>
+  </si>
+  <si>
+    <t>951630373059438593d9b34c007dc551</t>
+  </si>
+  <si>
+    <t>Fuse-KVP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fuse-KVP.jpg</t>
+  </si>
+  <si>
+    <t>e01d164fb9c34619ab18b34c007dc725</t>
+  </si>
+  <si>
+    <t>Forge-KVN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Forge-KVN.jpg</t>
+  </si>
+  <si>
+    <t>90113aea1ee74defb20ab34c007dcb00</t>
+  </si>
+  <si>
+    <t>Buff-KPH.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Buff-KPH.jpg</t>
+  </si>
+  <si>
+    <t>d495b0646c1d439dacd2b34c007dd5fa</t>
+  </si>
+  <si>
+    <t>Luggage-KPU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Luggage-KPU.jpg</t>
+  </si>
+  <si>
+    <t>c5c3fcfc6f8c4609a316b34c007dd8fb</t>
+  </si>
+  <si>
+    <t>Granite-Z9G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Granite-Z9G.jpg</t>
+  </si>
+  <si>
+    <t>e1162df63e8f4c3db4b2b34c007ddf33</t>
+  </si>
+  <si>
+    <t>Ivy-Z4A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ivy-Z4A.jpg</t>
+  </si>
+  <si>
+    <t>1047f56fc04c44fd86c1b34c007de623</t>
+  </si>
+  <si>
+    <t>Chromoly-KVF.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Chromoly-KVF.jpg</t>
+  </si>
+  <si>
+    <t>9276afffc048488cb970b34c007ded91</t>
+  </si>
+  <si>
+    <t>Sisal-ZA0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sisal-ZA0.jpg</t>
+  </si>
+  <si>
+    <t>26db670f7efb4588a70bb34c007def47</t>
+  </si>
+  <si>
+    <t>Cayenne-Z9T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cayenne-Z9T.jpg</t>
+  </si>
+  <si>
+    <t>e33b14797a7f48818e28b34c007df709</t>
+  </si>
+  <si>
+    <t>Navy-Z2W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Navy-Z2W.jpg</t>
+  </si>
+  <si>
+    <t>dbf865817a4c4b44b42eb34c007dfe6c</t>
+  </si>
+  <si>
+    <t>Nutmeg-KTP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nutmeg-KTP.jpg</t>
+  </si>
+  <si>
+    <t>e985aa2169b74db6bde9b34c007e0284</t>
+  </si>
+  <si>
+    <t>Pewter-Z57.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pewter-Z57.jpg</t>
+  </si>
+  <si>
+    <t>48185ecb926d4382a1f0b34c007e08f0</t>
+  </si>
+  <si>
+    <t>Tulip-KXR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tulip-KXR.jpg</t>
+  </si>
+  <si>
+    <t>78386122d63c406da9deb34c007e13d5</t>
+  </si>
+  <si>
+    <t>Marble-BFR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Marble-BFR.jpg</t>
+  </si>
+  <si>
+    <t>f0799e284f884c59973cb34c007e147d</t>
+  </si>
+  <si>
+    <t>0.56 MB</t>
+  </si>
+  <si>
+    <t>Waterscape-ZA8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Waterscape-ZA8.jpg</t>
+  </si>
+  <si>
+    <t>af68e414316d40728711b34c007e183a</t>
+  </si>
+  <si>
+    <t>Twig-KW8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Twig-KW8.jpg</t>
+  </si>
+  <si>
+    <t>40df8f9460df4b1c8438b34c007e247a</t>
+  </si>
+  <si>
+    <t>Vanilla-KEG.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Vanilla-KEG.jpg</t>
+  </si>
+  <si>
+    <t>0be0175fa79949208bf5b34c007e254d</t>
+  </si>
+  <si>
+    <t>Wolf-BE8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wolf-BE8.jpg</t>
+  </si>
+  <si>
+    <t>cedf6853d39d4818ba94b34c007e27b3</t>
+  </si>
+  <si>
+    <t>Deep-Water-A72.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Deep-Water-A72.jpg</t>
+  </si>
+  <si>
+    <t>b63de724f05548cc8ac5b34c007e343b</t>
+  </si>
+  <si>
+    <t>Goldenrod-A75.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Goldenrod-A75.jpg</t>
+  </si>
+  <si>
+    <t>111d8eff8ef241d38ac8b34c007e3645</t>
+  </si>
+  <si>
+    <t>Frost-Z54.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Frost-Z54.jpg</t>
+  </si>
+  <si>
+    <t>af22f13556ec4246b316b34c007e3496</t>
+  </si>
+  <si>
+    <t>Alloy-KVA.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Alloy-KVA.jpg</t>
+  </si>
+  <si>
+    <t>2d1bc51b818446209bb0b34c007e4359</t>
+  </si>
+  <si>
+    <t>Balsa-KPF.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Balsa-KPF.jpg</t>
+  </si>
+  <si>
+    <t>90aeab57785c416f8b5cb34c007e4506</t>
+  </si>
+  <si>
+    <t>Black-KPG.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Black-KPG.jpg</t>
+  </si>
+  <si>
+    <t>a6e200d4f9e840548911b34c007e477a</t>
+  </si>
+  <si>
+    <t>Cumin-A71.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cumin-A71.jpg</t>
+  </si>
+  <si>
+    <t>111244b68ad44340a9bbb34c007e551a</t>
+  </si>
+  <si>
+    <t>Cappuccino-KK1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cappuccino-KK1.jpg</t>
+  </si>
+  <si>
+    <t>6db993543e9c4b6dbc39b34c007e5847</t>
+  </si>
+  <si>
+    <t>Cloud-Z55.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cloud-Z55.jpg</t>
+  </si>
+  <si>
+    <t>bca25adff91040808d25b34c007e63bd</t>
+  </si>
+  <si>
+    <t>Coffee-Bean-B5A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Coffee-Bean-B5A.jpg</t>
+  </si>
+  <si>
+    <t>23bc8d41378e4fe496beb34c007e6a38</t>
+  </si>
+  <si>
+    <t>Chocolate-KXV.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Chocolate-KXV.jpg</t>
+  </si>
+  <si>
+    <t>ed2f2e18e5f449fa84a6b34c007e6d59</t>
+  </si>
+  <si>
+    <t>Period-KT6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Period-KT6.jpg</t>
+  </si>
+  <si>
+    <t>e008f3b4dd63408dbb1fb34c007e738e</t>
+  </si>
+  <si>
+    <t>Extent-KY3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Extent-KY3.jpg</t>
+  </si>
+  <si>
+    <t>aee48d45f51446b4a665b34c007e7a86</t>
+  </si>
+  <si>
+    <t>Mustard-KTN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mustard-KTN.jpg</t>
+  </si>
+  <si>
+    <t>406972554b0a4c4db5f9b34c007e83ee</t>
+  </si>
+  <si>
+    <t>Wave-ZCF.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wave-ZCF.jpg</t>
+  </si>
+  <si>
+    <t>7b090deb930647239262b34c007e8588</t>
+  </si>
+  <si>
+    <t>Generation-KT2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Generation-KT2.jpg</t>
+  </si>
+  <si>
+    <t>5522a9c507504810b3e5b34c007e89c9</t>
+  </si>
+  <si>
+    <t>Moss-ZAN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Moss-ZAN.jpg</t>
+  </si>
+  <si>
+    <t>b98cc979cc3e493a92b8b34c007e947d</t>
+  </si>
+  <si>
+    <t>Rubin-KV2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Rubin-KV2.jpg</t>
+  </si>
+  <si>
+    <t>946a1850d4e543b799c8b34c007e9c95</t>
+  </si>
+  <si>
+    <t>Abraid-KV9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Abraid-KV9.jpg</t>
+  </si>
+  <si>
+    <t>c80d523b99b84fab9cb7b34c007ea719</t>
+  </si>
+  <si>
+    <t>Sunni-KXA.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sunni-KXA.jpg</t>
+  </si>
+  <si>
+    <t>3cb57d39b10a41f7ab28b34c007e9fd9</t>
+  </si>
+  <si>
+    <t>Prime-KW1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Prime-KW1.jpg</t>
+  </si>
+  <si>
+    <t>4399add90d374b498f8fb34c007ead4f</t>
+  </si>
+  <si>
+    <t>Aubergine-A69.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Aubergine-A69.jpg</t>
+  </si>
+  <si>
+    <t>1f6d406e03334731b576b34c007eb7c7</t>
+  </si>
+  <si>
+    <t>Mulberry-A70.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mulberry-A70.jpg</t>
+  </si>
+  <si>
+    <t>fa823374e703441a9a80b34c007ebe35</t>
+  </si>
+  <si>
+    <t>Tungsten-KW7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tungsten-KW7.jpg</t>
+  </si>
+  <si>
+    <t>117dfbcff7f04156a385b34c007ec0c2</t>
+  </si>
+  <si>
+    <t>London-ZC9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/London-ZC9.jpg</t>
+  </si>
+  <si>
+    <t>25a3c50ce4ab4ff7a74fb34c007ecb91</t>
+  </si>
+  <si>
+    <t>Pumpkin-A65.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pumpkin-A65.jpg</t>
+  </si>
+  <si>
+    <t>a76645e368084252b87cb34c007ecbe8</t>
+  </si>
+  <si>
+    <t>Deep-Sea-KVK.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Deep-Sea-KVK.jpg</t>
+  </si>
+  <si>
+    <t>dc66c4d65c0444e184b1b34c007ecf48</t>
+  </si>
+  <si>
+    <t>Zinc-K6H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Zinc-K6H.jpg</t>
+  </si>
+  <si>
+    <t>31b806a5b8a94f11a139b34c007ed9f6</t>
+  </si>
+  <si>
+    <t>Olive-KVY.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Olive-KVY.jpg</t>
+  </si>
+  <si>
+    <t>2c6f65a4cc3b4a0e85bfb34c007ed93a</t>
+  </si>
+  <si>
+    <t>Prime-KT9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Prime-KT9.jpg</t>
+  </si>
+  <si>
+    <t>d545f97c35a04ea38173b34c007ee06f</t>
+  </si>
+  <si>
+    <t>Quarry-Z3U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Quarry-Z3U.jpg</t>
+  </si>
+  <si>
+    <t>1eab39a0259a41a49fe7b34c007ee835</t>
+  </si>
+  <si>
+    <t>Graphite-KPP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graphite-KPP.jpg</t>
+  </si>
+  <si>
+    <t>e52cbfba7e074814bb15b34c007ee99d</t>
+  </si>
+  <si>
+    <t>Graphite-Z47.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graphite-Z47.jpg</t>
+  </si>
+  <si>
+    <t>1ab7e0ea2d2b4daba6c0b34c007ef1fe</t>
+  </si>
+  <si>
+    <t>Gravel-KTK.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gravel-KTK.jpg</t>
+  </si>
+  <si>
+    <t>524eeb5ced564e85b1c2b34c007ef938</t>
+  </si>
+  <si>
+    <t>Hunter-BFP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Hunter-BFP.jpg</t>
+  </si>
+  <si>
+    <t>bd612d595b2e4118b133b34c007ef8b4</t>
+  </si>
+  <si>
+    <t>Red-Delicious-A63.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Red-Delicious-A63.jpg</t>
+  </si>
+  <si>
+    <t>efb7368d4ddf45179fd4b34c007f0188</t>
+  </si>
+  <si>
+    <t>Ice-KTM.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ice-KTM.jpg</t>
+  </si>
+  <si>
+    <t>2fe275c570204e69bf92b34c007f0ab0</t>
+  </si>
+  <si>
+    <t>Scarlet-ZA2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scarlet-ZA2.jpg</t>
+  </si>
+  <si>
+    <t>5408f8c1573a41cbb44cb34c007f191f</t>
+  </si>
+  <si>
+    <t>Espresso-KK2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Espresso-KK2.jpg</t>
+  </si>
+  <si>
+    <t>560cfdb0b7594533b561b34c007f1748</t>
+  </si>
+  <si>
+    <t>Iris-ZAK.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Iris-ZAK.jpg</t>
+  </si>
+  <si>
+    <t>24s</t>
+  </si>
+  <si>
+    <t>44716a11b196428da236b34c007f0b9a</t>
+  </si>
+  <si>
+    <t>Lexington-KYT.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lexington-KYT.jpg</t>
+  </si>
+  <si>
+    <t>8abd067fa2f84a0eafa5b34c007f274a</t>
+  </si>
+  <si>
+    <t>Lemon-Grass-Z9R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lemon-Grass-Z9R.jpg</t>
+  </si>
+  <si>
+    <t>c56ddfc02edf4dfa8d41b34c007f278a</t>
+  </si>
+  <si>
+    <t>Staten-KV5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Staten-KV5.jpg</t>
+  </si>
+  <si>
+    <t>3506f74db30e434b8502b34c007f2f4b</t>
+  </si>
+  <si>
+    <t>Aqua-Z2P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Aqua-Z2P.jpg</t>
+  </si>
+  <si>
+    <t>e94d2aa7c8d944a999deb34c007f35ca</t>
+  </si>
+  <si>
+    <t>Mandarin-ZC5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mandarin-ZC5.jpg</t>
+  </si>
+  <si>
+    <t>3eae9ac0f5e44e1fb85eb34c007f393b</t>
+  </si>
+  <si>
+    <t>Taxi-KV6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Taxi-KV6.jpg</t>
+  </si>
+  <si>
+    <t>97464cdf35f74ebba6bfb34c007f4068</t>
+  </si>
+  <si>
+    <t>Tensile-KW6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tensile-KW6.jpg</t>
+  </si>
+  <si>
+    <t>c9febab52f114f03bdc1b34c007f4683</t>
+  </si>
+  <si>
+    <t>Blue-Jay-Z99.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Blue-Jay-Z99.jpg</t>
+  </si>
+  <si>
+    <t>94e6304dd0334d96a498b34c007f4954</t>
+  </si>
+  <si>
+    <t>Murphy-KYR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Murphy-KYR.jpg</t>
+  </si>
+  <si>
+    <t>9d7bb22d24ef4e11b32eb34c007f571c</t>
+  </si>
+  <si>
+    <t>Chalice-ZCH.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Chalice-ZCH.jpg</t>
+  </si>
+  <si>
+    <t>16ecce0b45aa4e2fa604b34c007f5994</t>
+  </si>
+  <si>
+    <t>Marshmallow-Z4D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Marshmallow-Z4D.jpg</t>
+  </si>
+  <si>
+    <t>d351077c6df64ee2aa25b34c007f54cd</t>
+  </si>
+  <si>
+    <t>Tusk-Z3Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tusk-Z3Y.jpg</t>
+  </si>
+  <si>
+    <t>bd9fadf207cb47828847b34c007f6684</t>
+  </si>
+  <si>
+    <t>Lagoon-KXJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lagoon-KXJ.jpg</t>
+  </si>
+  <si>
+    <t>725c4b8c5c90401f8cdab34c007f691c</t>
+  </si>
+  <si>
+    <t>Lipstick-KPT.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lipstick-KPT.jpg</t>
+  </si>
+  <si>
+    <t>79029ae7debd4948adf5b34c007f6985</t>
+  </si>
+  <si>
+    <t>Lime-Z1P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lime-Z1P.jpg</t>
+  </si>
+  <si>
+    <t>6222cbe3316746b2b2a0b34c007f76e3</t>
+  </si>
+  <si>
+    <t>Copper-KVG.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Copper-KVG.jpg</t>
+  </si>
+  <si>
+    <t>30639acce8024646b146b34c007f7920</t>
+  </si>
+  <si>
+    <t>Crucible-KVH.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crucible-KVH.jpg</t>
+  </si>
+  <si>
+    <t>3638dc6f9d4c4efd9d29b34c007f7ab1</t>
+  </si>
+  <si>
+    <t>Futurist-KT1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Futurist-KT1.jpg</t>
+  </si>
+  <si>
+    <t>8ff6bb465c804392962bb34c007f8825</t>
+  </si>
+  <si>
+    <t>Baltic-Z3M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Baltic-Z3M.jpg</t>
+  </si>
+  <si>
+    <t>bbe38c8b8aaa4441b824b34c007f85db</t>
+  </si>
+  <si>
+    <t>Pool-KX6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pool-KX6.jpg</t>
+  </si>
+  <si>
+    <t>0ccb223e552649b78e6ab34c007f8b20</t>
+  </si>
+  <si>
+    <t>Endurance-KY9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Endurance-KY9.jpg</t>
+  </si>
+  <si>
+    <t>a5b2167a0464422e92ecb34c007f966b</t>
+  </si>
+  <si>
+    <t>Burnish-KVC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Burnish-KVC.jpg</t>
+  </si>
+  <si>
+    <t>3b5ff1cc9fe34a15a364b34c007f962b</t>
+  </si>
+  <si>
+    <t>Fossil-A76.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fossil-A76.jpg</t>
+  </si>
+  <si>
+    <t>4cb69388e137431b9c59b34c007f9be8</t>
+  </si>
+  <si>
+    <t>Penn-KV1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Penn-KV1.jpg</t>
+  </si>
+  <si>
+    <t>340fca693d824f17803db34c007fa638</t>
+  </si>
+  <si>
+    <t>Orchid-KX5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Orchid-KX5.jpg</t>
+  </si>
+  <si>
+    <t>3775f07cc65f4ee198beb34c007fa4e5</t>
+  </si>
+  <si>
+    <t>Tiffany-Z20.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tiffany-Z20.jpg</t>
+  </si>
+  <si>
+    <t>1fb522d5891e401bbe0db34c007faea9</t>
+  </si>
+  <si>
+    <t>Date-KXY.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Date-KXY.jpg</t>
+  </si>
+  <si>
+    <t>66c0a7a669af499687f5b34c007fb5e7</t>
+  </si>
+  <si>
+    <t>Perennial-KT5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Perennial-KT5.jpg</t>
+  </si>
+  <si>
+    <t>32d8af6f6e054b408f11b34c007fb778</t>
+  </si>
+  <si>
+    <t>Wire-KWC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wire-KWC.jpg</t>
+  </si>
+  <si>
+    <t>3e710e5ce17e4370a60bb34c007fc0a6</t>
+  </si>
+  <si>
+    <t>Woodrose-KWD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Woodrose-KWD.jpg</t>
+  </si>
+  <si>
+    <t>92e0c0127e65425aa1f7b34c007fc66f</t>
+  </si>
+  <si>
+    <t>Youth-KYF.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Youth-KYF.jpg</t>
+  </si>
+  <si>
+    <t>56c93383adcb48239a3bb34c007fcc58</t>
+  </si>
+  <si>
+    <t>Phase-KT7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Phase-KT7.jpg</t>
+  </si>
+  <si>
+    <t>c310d185e9f34dc5a886b34c007fd2be</t>
+  </si>
+  <si>
+    <t>Gray-Z9D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gray-Z9D.jpg</t>
+  </si>
+  <si>
+    <t>ead6cf2adcd94583818fb34c007fd6b6</t>
+  </si>
+  <si>
+    <t>Gravity_Dove_KTH-993x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gravity_Dove_KTH-993x1024.jpg</t>
+  </si>
+  <si>
+    <t>c9a8b7826a5c45aa9709b34c007fdca9</t>
+  </si>
+  <si>
+    <t>Raisin-Z1W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Raisin-Z1W.jpg</t>
+  </si>
+  <si>
+    <t>ee0ca81278f947a7895eb34c007fe1d6</t>
+  </si>
+  <si>
+    <t>Quench-KW2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Quench-KW2.jpg</t>
+  </si>
+  <si>
+    <t>65097f1da8e746dda7eeb34c007fe946</t>
+  </si>
+  <si>
+    <t>Rest-KYD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Rest-KYD.jpg</t>
+  </si>
+  <si>
+    <t>314f37ff95b445f89042b34c007fed2e</t>
+  </si>
+  <si>
+    <t>Gray-Blue-B4X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gray-Blue-B4X.jpg</t>
+  </si>
+  <si>
+    <t>c387b099ac5047e18e01b34c007ff1a3</t>
+  </si>
+  <si>
+    <t>Graystone-Z48.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graystone-Z48.jpg</t>
+  </si>
+  <si>
+    <t>61e493cf135341c4b293b34c007ff897</t>
+  </si>
+  <si>
+    <t>Grey-Brindle-KVT.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grey-Brindle-KVT.jpg</t>
+  </si>
+  <si>
+    <t>fa2c39aee8d243069164b34c007ffea3</t>
+  </si>
+  <si>
+    <t>Houston-KUU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Houston-KUU.jpg</t>
+  </si>
+  <si>
+    <t>c67c6edd516c4a5abe73b34c008001b9</t>
+  </si>
+  <si>
+    <t>Java-KPR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Java-KPR.jpg</t>
+  </si>
+  <si>
+    <t>2e9b0540a7b74f408e6fb34c0080098f</t>
+  </si>
+  <si>
+    <t>Safari-Z3V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Safari-Z3V.jpg</t>
+  </si>
+  <si>
+    <t>d64d53c97d66406e96c0b34c00800ee7</t>
+  </si>
+  <si>
+    <t>Saks-KV3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Saks-KV3.jpg</t>
+  </si>
+  <si>
+    <t>15630583f1c44e1db2a3b34c008012ba</t>
+  </si>
+  <si>
+    <t>Sandy-Z3W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sandy-Z3W.jpg</t>
+  </si>
+  <si>
+    <t>a8c087fd8b5a44e9bfc3b34c008019f4</t>
+  </si>
+  <si>
+    <t>Lapis-ZCE.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lapis-ZCE.jpg</t>
+  </si>
+  <si>
+    <t>b976ded523344eae843bb34c00801eb7</t>
+  </si>
+  <si>
+    <t>Soho-KV4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Soho-KV4.jpg</t>
+  </si>
+  <si>
+    <t>a7bd6e7a80064770afdbb34c00802320</t>
+  </si>
+  <si>
+    <t>Leroy-KUW.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Leroy-KUW.jpg</t>
+  </si>
+  <si>
+    <t>d0c52e608a9e426e9d35b34c00802bb3</t>
+  </si>
+  <si>
+    <t>Stage-KTC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stage-KTC.jpg</t>
+  </si>
+  <si>
+    <t>4ed8523718b84474ad98b34c00802ef4</t>
+  </si>
+  <si>
+    <t>Storm-Z3X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Storm-Z3X.jpg</t>
+  </si>
+  <si>
+    <t>18b0d28bc30d4678bd81b34c00803542</t>
+  </si>
+  <si>
+    <t>Marble-Z9X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Marble-Z9X.jpg</t>
+  </si>
+  <si>
+    <t>6cb608191da04545a09ab34c00803e85</t>
+  </si>
+  <si>
+    <t>Astor-KUN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Astor-KUN.jpg</t>
+  </si>
+  <si>
+    <t>f2cb182223bb4a8fa323b34c00803df1</t>
+  </si>
+  <si>
+    <t>Mediterranean-Z4E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mediterranean-Z4E.jpg</t>
+  </si>
+  <si>
+    <t>2427989c4003484b94dfb34c00804593</t>
+  </si>
+  <si>
+    <t>Thunder-KR2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Thunder-KR2.jpg</t>
+  </si>
+  <si>
+    <t>4d0fa586b66e42e0801ab34c00804ce1</t>
+  </si>
+  <si>
+    <t>Midnight-Z1R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Midnight-Z1R.jpg</t>
+  </si>
+  <si>
+    <t>e24f5fdd562b46e58083b34c008055fb</t>
+  </si>
+  <si>
+    <t>Capri-KK0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Capri-KK0.jpg</t>
+  </si>
+  <si>
+    <t>f0a29c88a9e64c1eb88db34c00805428</t>
+  </si>
+  <si>
+    <t>Steel-ZAD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Steel-ZAD.jpg</t>
+  </si>
+  <si>
+    <t>a182c5de434d43d0baf8b34c00805cde</t>
+  </si>
+  <si>
+    <t>Brook-KTG.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Brook-KTG.jpg</t>
+  </si>
+  <si>
+    <t>d10bbdbbaa014913867bb34c00806a61</t>
+  </si>
+  <si>
+    <t>Turn-KY1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Turn-KY1.jpg</t>
+  </si>
+  <si>
+    <t>5287713a7d5849dbbc8eb34c008068ae</t>
+  </si>
+  <si>
+    <t>Willow-A68.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Willow-A68.jpg</t>
+  </si>
+  <si>
+    <t>5bf268d9ff1a4056b996b34c00806d16</t>
+  </si>
+  <si>
+    <t>Cobalt-BE4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cobalt-BE4.jpg</t>
+  </si>
+  <si>
+    <t>17818df223ca47d9b4d0b34c00807ad3</t>
+  </si>
+  <si>
+    <t>Evergreen-KXE.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Evergreen-KXE.jpg</t>
+  </si>
+  <si>
+    <t>6216208cbc344ef3b0f5b34c00807b90</t>
+  </si>
+  <si>
+    <t>Forecast-KRY.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Forecast-KRY.jpg</t>
+  </si>
+  <si>
+    <t>82752e5e96784b008ea8b34c0080802e</t>
+  </si>
+  <si>
+    <t>Grape-KPN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grape-KPN.jpg</t>
+  </si>
+  <si>
+    <t>597dd4ac967f477a8e81b34c00808eb7</t>
+  </si>
+  <si>
+    <t>Black-KXW.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Black-KXW.jpg</t>
+  </si>
+  <si>
+    <t>d18adaef572246c19b9ab34c00808d7d</t>
+  </si>
+  <si>
+    <t>Latte-Z56.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Latte-Z56.jpg</t>
+  </si>
+  <si>
+    <t>54fe0d2768894102afdeb34c008090a8</t>
+  </si>
+  <si>
+    <t>Anise-ZC3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Anise-ZC3.jpg</t>
+  </si>
+  <si>
+    <t>c8f5d17825e34af7bf41b34c00809e02</t>
+  </si>
+  <si>
+    <t>Citronelle-Z98.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Citronelle-Z98.jpg</t>
+  </si>
+  <si>
+    <t>3b12a4ca052a4ea6ab82b34c00809e73</t>
+  </si>
+  <si>
+    <t>Delft-Z1H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Delft-Z1H.jpg</t>
+  </si>
+  <si>
+    <t>d53ad8d9a75d45349c99b34c0080a256</t>
+  </si>
+  <si>
+    <t>Peacock-ZA9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Peacock-ZA9.jpg</t>
+  </si>
+  <si>
+    <t>10060378709448fab754b34c0080aed3</t>
+  </si>
+  <si>
+    <t>Slate-Z9M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Slate-Z9M.jpg</t>
+  </si>
+  <si>
+    <t>3dba4d31ee6e41ab9236b34c0080b011</t>
+  </si>
+  <si>
+    <t>Eucalyptus-B4Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Eucalyptus-B4Y.jpg</t>
+  </si>
+  <si>
+    <t>01e0133ee43342bd8a0fb34c0080b1ff</t>
+  </si>
+  <si>
+    <t>Orhid-Z1U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Orhid-Z1U.jpg</t>
+  </si>
+  <si>
+    <t>185dfe69614c40e99964b34c0080c224</t>
+  </si>
+  <si>
+    <t>Fawn-Z45.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fawn-Z45.jpg</t>
+  </si>
+  <si>
+    <t>4b4092c6288945c3b126b34c0080c196</t>
+  </si>
+  <si>
+    <t>Ferrous-KVM.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ferrous-KVM.jpg</t>
+  </si>
+  <si>
+    <t>5d6153399cf741ba9764b34c0080bd32</t>
+  </si>
+  <si>
+    <t>Cast-KVD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cast-KVD.jpg</t>
+  </si>
+  <si>
+    <t>3015ec75f45447e4bc88b34c0080d067</t>
+  </si>
+  <si>
+    <t>Chrysler-KYX.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Chrysler-KYX.jpg</t>
+  </si>
+  <si>
+    <t>11fca2840f27442fbe60b34c0080d247</t>
+  </si>
+  <si>
+    <t>Wine-Z32.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wine-Z32.jpg</t>
+  </si>
+  <si>
+    <t>687eee4f22a94a1c9c16b34c0080de75</t>
+  </si>
+  <si>
+    <t>Frost-KX8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Frost-KX8.jpg</t>
+  </si>
+  <si>
+    <t>637274559b9e44ab9271b34c0080df2c</t>
+  </si>
+  <si>
+    <t>Garnet-ZC6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Garnet-ZC6.jpg</t>
+  </si>
+  <si>
+    <t>d7e8faf923324f289170b34c0080e161</t>
+  </si>
+  <si>
+    <t>Frozen-KXN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Frozen-KXN.jpg</t>
+  </si>
+  <si>
+    <t>5fe7adf175f74425ba7bb34c0080ef38</t>
+  </si>
+  <si>
+    <t>Prompt-KYN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Prompt-KYN.jpg</t>
+  </si>
+  <si>
+    <t>cdd4ffb35bd1410d8057b34c0080f12e</t>
+  </si>
+  <si>
+    <t>Pine-Needle-A66.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pine-Needle-A66.jpg</t>
+  </si>
+  <si>
+    <t>04ea15a4fab04e7db2c4b34c0080effe</t>
+  </si>
+  <si>
+    <t>Red-Z9A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Red-Z9A.jpg</t>
+  </si>
+  <si>
+    <t>3f93c247741247abb361b34c008100da</t>
+  </si>
+  <si>
+    <t>Gravity_Petal_KXP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gravity_Petal_KXP.jpg</t>
+  </si>
+  <si>
+    <t>81fef3f536414b13a4eab34c008100d1</t>
+  </si>
+  <si>
+    <t>Gooseberry-KTJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gooseberry-KTJ.jpg</t>
+  </si>
+  <si>
+    <t>67f5663e91254e3fb84eb34c008100c7</t>
+  </si>
+  <si>
+    <t>Sapphire-ZA4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sapphire-ZA4.jpg</t>
+  </si>
+  <si>
+    <t>094dc51131d344208224b34c008110e1</t>
+  </si>
+  <si>
+    <t>Jackson-KUV.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Jackson-KUV.jpg</t>
+  </si>
+  <si>
+    <t>d16ae885f8b9421b95f5b34c0081114c</t>
+  </si>
+  <si>
+    <t>Ruby-ZCD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ruby-ZCD.jpg</t>
+  </si>
+  <si>
+    <t>826f0b634d5c45249f81b34c0081118c</t>
+  </si>
+  <si>
+    <t>Silver-Lining-Z4G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Silver-Lining-Z4G.jpg</t>
+  </si>
+  <si>
+    <t>29d9ee1e7511421c9b0eb34c00811faf</t>
+  </si>
+  <si>
+    <t>Dove-Z1J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Dove-Z1J.jpg</t>
+  </si>
+  <si>
+    <t>c8b34b838c7d4cac893ab34c008121cd</t>
+  </si>
+  <si>
+    <t>Deep-Clay-KVJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Deep-Clay-KVJ.jpg</t>
+  </si>
+  <si>
+    <t>e4f26228ed3c424db456b34c00811fda</t>
+  </si>
+  <si>
+    <t>Present-KT8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Present-KT8.jpg</t>
+  </si>
+  <si>
+    <t>f39cc6198ead4a2ea417b34c00813183</t>
+  </si>
+  <si>
+    <t>Dove-Gray-BJ7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Dove-Gray-BJ7.jpg</t>
+  </si>
+  <si>
+    <t>d0321cecd6734f6dad9fb34c00812ff3</t>
+  </si>
+  <si>
+    <t>Amber-Z2N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Amber-Z2N.jpg</t>
+  </si>
+  <si>
+    <t>69830b8950b04b15a48bb34c00813112</t>
+  </si>
+  <si>
+    <t>Measure-KY2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Measure-KY2.jpg</t>
+  </si>
+  <si>
+    <t>31443006a93e495f90beb34c00814325</t>
+  </si>
+  <si>
+    <t>Fresh-KXD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fresh-KXD.jpg</t>
+  </si>
+  <si>
+    <t>20ff04f58200486f83f0b34c00813f92</t>
+  </si>
+  <si>
+    <t>Fresco-KJY.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fresco-KJY.jpg</t>
+  </si>
+  <si>
+    <t>3d2bee533d3c4fafb981b34c00813f10</t>
+  </si>
+  <si>
+    <t>Poppy-B5D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Poppy-B5D.jpg</t>
+  </si>
+  <si>
+    <t>7da568bc640740c881a1b34c00815291</t>
+  </si>
+  <si>
+    <t>Geranium-BE3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Geranium-BE3.jpg</t>
+  </si>
+  <si>
+    <t>400cceb80cb347e0bfc8b34c008152d1</t>
+  </si>
+  <si>
+    <t>Glow-ZAJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Glow-ZAJ.jpg</t>
+  </si>
+  <si>
+    <t>eadb8badcfce402eb181b34c00815323</t>
+  </si>
+  <si>
+    <t>Green-Apple-BE7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Green-Apple-BE7.jpg</t>
+  </si>
+  <si>
+    <t>82cf4e1ec67641ad9b9eb34c00816337</t>
+  </si>
+  <si>
+    <t>Quota-KYH.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Quota-KYH.jpg</t>
+  </si>
+  <si>
+    <t>44e157334def43e2a404b34c00816355</t>
+  </si>
+  <si>
+    <t>Peridot-Z0R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Peridot-Z0R.jpg</t>
+  </si>
+  <si>
+    <t>f7967235f8a04eb7974db34c00816359</t>
+  </si>
+  <si>
+    <t>Resin-KW3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Resin-KW3.jpg</t>
+  </si>
+  <si>
+    <t>df193090fa914132ab69b34c00817182</t>
+  </si>
+  <si>
+    <t>Bisque-Z1D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Bisque-Z1D.jpg</t>
+  </si>
+  <si>
+    <t>e7a27e3cb22040579e9bb34c00817302</t>
+  </si>
+  <si>
+    <t>Sandy-Pebble-BV4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sandy-Pebble-BV4.jpg</t>
+  </si>
+  <si>
+    <t>9948d445eddf441c95a3b34c00817184</t>
+  </si>
+  <si>
+    <t>Hemlock-KVV.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Hemlock-KVV.jpg</t>
+  </si>
+  <si>
+    <t>75cb55b1b0934c7fba99b34c00818236</t>
+  </si>
+  <si>
+    <t>Henna-B5C.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Henna-B5C.jpg</t>
+  </si>
+  <si>
+    <t>e691d97360574ea09683b34c00818388</t>
+  </si>
+  <si>
+    <t>Experience-KY4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Experience-KY4.jpg</t>
+  </si>
+  <si>
+    <t>a084fb4b424d43858b05b34c0081839c</t>
+  </si>
+  <si>
+    <t>Turquoise-KX7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Turquoise-KX7.jpg</t>
+  </si>
+  <si>
+    <t>c7379c5e2344443f91c7b34c0081915c</t>
+  </si>
+  <si>
+    <t>Late-KYK.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Late-KYK.jpg</t>
+  </si>
+  <si>
+    <t>074665a24f04478e98fcb34c00819244</t>
+  </si>
+  <si>
+    <t>Sorrel-ZC1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sorrel-ZC1.jpg</t>
+  </si>
+  <si>
+    <t>ee3c6d6a6f0b44ab82f7b34c008197cb</t>
+  </si>
+  <si>
+    <t>Mint-Z1T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mint-Z1T.jpg</t>
+  </si>
+  <si>
+    <t>a3b2e302182d431c9052b34c0081a877</t>
+  </si>
+  <si>
+    <t>Span-KTA.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Span-KTA.jpg</t>
+  </si>
+  <si>
+    <t>8394d9455a954734b793b34c0081a5c8</t>
+  </si>
+  <si>
+    <t>Maroon-Z2V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Maroon-Z2V.jpg</t>
+  </si>
+  <si>
+    <t>3e7e068628eb4e41b113b34c0081a739</t>
+  </si>
+  <si>
+    <t>Bronx-KUR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Bronx-KUR.jpg</t>
+  </si>
+  <si>
+    <t>f7972cefd0814d7d9d36b34c0081b852</t>
+  </si>
+  <si>
+    <t>Berry-KXU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Berry-KXU.jpg</t>
+  </si>
+  <si>
+    <t>6ad9fdca58294673875ab34c0081b982</t>
+  </si>
+  <si>
+    <t>Spark-KW5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Spark-KW5.jpg</t>
+  </si>
+  <si>
+    <t>5132fd809cc540b0928fb34c0081b991</t>
+  </si>
+  <si>
+    <t>Galvanise-KVR.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Galvanise-KVR.jpg</t>
+  </si>
+  <si>
+    <t>47feb866a79c4e83867eb34c0081c96e</t>
+  </si>
+  <si>
+    <t>graph-coal-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/graph-coal-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>b7535f8ac48c4055a1a6b34c0081ce85</t>
+  </si>
+  <si>
+    <t>Hudson-KYU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Hudson-KYU.jpg</t>
+  </si>
+  <si>
+    <t>92025acdbadd427a86e7b34c0081d384</t>
+  </si>
+  <si>
+    <t>Iron-Z3P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Iron-Z3P.jpg</t>
+  </si>
+  <si>
+    <t>13801014878342ebb7f1b34c0081dca1</t>
+  </si>
+  <si>
+    <t>Memo-KYP.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Memo-KYP.jpg</t>
+  </si>
+  <si>
+    <t>d327242ab86f4d1a8669b34c0081e32d</t>
+  </si>
+  <si>
+    <t>Range-KYJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Range-KYJ.jpg</t>
+  </si>
+  <si>
+    <t>b19cb776d4884958bde5b34c0081e74a</t>
   </si>
 </sst>
 </file>
@@ -5609,7 +7289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J586"/>
+  <dimension ref="A1:J772"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -24367,6 +26047,5958 @@
         <v>63</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>1852</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F587" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G587" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H587" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I587" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="J587" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>1855</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F588" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G588" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H588" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I588" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="J588" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="0">
+        <v>1857</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>1858</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F589" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G589" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H589" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I589" t="s" s="0">
+        <v>1859</v>
+      </c>
+      <c r="J589" t="s" s="0">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="0">
+        <v>1860</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F590" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G590" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H590" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I590" t="s" s="0">
+        <v>1862</v>
+      </c>
+      <c r="J590" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>1864</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F591" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G591" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H591" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I591" t="s" s="0">
+        <v>1865</v>
+      </c>
+      <c r="J591" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F592" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G592" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H592" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I592" t="s" s="0">
+        <v>1868</v>
+      </c>
+      <c r="J592" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>1870</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F593" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G593" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H593" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I593" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="J593" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>1873</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F594" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G594" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H594" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I594" t="s" s="0">
+        <v>1874</v>
+      </c>
+      <c r="J594" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="0">
+        <v>1875</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>1876</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F595" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G595" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H595" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I595" t="s" s="0">
+        <v>1877</v>
+      </c>
+      <c r="J595" t="s" s="0">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>1879</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F596" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G596" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H596" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I596" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="J596" t="s" s="0">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>1882</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F597" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G597" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H597" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I597" t="s" s="0">
+        <v>1883</v>
+      </c>
+      <c r="J597" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>1885</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F598" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G598" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H598" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I598" t="s" s="0">
+        <v>1886</v>
+      </c>
+      <c r="J598" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>1888</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F599" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G599" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H599" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I599" t="s" s="0">
+        <v>1889</v>
+      </c>
+      <c r="J599" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>1890</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>1891</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F600" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G600" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H600" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I600" t="s" s="0">
+        <v>1892</v>
+      </c>
+      <c r="J600" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>1893</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>1894</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F601" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G601" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H601" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I601" t="s" s="0">
+        <v>1895</v>
+      </c>
+      <c r="J601" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>1896</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F602" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G602" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H602" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I602" t="s" s="0">
+        <v>1898</v>
+      </c>
+      <c r="J602" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>1899</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>1900</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F603" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G603" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H603" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I603" t="s" s="0">
+        <v>1901</v>
+      </c>
+      <c r="J603" t="s" s="0">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>1903</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>1904</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F604" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G604" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H604" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I604" t="s" s="0">
+        <v>1905</v>
+      </c>
+      <c r="J604" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>1906</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>1907</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F605" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G605" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H605" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I605" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="J605" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>1909</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>1910</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F606" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G606" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H606" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I606" t="s" s="0">
+        <v>1911</v>
+      </c>
+      <c r="J606" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>1912</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F607" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G607" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H607" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I607" t="s" s="0">
+        <v>1914</v>
+      </c>
+      <c r="J607" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="0">
+        <v>1915</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F608" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G608" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H608" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I608" t="s" s="0">
+        <v>1917</v>
+      </c>
+      <c r="J608" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="0">
+        <v>1918</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>1919</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F609" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G609" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H609" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I609" t="s" s="0">
+        <v>1920</v>
+      </c>
+      <c r="J609" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="0">
+        <v>1921</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>1922</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F610" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G610" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H610" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I610" t="s" s="0">
+        <v>1923</v>
+      </c>
+      <c r="J610" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="0">
+        <v>1924</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F611" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G611" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H611" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I611" t="s" s="0">
+        <v>1926</v>
+      </c>
+      <c r="J611" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="0">
+        <v>1927</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>1928</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F612" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G612" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H612" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I612" t="s" s="0">
+        <v>1929</v>
+      </c>
+      <c r="J612" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="0">
+        <v>1930</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>1931</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F613" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G613" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H613" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I613" t="s" s="0">
+        <v>1932</v>
+      </c>
+      <c r="J613" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="0">
+        <v>1933</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>1934</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F614" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G614" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H614" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I614" t="s" s="0">
+        <v>1935</v>
+      </c>
+      <c r="J614" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>1937</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F615" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G615" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H615" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I615" t="s" s="0">
+        <v>1938</v>
+      </c>
+      <c r="J615" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="0">
+        <v>1939</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>1940</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F616" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G616" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H616" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I616" t="s" s="0">
+        <v>1941</v>
+      </c>
+      <c r="J616" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="0">
+        <v>1942</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>1943</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F617" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G617" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H617" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I617" t="s" s="0">
+        <v>1944</v>
+      </c>
+      <c r="J617" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>1946</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F618" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="G618" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H618" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I618" t="s" s="0">
+        <v>1947</v>
+      </c>
+      <c r="J618" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="0">
+        <v>1948</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>1949</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F619" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G619" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H619" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I619" t="s" s="0">
+        <v>1950</v>
+      </c>
+      <c r="J619" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="0">
+        <v>1951</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>1952</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F620" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G620" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H620" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I620" t="s" s="0">
+        <v>1953</v>
+      </c>
+      <c r="J620" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="0">
+        <v>1954</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>1955</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F621" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G621" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H621" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I621" t="s" s="0">
+        <v>1956</v>
+      </c>
+      <c r="J621" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="0">
+        <v>1957</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>1958</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F622" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G622" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H622" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I622" t="s" s="0">
+        <v>1959</v>
+      </c>
+      <c r="J622" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="0">
+        <v>1960</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>1961</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F623" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G623" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H623" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I623" t="s" s="0">
+        <v>1962</v>
+      </c>
+      <c r="J623" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="0">
+        <v>1963</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>1964</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F624" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G624" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H624" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I624" t="s" s="0">
+        <v>1965</v>
+      </c>
+      <c r="J624" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="0">
+        <v>1966</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>1967</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F625" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G625" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H625" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I625" t="s" s="0">
+        <v>1968</v>
+      </c>
+      <c r="J625" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="0">
+        <v>1969</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>1970</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F626" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G626" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H626" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I626" t="s" s="0">
+        <v>1971</v>
+      </c>
+      <c r="J626" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>1973</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F627" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="G627" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H627" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I627" t="s" s="0">
+        <v>1974</v>
+      </c>
+      <c r="J627" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="0">
+        <v>1975</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>1976</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F628" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G628" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H628" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I628" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="J628" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="0">
+        <v>1978</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>1979</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F629" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G629" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H629" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I629" t="s" s="0">
+        <v>1980</v>
+      </c>
+      <c r="J629" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="0">
+        <v>1981</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>1982</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F630" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G630" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H630" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I630" t="s" s="0">
+        <v>1983</v>
+      </c>
+      <c r="J630" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>1985</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F631" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G631" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H631" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I631" t="s" s="0">
+        <v>1986</v>
+      </c>
+      <c r="J631" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="0">
+        <v>1987</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>1988</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F632" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G632" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H632" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I632" t="s" s="0">
+        <v>1989</v>
+      </c>
+      <c r="J632" t="s" s="0">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>1991</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F633" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G633" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H633" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I633" t="s" s="0">
+        <v>1992</v>
+      </c>
+      <c r="J633" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="0">
+        <v>1993</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>1994</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F634" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G634" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H634" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I634" t="s" s="0">
+        <v>1995</v>
+      </c>
+      <c r="J634" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="0">
+        <v>1996</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>1997</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D635" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F635" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G635" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H635" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I635" t="s" s="0">
+        <v>1998</v>
+      </c>
+      <c r="J635" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="0">
+        <v>1999</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>2000</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D636" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F636" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G636" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H636" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I636" t="s" s="0">
+        <v>2001</v>
+      </c>
+      <c r="J636" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="0">
+        <v>2002</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>2003</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D637" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E637" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F637" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G637" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H637" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I637" t="s" s="0">
+        <v>2004</v>
+      </c>
+      <c r="J637" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="0">
+        <v>2005</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>2006</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D638" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E638" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F638" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G638" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H638" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I638" t="s" s="0">
+        <v>2007</v>
+      </c>
+      <c r="J638" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>2009</v>
+      </c>
+      <c r="C639" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D639" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E639" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F639" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G639" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H639" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I639" t="s" s="0">
+        <v>2010</v>
+      </c>
+      <c r="J639" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="0">
+        <v>2011</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>2012</v>
+      </c>
+      <c r="C640" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D640" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E640" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F640" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G640" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H640" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I640" t="s" s="0">
+        <v>2013</v>
+      </c>
+      <c r="J640" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="0">
+        <v>2014</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>2015</v>
+      </c>
+      <c r="C641" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D641" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E641" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F641" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G641" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H641" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I641" t="s" s="0">
+        <v>2016</v>
+      </c>
+      <c r="J641" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="0">
+        <v>2017</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>2018</v>
+      </c>
+      <c r="C642" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D642" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E642" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F642" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G642" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H642" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I642" t="s" s="0">
+        <v>2019</v>
+      </c>
+      <c r="J642" t="s" s="0">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="0">
+        <v>2020</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C643" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D643" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E643" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F643" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G643" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H643" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I643" t="s" s="0">
+        <v>2022</v>
+      </c>
+      <c r="J643" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="0">
+        <v>2023</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>2024</v>
+      </c>
+      <c r="C644" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D644" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E644" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F644" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G644" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H644" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I644" t="s" s="0">
+        <v>2025</v>
+      </c>
+      <c r="J644" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="0">
+        <v>2026</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>2027</v>
+      </c>
+      <c r="C645" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D645" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E645" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F645" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G645" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H645" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I645" t="s" s="0">
+        <v>2028</v>
+      </c>
+      <c r="J645" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="0">
+        <v>2029</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>2030</v>
+      </c>
+      <c r="C646" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D646" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E646" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F646" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G646" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H646" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I646" t="s" s="0">
+        <v>2031</v>
+      </c>
+      <c r="J646" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="0">
+        <v>2032</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>2033</v>
+      </c>
+      <c r="C647" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D647" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E647" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F647" t="s" s="0">
+        <v>2034</v>
+      </c>
+      <c r="G647" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H647" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I647" t="s" s="0">
+        <v>2035</v>
+      </c>
+      <c r="J647" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="0">
+        <v>2036</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>2037</v>
+      </c>
+      <c r="C648" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D648" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E648" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F648" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G648" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H648" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I648" t="s" s="0">
+        <v>2038</v>
+      </c>
+      <c r="J648" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="0">
+        <v>2039</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>2040</v>
+      </c>
+      <c r="C649" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D649" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E649" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F649" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G649" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H649" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I649" t="s" s="0">
+        <v>2041</v>
+      </c>
+      <c r="J649" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="0">
+        <v>2042</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>2043</v>
+      </c>
+      <c r="C650" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D650" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E650" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F650" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G650" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H650" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I650" t="s" s="0">
+        <v>2044</v>
+      </c>
+      <c r="J650" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>2046</v>
+      </c>
+      <c r="C651" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D651" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E651" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F651" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G651" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H651" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I651" t="s" s="0">
+        <v>2047</v>
+      </c>
+      <c r="J651" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="0">
+        <v>2048</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>2049</v>
+      </c>
+      <c r="C652" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D652" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E652" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F652" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G652" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H652" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I652" t="s" s="0">
+        <v>2050</v>
+      </c>
+      <c r="J652" t="s" s="0">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="0">
+        <v>2051</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>2052</v>
+      </c>
+      <c r="C653" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D653" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E653" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F653" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G653" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H653" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I653" t="s" s="0">
+        <v>2053</v>
+      </c>
+      <c r="J653" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="0">
+        <v>2054</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>2055</v>
+      </c>
+      <c r="C654" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D654" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E654" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F654" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G654" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H654" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I654" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="J654" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="0">
+        <v>2057</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>2058</v>
+      </c>
+      <c r="C655" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D655" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E655" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F655" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G655" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H655" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I655" t="s" s="0">
+        <v>2059</v>
+      </c>
+      <c r="J655" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>2061</v>
+      </c>
+      <c r="C656" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D656" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E656" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F656" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G656" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H656" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I656" t="s" s="0">
+        <v>2062</v>
+      </c>
+      <c r="J656" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="0">
+        <v>2063</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>2064</v>
+      </c>
+      <c r="C657" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D657" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E657" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F657" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G657" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H657" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I657" t="s" s="0">
+        <v>2065</v>
+      </c>
+      <c r="J657" t="s" s="0">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="0">
+        <v>2066</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>2067</v>
+      </c>
+      <c r="C658" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D658" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E658" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F658" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G658" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H658" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I658" t="s" s="0">
+        <v>2068</v>
+      </c>
+      <c r="J658" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="0">
+        <v>2069</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>2070</v>
+      </c>
+      <c r="C659" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D659" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E659" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F659" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G659" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H659" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I659" t="s" s="0">
+        <v>2071</v>
+      </c>
+      <c r="J659" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="0">
+        <v>2072</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>2073</v>
+      </c>
+      <c r="C660" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D660" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E660" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F660" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G660" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H660" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I660" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="J660" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="0">
+        <v>2075</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>2076</v>
+      </c>
+      <c r="C661" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D661" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E661" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F661" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G661" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H661" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I661" t="s" s="0">
+        <v>2077</v>
+      </c>
+      <c r="J661" t="s" s="0">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="0">
+        <v>2078</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>2079</v>
+      </c>
+      <c r="C662" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D662" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E662" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F662" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G662" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H662" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I662" t="s" s="0">
+        <v>2080</v>
+      </c>
+      <c r="J662" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="0">
+        <v>2081</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>2082</v>
+      </c>
+      <c r="C663" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D663" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E663" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F663" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G663" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H663" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I663" t="s" s="0">
+        <v>2083</v>
+      </c>
+      <c r="J663" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="0">
+        <v>2084</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>2085</v>
+      </c>
+      <c r="C664" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D664" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E664" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F664" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G664" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H664" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I664" t="s" s="0">
+        <v>2086</v>
+      </c>
+      <c r="J664" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="0">
+        <v>2087</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>2088</v>
+      </c>
+      <c r="C665" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D665" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E665" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F665" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G665" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H665" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I665" t="s" s="0">
+        <v>2089</v>
+      </c>
+      <c r="J665" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="0">
+        <v>2090</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>2091</v>
+      </c>
+      <c r="C666" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D666" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E666" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F666" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G666" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H666" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I666" t="s" s="0">
+        <v>2092</v>
+      </c>
+      <c r="J666" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>2094</v>
+      </c>
+      <c r="C667" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D667" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E667" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F667" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G667" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H667" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I667" t="s" s="0">
+        <v>2095</v>
+      </c>
+      <c r="J667" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="0">
+        <v>2096</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>2097</v>
+      </c>
+      <c r="C668" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D668" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E668" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F668" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G668" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H668" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I668" t="s" s="0">
+        <v>2098</v>
+      </c>
+      <c r="J668" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="0">
+        <v>2099</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>2100</v>
+      </c>
+      <c r="C669" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D669" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E669" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F669" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G669" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H669" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I669" t="s" s="0">
+        <v>2101</v>
+      </c>
+      <c r="J669" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="0">
+        <v>2102</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>2103</v>
+      </c>
+      <c r="C670" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D670" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E670" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F670" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G670" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H670" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I670" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="J670" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="0">
+        <v>2105</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>2106</v>
+      </c>
+      <c r="C671" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D671" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E671" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F671" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G671" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H671" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I671" t="s" s="0">
+        <v>2107</v>
+      </c>
+      <c r="J671" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="0">
+        <v>2108</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>2109</v>
+      </c>
+      <c r="C672" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D672" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E672" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F672" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G672" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H672" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I672" t="s" s="0">
+        <v>2110</v>
+      </c>
+      <c r="J672" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="0">
+        <v>2111</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>2112</v>
+      </c>
+      <c r="C673" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D673" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E673" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F673" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G673" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H673" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I673" t="s" s="0">
+        <v>2113</v>
+      </c>
+      <c r="J673" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="0">
+        <v>2114</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>2115</v>
+      </c>
+      <c r="C674" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D674" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E674" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F674" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G674" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H674" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I674" t="s" s="0">
+        <v>2116</v>
+      </c>
+      <c r="J674" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="0">
+        <v>2117</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>2118</v>
+      </c>
+      <c r="C675" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D675" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E675" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F675" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G675" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H675" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I675" t="s" s="0">
+        <v>2119</v>
+      </c>
+      <c r="J675" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="0">
+        <v>2120</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>2121</v>
+      </c>
+      <c r="C676" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D676" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E676" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F676" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G676" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H676" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I676" t="s" s="0">
+        <v>2122</v>
+      </c>
+      <c r="J676" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="0">
+        <v>2123</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>2124</v>
+      </c>
+      <c r="C677" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D677" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E677" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F677" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G677" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H677" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I677" t="s" s="0">
+        <v>2125</v>
+      </c>
+      <c r="J677" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="0">
+        <v>2126</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>2127</v>
+      </c>
+      <c r="C678" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D678" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E678" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F678" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G678" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H678" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I678" t="s" s="0">
+        <v>2128</v>
+      </c>
+      <c r="J678" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="0">
+        <v>2129</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>2130</v>
+      </c>
+      <c r="C679" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D679" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E679" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F679" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G679" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H679" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I679" t="s" s="0">
+        <v>2131</v>
+      </c>
+      <c r="J679" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="0">
+        <v>2132</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>2133</v>
+      </c>
+      <c r="C680" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D680" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E680" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F680" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G680" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H680" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I680" t="s" s="0">
+        <v>2134</v>
+      </c>
+      <c r="J680" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="0">
+        <v>2135</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>2136</v>
+      </c>
+      <c r="C681" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D681" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E681" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F681" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G681" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H681" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I681" t="s" s="0">
+        <v>2137</v>
+      </c>
+      <c r="J681" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="0">
+        <v>2138</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>2139</v>
+      </c>
+      <c r="C682" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D682" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E682" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F682" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G682" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H682" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I682" t="s" s="0">
+        <v>2140</v>
+      </c>
+      <c r="J682" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="0">
+        <v>2141</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>2142</v>
+      </c>
+      <c r="C683" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D683" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E683" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F683" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G683" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H683" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I683" t="s" s="0">
+        <v>2143</v>
+      </c>
+      <c r="J683" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="0">
+        <v>2144</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>2145</v>
+      </c>
+      <c r="C684" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D684" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E684" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F684" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G684" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H684" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I684" t="s" s="0">
+        <v>2146</v>
+      </c>
+      <c r="J684" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="0">
+        <v>2147</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>2148</v>
+      </c>
+      <c r="C685" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D685" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E685" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F685" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G685" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H685" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I685" t="s" s="0">
+        <v>2149</v>
+      </c>
+      <c r="J685" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="0">
+        <v>2150</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>2151</v>
+      </c>
+      <c r="C686" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D686" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E686" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F686" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G686" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H686" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I686" t="s" s="0">
+        <v>2152</v>
+      </c>
+      <c r="J686" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="0">
+        <v>2153</v>
+      </c>
+      <c r="B687" t="s" s="0">
+        <v>2154</v>
+      </c>
+      <c r="C687" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D687" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E687" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F687" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G687" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H687" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I687" t="s" s="0">
+        <v>2155</v>
+      </c>
+      <c r="J687" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="0">
+        <v>2156</v>
+      </c>
+      <c r="B688" t="s" s="0">
+        <v>2157</v>
+      </c>
+      <c r="C688" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D688" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E688" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F688" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G688" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H688" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I688" t="s" s="0">
+        <v>2158</v>
+      </c>
+      <c r="J688" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="0">
+        <v>2159</v>
+      </c>
+      <c r="B689" t="s" s="0">
+        <v>2160</v>
+      </c>
+      <c r="C689" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D689" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E689" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F689" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G689" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H689" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I689" t="s" s="0">
+        <v>2161</v>
+      </c>
+      <c r="J689" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="0">
+        <v>2162</v>
+      </c>
+      <c r="B690" t="s" s="0">
+        <v>2163</v>
+      </c>
+      <c r="C690" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D690" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E690" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F690" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G690" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H690" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I690" t="s" s="0">
+        <v>2164</v>
+      </c>
+      <c r="J690" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="0">
+        <v>2165</v>
+      </c>
+      <c r="B691" t="s" s="0">
+        <v>2166</v>
+      </c>
+      <c r="C691" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D691" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E691" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F691" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G691" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H691" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I691" t="s" s="0">
+        <v>2167</v>
+      </c>
+      <c r="J691" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="0">
+        <v>2168</v>
+      </c>
+      <c r="B692" t="s" s="0">
+        <v>2169</v>
+      </c>
+      <c r="C692" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D692" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E692" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F692" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G692" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H692" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I692" t="s" s="0">
+        <v>2170</v>
+      </c>
+      <c r="J692" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="0">
+        <v>2171</v>
+      </c>
+      <c r="B693" t="s" s="0">
+        <v>2172</v>
+      </c>
+      <c r="C693" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D693" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E693" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F693" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G693" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H693" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I693" t="s" s="0">
+        <v>2173</v>
+      </c>
+      <c r="J693" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="0">
+        <v>2174</v>
+      </c>
+      <c r="B694" t="s" s="0">
+        <v>2175</v>
+      </c>
+      <c r="C694" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D694" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E694" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F694" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G694" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H694" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I694" t="s" s="0">
+        <v>2176</v>
+      </c>
+      <c r="J694" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="0">
+        <v>2177</v>
+      </c>
+      <c r="B695" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="C695" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D695" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E695" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F695" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G695" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H695" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I695" t="s" s="0">
+        <v>2179</v>
+      </c>
+      <c r="J695" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="0">
+        <v>2180</v>
+      </c>
+      <c r="B696" t="s" s="0">
+        <v>2181</v>
+      </c>
+      <c r="C696" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D696" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E696" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F696" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G696" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H696" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I696" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="J696" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="0">
+        <v>2183</v>
+      </c>
+      <c r="B697" t="s" s="0">
+        <v>2184</v>
+      </c>
+      <c r="C697" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D697" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E697" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F697" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G697" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H697" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I697" t="s" s="0">
+        <v>2185</v>
+      </c>
+      <c r="J697" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="0">
+        <v>2186</v>
+      </c>
+      <c r="B698" t="s" s="0">
+        <v>2187</v>
+      </c>
+      <c r="C698" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D698" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E698" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F698" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G698" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H698" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I698" t="s" s="0">
+        <v>2188</v>
+      </c>
+      <c r="J698" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="0">
+        <v>2189</v>
+      </c>
+      <c r="B699" t="s" s="0">
+        <v>2190</v>
+      </c>
+      <c r="C699" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D699" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E699" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F699" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G699" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H699" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I699" t="s" s="0">
+        <v>2191</v>
+      </c>
+      <c r="J699" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="0">
+        <v>2192</v>
+      </c>
+      <c r="B700" t="s" s="0">
+        <v>2193</v>
+      </c>
+      <c r="C700" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D700" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E700" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F700" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G700" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H700" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I700" t="s" s="0">
+        <v>2194</v>
+      </c>
+      <c r="J700" t="s" s="0">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="0">
+        <v>2195</v>
+      </c>
+      <c r="B701" t="s" s="0">
+        <v>2196</v>
+      </c>
+      <c r="C701" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D701" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E701" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F701" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G701" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H701" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I701" t="s" s="0">
+        <v>2197</v>
+      </c>
+      <c r="J701" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="0">
+        <v>2198</v>
+      </c>
+      <c r="B702" t="s" s="0">
+        <v>2199</v>
+      </c>
+      <c r="C702" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D702" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E702" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F702" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G702" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H702" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I702" t="s" s="0">
+        <v>2200</v>
+      </c>
+      <c r="J702" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="0">
+        <v>2201</v>
+      </c>
+      <c r="B703" t="s" s="0">
+        <v>2202</v>
+      </c>
+      <c r="C703" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D703" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E703" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F703" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="G703" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H703" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I703" t="s" s="0">
+        <v>2203</v>
+      </c>
+      <c r="J703" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="0">
+        <v>2204</v>
+      </c>
+      <c r="B704" t="s" s="0">
+        <v>2205</v>
+      </c>
+      <c r="C704" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D704" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E704" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F704" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G704" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H704" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I704" t="s" s="0">
+        <v>2206</v>
+      </c>
+      <c r="J704" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="0">
+        <v>2207</v>
+      </c>
+      <c r="B705" t="s" s="0">
+        <v>2208</v>
+      </c>
+      <c r="C705" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D705" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E705" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F705" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G705" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H705" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I705" t="s" s="0">
+        <v>2209</v>
+      </c>
+      <c r="J705" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="0">
+        <v>2210</v>
+      </c>
+      <c r="B706" t="s" s="0">
+        <v>2211</v>
+      </c>
+      <c r="C706" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D706" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E706" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F706" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G706" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H706" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I706" t="s" s="0">
+        <v>2212</v>
+      </c>
+      <c r="J706" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="0">
+        <v>2213</v>
+      </c>
+      <c r="B707" t="s" s="0">
+        <v>2214</v>
+      </c>
+      <c r="C707" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D707" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E707" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F707" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G707" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H707" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I707" t="s" s="0">
+        <v>2215</v>
+      </c>
+      <c r="J707" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="0">
+        <v>2216</v>
+      </c>
+      <c r="B708" t="s" s="0">
+        <v>2217</v>
+      </c>
+      <c r="C708" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D708" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E708" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F708" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G708" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H708" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I708" t="s" s="0">
+        <v>2218</v>
+      </c>
+      <c r="J708" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="0">
+        <v>2219</v>
+      </c>
+      <c r="B709" t="s" s="0">
+        <v>2220</v>
+      </c>
+      <c r="C709" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D709" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E709" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F709" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G709" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H709" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I709" t="s" s="0">
+        <v>2221</v>
+      </c>
+      <c r="J709" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="0">
+        <v>2222</v>
+      </c>
+      <c r="B710" t="s" s="0">
+        <v>2223</v>
+      </c>
+      <c r="C710" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D710" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E710" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F710" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G710" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H710" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I710" t="s" s="0">
+        <v>2224</v>
+      </c>
+      <c r="J710" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="0">
+        <v>2225</v>
+      </c>
+      <c r="B711" t="s" s="0">
+        <v>2226</v>
+      </c>
+      <c r="C711" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D711" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E711" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F711" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G711" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H711" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I711" t="s" s="0">
+        <v>2227</v>
+      </c>
+      <c r="J711" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="0">
+        <v>2228</v>
+      </c>
+      <c r="B712" t="s" s="0">
+        <v>2229</v>
+      </c>
+      <c r="C712" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D712" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E712" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F712" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G712" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H712" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I712" t="s" s="0">
+        <v>2230</v>
+      </c>
+      <c r="J712" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="B713" t="s" s="0">
+        <v>2232</v>
+      </c>
+      <c r="C713" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D713" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E713" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F713" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G713" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H713" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I713" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="J713" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="0">
+        <v>2234</v>
+      </c>
+      <c r="B714" t="s" s="0">
+        <v>2235</v>
+      </c>
+      <c r="C714" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D714" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E714" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F714" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G714" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H714" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I714" t="s" s="0">
+        <v>2236</v>
+      </c>
+      <c r="J714" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="0">
+        <v>2237</v>
+      </c>
+      <c r="B715" t="s" s="0">
+        <v>2238</v>
+      </c>
+      <c r="C715" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D715" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E715" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F715" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G715" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H715" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I715" t="s" s="0">
+        <v>2239</v>
+      </c>
+      <c r="J715" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="0">
+        <v>2240</v>
+      </c>
+      <c r="B716" t="s" s="0">
+        <v>2241</v>
+      </c>
+      <c r="C716" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D716" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E716" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F716" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G716" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H716" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I716" t="s" s="0">
+        <v>2242</v>
+      </c>
+      <c r="J716" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="0">
+        <v>2243</v>
+      </c>
+      <c r="B717" t="s" s="0">
+        <v>2244</v>
+      </c>
+      <c r="C717" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D717" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E717" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F717" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G717" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H717" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I717" t="s" s="0">
+        <v>2245</v>
+      </c>
+      <c r="J717" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="0">
+        <v>2246</v>
+      </c>
+      <c r="B718" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="C718" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D718" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E718" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F718" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G718" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H718" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I718" t="s" s="0">
+        <v>2248</v>
+      </c>
+      <c r="J718" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="0">
+        <v>2249</v>
+      </c>
+      <c r="B719" t="s" s="0">
+        <v>2250</v>
+      </c>
+      <c r="C719" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D719" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E719" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F719" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G719" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H719" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I719" t="s" s="0">
+        <v>2251</v>
+      </c>
+      <c r="J719" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="0">
+        <v>2252</v>
+      </c>
+      <c r="B720" t="s" s="0">
+        <v>2253</v>
+      </c>
+      <c r="C720" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D720" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E720" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F720" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G720" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H720" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I720" t="s" s="0">
+        <v>2254</v>
+      </c>
+      <c r="J720" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="0">
+        <v>2255</v>
+      </c>
+      <c r="B721" t="s" s="0">
+        <v>2256</v>
+      </c>
+      <c r="C721" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D721" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E721" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F721" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G721" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H721" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I721" t="s" s="0">
+        <v>2257</v>
+      </c>
+      <c r="J721" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="0">
+        <v>2258</v>
+      </c>
+      <c r="B722" t="s" s="0">
+        <v>2259</v>
+      </c>
+      <c r="C722" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D722" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E722" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F722" t="s" s="0">
+        <v>1377</v>
+      </c>
+      <c r="G722" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H722" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I722" t="s" s="0">
+        <v>2260</v>
+      </c>
+      <c r="J722" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="B723" t="s" s="0">
+        <v>2262</v>
+      </c>
+      <c r="C723" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D723" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E723" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F723" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G723" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H723" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I723" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="J723" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="0">
+        <v>2264</v>
+      </c>
+      <c r="B724" t="s" s="0">
+        <v>2265</v>
+      </c>
+      <c r="C724" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D724" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E724" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F724" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G724" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H724" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I724" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="J724" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="0">
+        <v>2267</v>
+      </c>
+      <c r="B725" t="s" s="0">
+        <v>2268</v>
+      </c>
+      <c r="C725" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D725" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E725" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F725" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G725" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H725" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I725" t="s" s="0">
+        <v>2269</v>
+      </c>
+      <c r="J725" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="B726" t="s" s="0">
+        <v>2271</v>
+      </c>
+      <c r="C726" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D726" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E726" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F726" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G726" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H726" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I726" t="s" s="0">
+        <v>2272</v>
+      </c>
+      <c r="J726" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="0">
+        <v>2273</v>
+      </c>
+      <c r="B727" t="s" s="0">
+        <v>2274</v>
+      </c>
+      <c r="C727" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D727" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E727" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F727" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G727" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H727" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I727" t="s" s="0">
+        <v>2275</v>
+      </c>
+      <c r="J727" t="s" s="0">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="0">
+        <v>2276</v>
+      </c>
+      <c r="B728" t="s" s="0">
+        <v>2277</v>
+      </c>
+      <c r="C728" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D728" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F728" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G728" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H728" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I728" t="s" s="0">
+        <v>2278</v>
+      </c>
+      <c r="J728" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="0">
+        <v>2279</v>
+      </c>
+      <c r="B729" t="s" s="0">
+        <v>2280</v>
+      </c>
+      <c r="C729" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D729" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E729" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F729" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G729" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H729" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I729" t="s" s="0">
+        <v>2281</v>
+      </c>
+      <c r="J729" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="0">
+        <v>2282</v>
+      </c>
+      <c r="B730" t="s" s="0">
+        <v>2283</v>
+      </c>
+      <c r="C730" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D730" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E730" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F730" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G730" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H730" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I730" t="s" s="0">
+        <v>2284</v>
+      </c>
+      <c r="J730" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="0">
+        <v>2285</v>
+      </c>
+      <c r="B731" t="s" s="0">
+        <v>2286</v>
+      </c>
+      <c r="C731" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D731" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E731" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F731" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G731" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H731" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I731" t="s" s="0">
+        <v>2287</v>
+      </c>
+      <c r="J731" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="0">
+        <v>2288</v>
+      </c>
+      <c r="B732" t="s" s="0">
+        <v>2289</v>
+      </c>
+      <c r="C732" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D732" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E732" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F732" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G732" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H732" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I732" t="s" s="0">
+        <v>2290</v>
+      </c>
+      <c r="J732" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="B733" t="s" s="0">
+        <v>2292</v>
+      </c>
+      <c r="C733" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D733" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E733" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F733" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G733" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H733" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I733" t="s" s="0">
+        <v>2293</v>
+      </c>
+      <c r="J733" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="0">
+        <v>2294</v>
+      </c>
+      <c r="B734" t="s" s="0">
+        <v>2295</v>
+      </c>
+      <c r="C734" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D734" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E734" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F734" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G734" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H734" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I734" t="s" s="0">
+        <v>2296</v>
+      </c>
+      <c r="J734" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="0">
+        <v>2297</v>
+      </c>
+      <c r="B735" t="s" s="0">
+        <v>2298</v>
+      </c>
+      <c r="C735" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D735" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E735" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F735" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G735" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H735" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I735" t="s" s="0">
+        <v>2299</v>
+      </c>
+      <c r="J735" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="0">
+        <v>2300</v>
+      </c>
+      <c r="B736" t="s" s="0">
+        <v>2301</v>
+      </c>
+      <c r="C736" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D736" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E736" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F736" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G736" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H736" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I736" t="s" s="0">
+        <v>2302</v>
+      </c>
+      <c r="J736" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="0">
+        <v>2303</v>
+      </c>
+      <c r="B737" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="C737" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D737" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E737" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F737" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G737" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H737" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I737" t="s" s="0">
+        <v>2305</v>
+      </c>
+      <c r="J737" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="0">
+        <v>2306</v>
+      </c>
+      <c r="B738" t="s" s="0">
+        <v>2307</v>
+      </c>
+      <c r="C738" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D738" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E738" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F738" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G738" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H738" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I738" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="J738" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="0">
+        <v>2309</v>
+      </c>
+      <c r="B739" t="s" s="0">
+        <v>2310</v>
+      </c>
+      <c r="C739" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D739" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E739" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F739" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G739" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H739" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I739" t="s" s="0">
+        <v>2311</v>
+      </c>
+      <c r="J739" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="0">
+        <v>2312</v>
+      </c>
+      <c r="B740" t="s" s="0">
+        <v>2313</v>
+      </c>
+      <c r="C740" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D740" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E740" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F740" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G740" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H740" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I740" t="s" s="0">
+        <v>2314</v>
+      </c>
+      <c r="J740" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="0">
+        <v>2315</v>
+      </c>
+      <c r="B741" t="s" s="0">
+        <v>2316</v>
+      </c>
+      <c r="C741" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D741" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E741" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F741" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G741" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H741" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I741" t="s" s="0">
+        <v>2317</v>
+      </c>
+      <c r="J741" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="0">
+        <v>2318</v>
+      </c>
+      <c r="B742" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="C742" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D742" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E742" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F742" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G742" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H742" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I742" t="s" s="0">
+        <v>2320</v>
+      </c>
+      <c r="J742" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="0">
+        <v>2321</v>
+      </c>
+      <c r="B743" t="s" s="0">
+        <v>2322</v>
+      </c>
+      <c r="C743" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D743" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E743" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F743" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G743" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H743" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I743" t="s" s="0">
+        <v>2323</v>
+      </c>
+      <c r="J743" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="0">
+        <v>2324</v>
+      </c>
+      <c r="B744" t="s" s="0">
+        <v>2325</v>
+      </c>
+      <c r="C744" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D744" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E744" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F744" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G744" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H744" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I744" t="s" s="0">
+        <v>2326</v>
+      </c>
+      <c r="J744" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="0">
+        <v>2327</v>
+      </c>
+      <c r="B745" t="s" s="0">
+        <v>2328</v>
+      </c>
+      <c r="C745" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D745" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E745" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F745" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G745" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H745" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I745" t="s" s="0">
+        <v>2329</v>
+      </c>
+      <c r="J745" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="0">
+        <v>2330</v>
+      </c>
+      <c r="B746" t="s" s="0">
+        <v>2331</v>
+      </c>
+      <c r="C746" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D746" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E746" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F746" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G746" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H746" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I746" t="s" s="0">
+        <v>2332</v>
+      </c>
+      <c r="J746" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="0">
+        <v>2333</v>
+      </c>
+      <c r="B747" t="s" s="0">
+        <v>2334</v>
+      </c>
+      <c r="C747" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D747" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E747" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F747" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G747" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H747" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I747" t="s" s="0">
+        <v>2335</v>
+      </c>
+      <c r="J747" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="0">
+        <v>2336</v>
+      </c>
+      <c r="B748" t="s" s="0">
+        <v>2337</v>
+      </c>
+      <c r="C748" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D748" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E748" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F748" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G748" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H748" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I748" t="s" s="0">
+        <v>2338</v>
+      </c>
+      <c r="J748" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="B749" t="s" s="0">
+        <v>2340</v>
+      </c>
+      <c r="C749" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D749" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E749" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F749" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G749" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H749" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I749" t="s" s="0">
+        <v>2341</v>
+      </c>
+      <c r="J749" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="0">
+        <v>2342</v>
+      </c>
+      <c r="B750" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="C750" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D750" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E750" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F750" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G750" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H750" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I750" t="s" s="0">
+        <v>2344</v>
+      </c>
+      <c r="J750" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="0">
+        <v>2345</v>
+      </c>
+      <c r="B751" t="s" s="0">
+        <v>2346</v>
+      </c>
+      <c r="C751" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D751" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E751" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F751" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G751" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H751" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I751" t="s" s="0">
+        <v>2347</v>
+      </c>
+      <c r="J751" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="0">
+        <v>2348</v>
+      </c>
+      <c r="B752" t="s" s="0">
+        <v>2349</v>
+      </c>
+      <c r="C752" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D752" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E752" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F752" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G752" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H752" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I752" t="s" s="0">
+        <v>2350</v>
+      </c>
+      <c r="J752" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s" s="0">
+        <v>2351</v>
+      </c>
+      <c r="B753" t="s" s="0">
+        <v>2352</v>
+      </c>
+      <c r="C753" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D753" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E753" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F753" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G753" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H753" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I753" t="s" s="0">
+        <v>2353</v>
+      </c>
+      <c r="J753" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s" s="0">
+        <v>2354</v>
+      </c>
+      <c r="B754" t="s" s="0">
+        <v>2355</v>
+      </c>
+      <c r="C754" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D754" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E754" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F754" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G754" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H754" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I754" t="s" s="0">
+        <v>2356</v>
+      </c>
+      <c r="J754" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s" s="0">
+        <v>2357</v>
+      </c>
+      <c r="B755" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="C755" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D755" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E755" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F755" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G755" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H755" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I755" t="s" s="0">
+        <v>2359</v>
+      </c>
+      <c r="J755" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s" s="0">
+        <v>2360</v>
+      </c>
+      <c r="B756" t="s" s="0">
+        <v>2361</v>
+      </c>
+      <c r="C756" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D756" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E756" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F756" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G756" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H756" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I756" t="s" s="0">
+        <v>2362</v>
+      </c>
+      <c r="J756" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s" s="0">
+        <v>2363</v>
+      </c>
+      <c r="B757" t="s" s="0">
+        <v>2364</v>
+      </c>
+      <c r="C757" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D757" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E757" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F757" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G757" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H757" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I757" t="s" s="0">
+        <v>2365</v>
+      </c>
+      <c r="J757" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s" s="0">
+        <v>2366</v>
+      </c>
+      <c r="B758" t="s" s="0">
+        <v>2367</v>
+      </c>
+      <c r="C758" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D758" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E758" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F758" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G758" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H758" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I758" t="s" s="0">
+        <v>2368</v>
+      </c>
+      <c r="J758" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s" s="0">
+        <v>2369</v>
+      </c>
+      <c r="B759" t="s" s="0">
+        <v>2370</v>
+      </c>
+      <c r="C759" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D759" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E759" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F759" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G759" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H759" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I759" t="s" s="0">
+        <v>2371</v>
+      </c>
+      <c r="J759" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s" s="0">
+        <v>2372</v>
+      </c>
+      <c r="B760" t="s" s="0">
+        <v>2373</v>
+      </c>
+      <c r="C760" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D760" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E760" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F760" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G760" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H760" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I760" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="J760" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s" s="0">
+        <v>2375</v>
+      </c>
+      <c r="B761" t="s" s="0">
+        <v>2376</v>
+      </c>
+      <c r="C761" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D761" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E761" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F761" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G761" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H761" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I761" t="s" s="0">
+        <v>2377</v>
+      </c>
+      <c r="J761" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s" s="0">
+        <v>2378</v>
+      </c>
+      <c r="B762" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="C762" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D762" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E762" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F762" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G762" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H762" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I762" t="s" s="0">
+        <v>2380</v>
+      </c>
+      <c r="J762" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s" s="0">
+        <v>2381</v>
+      </c>
+      <c r="B763" t="s" s="0">
+        <v>2382</v>
+      </c>
+      <c r="C763" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D763" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E763" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F763" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G763" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H763" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I763" t="s" s="0">
+        <v>2383</v>
+      </c>
+      <c r="J763" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s" s="0">
+        <v>2384</v>
+      </c>
+      <c r="B764" t="s" s="0">
+        <v>2385</v>
+      </c>
+      <c r="C764" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D764" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E764" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F764" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G764" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H764" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I764" t="s" s="0">
+        <v>2386</v>
+      </c>
+      <c r="J764" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s" s="0">
+        <v>2387</v>
+      </c>
+      <c r="B765" t="s" s="0">
+        <v>2388</v>
+      </c>
+      <c r="C765" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D765" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E765" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F765" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G765" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H765" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I765" t="s" s="0">
+        <v>2389</v>
+      </c>
+      <c r="J765" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s" s="0">
+        <v>2390</v>
+      </c>
+      <c r="B766" t="s" s="0">
+        <v>2391</v>
+      </c>
+      <c r="C766" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D766" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E766" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F766" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="G766" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H766" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I766" t="s" s="0">
+        <v>2392</v>
+      </c>
+      <c r="J766" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s" s="0">
+        <v>2393</v>
+      </c>
+      <c r="B767" t="s" s="0">
+        <v>2394</v>
+      </c>
+      <c r="C767" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D767" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E767" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F767" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G767" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H767" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I767" t="s" s="0">
+        <v>2395</v>
+      </c>
+      <c r="J767" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s" s="0">
+        <v>2396</v>
+      </c>
+      <c r="B768" t="s" s="0">
+        <v>2397</v>
+      </c>
+      <c r="C768" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D768" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E768" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F768" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G768" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H768" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I768" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="J768" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s" s="0">
+        <v>2399</v>
+      </c>
+      <c r="B769" t="s" s="0">
+        <v>2400</v>
+      </c>
+      <c r="C769" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D769" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E769" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F769" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G769" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H769" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I769" t="s" s="0">
+        <v>2401</v>
+      </c>
+      <c r="J769" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s" s="0">
+        <v>2402</v>
+      </c>
+      <c r="B770" t="s" s="0">
+        <v>2403</v>
+      </c>
+      <c r="C770" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D770" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E770" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F770" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G770" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H770" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I770" t="s" s="0">
+        <v>2404</v>
+      </c>
+      <c r="J770" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s" s="0">
+        <v>2405</v>
+      </c>
+      <c r="B771" t="s" s="0">
+        <v>2406</v>
+      </c>
+      <c r="C771" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D771" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E771" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F771" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G771" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H771" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I771" t="s" s="0">
+        <v>2407</v>
+      </c>
+      <c r="J771" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s" s="0">
+        <v>2408</v>
+      </c>
+      <c r="B772" t="s" s="0">
+        <v>2409</v>
+      </c>
+      <c r="C772" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D772" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E772" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F772" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G772" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H772" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I772" t="s" s="0">
+        <v>2410</v>
+      </c>
+      <c r="J772" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7720" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7790" uniqueCount="2432">
   <si>
     <t>File Name</t>
   </si>
@@ -7245,6 +7245,69 @@
   </si>
   <si>
     <t>b19cb776d4884958bde5b34c0081e74a</t>
+  </si>
+  <si>
+    <t>Event-KRW.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Event-KRW.jpg</t>
+  </si>
+  <si>
+    <t>b90a1fd4ca2740a69109b34c0081ee0f</t>
+  </si>
+  <si>
+    <t>Macys-KUX.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Macys-KUX.jpg</t>
+  </si>
+  <si>
+    <t>ddb97ef14b944a6a8eb9b34c0081f2e4</t>
+  </si>
+  <si>
+    <t>Olive-Z2X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Olive-Z2X.jpg</t>
+  </si>
+  <si>
+    <t>eda51697fab440839e5ab34c0081f773</t>
+  </si>
+  <si>
+    <t>Green-Apple-Z49.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Green-Apple-Z49.jpg</t>
+  </si>
+  <si>
+    <t>16e8e0f3b9d34e689229b34c0081ff09</t>
+  </si>
+  <si>
+    <t>Red-Z2Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Red-Z2Y.jpg</t>
+  </si>
+  <si>
+    <t>673725080e004ea7822bb34c00820361</t>
+  </si>
+  <si>
+    <t>Fiesta-KPM.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fiesta-KPM.jpg</t>
+  </si>
+  <si>
+    <t>50e0991b862348e685efb34c008205ed</t>
+  </si>
+  <si>
+    <t>Poppy-ZA3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Poppy-ZA3.jpg</t>
+  </si>
+  <si>
+    <t>d0c1139b476b4b469ab0b34c0082130b</t>
   </si>
 </sst>
 </file>
@@ -7289,7 +7352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J772"/>
+  <dimension ref="A1:J779"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -31999,6 +32062,230 @@
         <v>134</v>
       </c>
     </row>
+    <row r="773">
+      <c r="A773" t="s" s="0">
+        <v>2411</v>
+      </c>
+      <c r="B773" t="s" s="0">
+        <v>2412</v>
+      </c>
+      <c r="C773" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D773" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E773" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F773" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G773" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H773" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I773" t="s" s="0">
+        <v>2413</v>
+      </c>
+      <c r="J773" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s" s="0">
+        <v>2414</v>
+      </c>
+      <c r="B774" t="s" s="0">
+        <v>2415</v>
+      </c>
+      <c r="C774" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D774" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E774" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F774" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G774" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H774" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I774" t="s" s="0">
+        <v>2416</v>
+      </c>
+      <c r="J774" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s" s="0">
+        <v>2417</v>
+      </c>
+      <c r="B775" t="s" s="0">
+        <v>2418</v>
+      </c>
+      <c r="C775" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D775" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E775" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F775" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G775" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H775" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I775" t="s" s="0">
+        <v>2419</v>
+      </c>
+      <c r="J775" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s" s="0">
+        <v>2420</v>
+      </c>
+      <c r="B776" t="s" s="0">
+        <v>2421</v>
+      </c>
+      <c r="C776" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D776" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E776" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F776" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G776" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H776" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I776" t="s" s="0">
+        <v>2422</v>
+      </c>
+      <c r="J776" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s" s="0">
+        <v>2423</v>
+      </c>
+      <c r="B777" t="s" s="0">
+        <v>2424</v>
+      </c>
+      <c r="C777" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D777" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E777" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F777" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G777" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H777" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I777" t="s" s="0">
+        <v>2425</v>
+      </c>
+      <c r="J777" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s" s="0">
+        <v>2426</v>
+      </c>
+      <c r="B778" t="s" s="0">
+        <v>2427</v>
+      </c>
+      <c r="C778" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D778" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E778" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F778" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G778" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H778" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I778" t="s" s="0">
+        <v>2428</v>
+      </c>
+      <c r="J778" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s" s="0">
+        <v>2429</v>
+      </c>
+      <c r="B779" t="s" s="0">
+        <v>2430</v>
+      </c>
+      <c r="C779" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D779" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E779" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F779" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G779" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H779" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I779" t="s" s="0">
+        <v>2431</v>
+      </c>
+      <c r="J779" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7790" uniqueCount="2432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8160" uniqueCount="2544">
   <si>
     <t>File Name</t>
   </si>
@@ -7308,6 +7308,342 @@
   </si>
   <si>
     <t>d0c1139b476b4b469ab0b34c0082130b</t>
+  </si>
+  <si>
+    <t>Sequence-KY0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sequence-KY0.jpg</t>
+  </si>
+  <si>
+    <t>f2b5eaea5ac749e2bd64b34c0082174a</t>
+  </si>
+  <si>
+    <t>History-KT3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/History-KT3.jpg</t>
+  </si>
+  <si>
+    <t>1dd245793c3e46e08ff5b34c00821437</t>
+  </si>
+  <si>
+    <t>Shale-ZCC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Shale-ZCC.jpg</t>
+  </si>
+  <si>
+    <t>bc7382f7d03f489d83aab34c008224ad</t>
+  </si>
+  <si>
+    <t>Lucid-Z3R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lucid-Z3R.jpg</t>
+  </si>
+  <si>
+    <t>a232c6fc24c2494282f6b34c008225cb</t>
+  </si>
+  <si>
+    <t>Lagoon-KVW.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lagoon-KVW.jpg</t>
+  </si>
+  <si>
+    <t>03052978bb654c4b8181b34c0082262f</t>
+  </si>
+  <si>
+    <t>Taupe-Z4J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Taupe-Z4J.jpg</t>
+  </si>
+  <si>
+    <t>76ce92f6a63441959686b34c008235f0</t>
+  </si>
+  <si>
+    <t>Thistle-A74.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Thistle-A74.jpg</t>
+  </si>
+  <si>
+    <t>76bc0dc3cdab4e84bdf6b34c00823770</t>
+  </si>
+  <si>
+    <t>Straw-KR1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Straw-KR1.jpg</t>
+  </si>
+  <si>
+    <t>66f755fa97d047128a94b34c00823e97</t>
+  </si>
+  <si>
+    <t>Stratus-KR0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stratus-KR0.jpg</t>
+  </si>
+  <si>
+    <t>addabb5ea1ff4ff8b432b34c0082465b</t>
+  </si>
+  <si>
+    <t>Timelapse-KTD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Timelapse-KTD.jpg</t>
+  </si>
+  <si>
+    <t>ff07dd8471454491ae34b34c0082446e</t>
+  </si>
+  <si>
+    <t>Bordeaux-Z3N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Bordeaux-Z3N.jpg</t>
+  </si>
+  <si>
+    <t>5e1e0fa57a574bd992abb34c00824edf</t>
+  </si>
+  <si>
+    <t>Cloud-Z1E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cloud-Z1E.jpg</t>
+  </si>
+  <si>
+    <t>a7cd1d286c62485c9ac1b34c00825539</t>
+  </si>
+  <si>
+    <t>Fossil-Z1M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fossil-Z1M.jpg</t>
+  </si>
+  <si>
+    <t>b598544c12304138b317b34c00825661</t>
+  </si>
+  <si>
+    <t>Fuchsia-ZCK.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fuchsia-ZCK.jpg</t>
+  </si>
+  <si>
+    <t>1d4dab02adcc4344a743b34c0082622e</t>
+  </si>
+  <si>
+    <t>Watts-KV8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Watts-KV8.jpg</t>
+  </si>
+  <si>
+    <t>b95c2295ba664c0cac32b34c0082687a</t>
+  </si>
+  <si>
+    <t>Turquoise-Z9V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Turquoise-Z9V.jpg</t>
+  </si>
+  <si>
+    <t>a1a58d4b2f33480db230b34c00826795</t>
+  </si>
+  <si>
+    <t>Notation-KYC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Notation-KYC.jpg</t>
+  </si>
+  <si>
+    <t>19902b523a814c77b19eb34c008273b1</t>
+  </si>
+  <si>
+    <t>Nimbus-Z3T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nimbus-Z3T.jpg</t>
+  </si>
+  <si>
+    <t>e7c7d50b7b4c477b9d3cb34c0082773e</t>
+  </si>
+  <si>
+    <t>Otter-KW0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Otter-KW0.jpg</t>
+  </si>
+  <si>
+    <t>2ecb06fe585b43a6a9a6b34c00827abc</t>
+  </si>
+  <si>
+    <t>Astro-Strandz-JA7.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Astro-Strandz-JA7.jpg</t>
+  </si>
+  <si>
+    <t>a2908080de3e47928f52b34c0082855f</t>
+  </si>
+  <si>
+    <t>Yunnan-K19.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Yunnan-K19.jpg</t>
+  </si>
+  <si>
+    <t>a9d264006be1465a8d73b34c0082899e</t>
+  </si>
+  <si>
+    <t>Truss-Maple-JC4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Truss-Maple-JC4.jpg</t>
+  </si>
+  <si>
+    <t>c002dadaa7ae461dae95b34c00829100</t>
+  </si>
+  <si>
+    <t>White-Carrara-J5V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/White-Carrara-J5V.jpg</t>
+  </si>
+  <si>
+    <t>209960d22e1947d9af31b34c0082959c</t>
+  </si>
+  <si>
+    <t>White-Tigris-J09.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/White-Tigris-J09.jpg</t>
+  </si>
+  <si>
+    <t>05117e51a33243e8aea8b34c0082975a</t>
+  </si>
+  <si>
+    <t>Warehouse-Oak-JC9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Warehouse-Oak-JC9.jpg</t>
+  </si>
+  <si>
+    <t>05ae61cf870b47019d5db34c0082a1e1</t>
+  </si>
+  <si>
+    <t>Tangerine-J5N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tangerine-J5N.jpg</t>
+  </si>
+  <si>
+    <t>4fd053fd94c04cd3bb16b34c0082a4b6</t>
+  </si>
+  <si>
+    <t>0.10 MB</t>
+  </si>
+  <si>
+    <t>Calm-Distinction-J3V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Calm-Distinction-J3V.jpg</t>
+  </si>
+  <si>
+    <t>af9733cbd8574f4e8d06b34c0082a618</t>
+  </si>
+  <si>
+    <t>Nickel-Ev-J14.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nickel-Ev-J14.jpg</t>
+  </si>
+  <si>
+    <t>4e14629246ac41dab524b34c0082b193</t>
+  </si>
+  <si>
+    <t>Neutral-Glace-J0X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Neutral-Glace-J0X.jpg</t>
+  </si>
+  <si>
+    <t>ff98c490eab34e5e922cb34c0082b326</t>
+  </si>
+  <si>
+    <t>Vous-Serene-J42.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Vous-Serene-J42.jpg</t>
+  </si>
+  <si>
+    <t>dbafa8cb331e4869bd82b34c0082b3f7</t>
+  </si>
+  <si>
+    <t>Tuscan-Walnut-J6R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tuscan-Walnut-J6R.jpg</t>
+  </si>
+  <si>
+    <t>a407f76f677c44a3b937b34c0082c301</t>
+  </si>
+  <si>
+    <t>Crown-Cherry-JD5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crown-Cherry-JD5.jpg</t>
+  </si>
+  <si>
+    <t>08eca4da48724ac2aaefb34c0082c616</t>
+  </si>
+  <si>
+    <t>Natural-Rift-J6Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Natural-Rift-J6Y.jpg</t>
+  </si>
+  <si>
+    <t>cefef41f0fa94cf3872bb34c0082c4d5</t>
+  </si>
+  <si>
+    <t>Loden-Zephyr-J1C.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Loden-Zephyr-J1C.jpg</t>
+  </si>
+  <si>
+    <t>068c69fb972345038c50b34c0082d0e2</t>
+  </si>
+  <si>
+    <t>huntington-Maple-J6V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/huntington-Maple-J6V.jpg</t>
+  </si>
+  <si>
+    <t>4a13337970f945b8b420b34c0082d505</t>
+  </si>
+  <si>
+    <t>Loft-Oak-K14.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Loft-Oak-K14.jpg</t>
+  </si>
+  <si>
+    <t>36481bcd8fc7422eb407b34c0082db3d</t>
+  </si>
+  <si>
+    <t>Rustic-Slate-J56.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Rustic-Slate-J56.jpg</t>
+  </si>
+  <si>
+    <t>26c5ba34000d4fe88b7ab34c0082defe</t>
   </si>
 </sst>
 </file>
@@ -7352,7 +7688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J779"/>
+  <dimension ref="A1:J816"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -32286,6 +32622,1190 @@
         <v>115</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="s" s="0">
+        <v>2432</v>
+      </c>
+      <c r="B780" t="s" s="0">
+        <v>2433</v>
+      </c>
+      <c r="C780" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D780" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E780" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F780" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G780" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H780" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I780" t="s" s="0">
+        <v>2434</v>
+      </c>
+      <c r="J780" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s" s="0">
+        <v>2435</v>
+      </c>
+      <c r="B781" t="s" s="0">
+        <v>2436</v>
+      </c>
+      <c r="C781" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D781" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E781" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F781" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G781" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H781" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I781" t="s" s="0">
+        <v>2437</v>
+      </c>
+      <c r="J781" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s" s="0">
+        <v>2438</v>
+      </c>
+      <c r="B782" t="s" s="0">
+        <v>2439</v>
+      </c>
+      <c r="C782" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D782" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E782" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F782" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G782" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H782" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I782" t="s" s="0">
+        <v>2440</v>
+      </c>
+      <c r="J782" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s" s="0">
+        <v>2441</v>
+      </c>
+      <c r="B783" t="s" s="0">
+        <v>2442</v>
+      </c>
+      <c r="C783" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D783" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E783" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F783" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G783" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H783" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I783" t="s" s="0">
+        <v>2443</v>
+      </c>
+      <c r="J783" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s" s="0">
+        <v>2444</v>
+      </c>
+      <c r="B784" t="s" s="0">
+        <v>2445</v>
+      </c>
+      <c r="C784" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D784" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E784" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F784" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="G784" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H784" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I784" t="s" s="0">
+        <v>2446</v>
+      </c>
+      <c r="J784" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s" s="0">
+        <v>2447</v>
+      </c>
+      <c r="B785" t="s" s="0">
+        <v>2448</v>
+      </c>
+      <c r="C785" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D785" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E785" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F785" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G785" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H785" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I785" t="s" s="0">
+        <v>2449</v>
+      </c>
+      <c r="J785" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s" s="0">
+        <v>2450</v>
+      </c>
+      <c r="B786" t="s" s="0">
+        <v>2451</v>
+      </c>
+      <c r="C786" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D786" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E786" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F786" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G786" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H786" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I786" t="s" s="0">
+        <v>2452</v>
+      </c>
+      <c r="J786" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s" s="0">
+        <v>2453</v>
+      </c>
+      <c r="B787" t="s" s="0">
+        <v>2454</v>
+      </c>
+      <c r="C787" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D787" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E787" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F787" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G787" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H787" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I787" t="s" s="0">
+        <v>2455</v>
+      </c>
+      <c r="J787" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s" s="0">
+        <v>2456</v>
+      </c>
+      <c r="B788" t="s" s="0">
+        <v>2457</v>
+      </c>
+      <c r="C788" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D788" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E788" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F788" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G788" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H788" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I788" t="s" s="0">
+        <v>2458</v>
+      </c>
+      <c r="J788" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s" s="0">
+        <v>2459</v>
+      </c>
+      <c r="B789" t="s" s="0">
+        <v>2460</v>
+      </c>
+      <c r="C789" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D789" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E789" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F789" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G789" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H789" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I789" t="s" s="0">
+        <v>2461</v>
+      </c>
+      <c r="J789" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="B790" t="s" s="0">
+        <v>2463</v>
+      </c>
+      <c r="C790" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D790" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E790" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F790" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G790" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H790" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I790" t="s" s="0">
+        <v>2464</v>
+      </c>
+      <c r="J790" t="s" s="0">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s" s="0">
+        <v>2465</v>
+      </c>
+      <c r="B791" t="s" s="0">
+        <v>2466</v>
+      </c>
+      <c r="C791" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D791" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E791" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F791" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G791" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H791" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I791" t="s" s="0">
+        <v>2467</v>
+      </c>
+      <c r="J791" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s" s="0">
+        <v>2468</v>
+      </c>
+      <c r="B792" t="s" s="0">
+        <v>2469</v>
+      </c>
+      <c r="C792" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D792" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E792" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F792" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G792" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H792" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I792" t="s" s="0">
+        <v>2470</v>
+      </c>
+      <c r="J792" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s" s="0">
+        <v>2471</v>
+      </c>
+      <c r="B793" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="C793" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D793" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E793" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F793" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G793" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H793" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I793" t="s" s="0">
+        <v>2473</v>
+      </c>
+      <c r="J793" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s" s="0">
+        <v>2474</v>
+      </c>
+      <c r="B794" t="s" s="0">
+        <v>2475</v>
+      </c>
+      <c r="C794" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D794" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E794" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F794" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G794" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H794" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I794" t="s" s="0">
+        <v>2476</v>
+      </c>
+      <c r="J794" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s" s="0">
+        <v>2477</v>
+      </c>
+      <c r="B795" t="s" s="0">
+        <v>2478</v>
+      </c>
+      <c r="C795" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D795" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E795" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F795" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G795" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H795" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I795" t="s" s="0">
+        <v>2479</v>
+      </c>
+      <c r="J795" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s" s="0">
+        <v>2480</v>
+      </c>
+      <c r="B796" t="s" s="0">
+        <v>2481</v>
+      </c>
+      <c r="C796" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D796" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E796" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F796" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G796" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H796" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I796" t="s" s="0">
+        <v>2482</v>
+      </c>
+      <c r="J796" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s" s="0">
+        <v>2483</v>
+      </c>
+      <c r="B797" t="s" s="0">
+        <v>2484</v>
+      </c>
+      <c r="C797" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D797" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E797" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F797" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G797" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H797" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I797" t="s" s="0">
+        <v>2485</v>
+      </c>
+      <c r="J797" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s" s="0">
+        <v>2486</v>
+      </c>
+      <c r="B798" t="s" s="0">
+        <v>2487</v>
+      </c>
+      <c r="C798" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D798" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E798" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F798" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G798" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H798" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I798" t="s" s="0">
+        <v>2488</v>
+      </c>
+      <c r="J798" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s" s="0">
+        <v>2489</v>
+      </c>
+      <c r="B799" t="s" s="0">
+        <v>2490</v>
+      </c>
+      <c r="C799" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D799" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E799" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F799" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G799" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H799" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I799" t="s" s="0">
+        <v>2491</v>
+      </c>
+      <c r="J799" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s" s="0">
+        <v>2492</v>
+      </c>
+      <c r="B800" t="s" s="0">
+        <v>2493</v>
+      </c>
+      <c r="C800" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D800" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E800" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F800" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G800" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H800" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I800" t="s" s="0">
+        <v>2494</v>
+      </c>
+      <c r="J800" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s" s="0">
+        <v>2495</v>
+      </c>
+      <c r="B801" t="s" s="0">
+        <v>2496</v>
+      </c>
+      <c r="C801" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D801" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E801" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F801" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G801" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H801" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I801" t="s" s="0">
+        <v>2497</v>
+      </c>
+      <c r="J801" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s" s="0">
+        <v>2498</v>
+      </c>
+      <c r="B802" t="s" s="0">
+        <v>2499</v>
+      </c>
+      <c r="C802" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D802" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E802" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F802" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G802" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H802" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I802" t="s" s="0">
+        <v>2500</v>
+      </c>
+      <c r="J802" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s" s="0">
+        <v>2501</v>
+      </c>
+      <c r="B803" t="s" s="0">
+        <v>2502</v>
+      </c>
+      <c r="C803" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D803" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E803" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F803" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G803" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H803" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I803" t="s" s="0">
+        <v>2503</v>
+      </c>
+      <c r="J803" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s" s="0">
+        <v>2504</v>
+      </c>
+      <c r="B804" t="s" s="0">
+        <v>2505</v>
+      </c>
+      <c r="C804" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D804" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E804" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F804" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G804" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H804" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I804" t="s" s="0">
+        <v>2506</v>
+      </c>
+      <c r="J804" t="s" s="0">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s" s="0">
+        <v>2507</v>
+      </c>
+      <c r="B805" t="s" s="0">
+        <v>2508</v>
+      </c>
+      <c r="C805" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D805" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E805" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F805" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G805" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H805" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I805" t="s" s="0">
+        <v>2509</v>
+      </c>
+      <c r="J805" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s" s="0">
+        <v>2511</v>
+      </c>
+      <c r="B806" t="s" s="0">
+        <v>2512</v>
+      </c>
+      <c r="C806" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D806" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E806" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F806" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G806" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H806" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I806" t="s" s="0">
+        <v>2513</v>
+      </c>
+      <c r="J806" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s" s="0">
+        <v>2514</v>
+      </c>
+      <c r="B807" t="s" s="0">
+        <v>2515</v>
+      </c>
+      <c r="C807" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D807" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E807" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F807" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G807" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H807" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I807" t="s" s="0">
+        <v>2516</v>
+      </c>
+      <c r="J807" t="s" s="0">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s" s="0">
+        <v>2517</v>
+      </c>
+      <c r="B808" t="s" s="0">
+        <v>2518</v>
+      </c>
+      <c r="C808" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D808" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E808" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F808" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G808" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H808" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I808" t="s" s="0">
+        <v>2519</v>
+      </c>
+      <c r="J808" t="s" s="0">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s" s="0">
+        <v>2520</v>
+      </c>
+      <c r="B809" t="s" s="0">
+        <v>2521</v>
+      </c>
+      <c r="C809" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D809" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E809" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F809" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G809" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H809" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I809" t="s" s="0">
+        <v>2522</v>
+      </c>
+      <c r="J809" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s" s="0">
+        <v>2523</v>
+      </c>
+      <c r="B810" t="s" s="0">
+        <v>2524</v>
+      </c>
+      <c r="C810" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D810" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E810" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F810" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G810" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H810" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I810" t="s" s="0">
+        <v>2525</v>
+      </c>
+      <c r="J810" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s" s="0">
+        <v>2526</v>
+      </c>
+      <c r="B811" t="s" s="0">
+        <v>2527</v>
+      </c>
+      <c r="C811" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D811" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E811" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F811" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G811" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H811" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I811" t="s" s="0">
+        <v>2528</v>
+      </c>
+      <c r="J811" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s" s="0">
+        <v>2529</v>
+      </c>
+      <c r="B812" t="s" s="0">
+        <v>2530</v>
+      </c>
+      <c r="C812" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D812" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E812" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F812" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G812" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H812" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I812" t="s" s="0">
+        <v>2531</v>
+      </c>
+      <c r="J812" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s" s="0">
+        <v>2532</v>
+      </c>
+      <c r="B813" t="s" s="0">
+        <v>2533</v>
+      </c>
+      <c r="C813" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D813" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E813" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F813" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G813" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H813" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I813" t="s" s="0">
+        <v>2534</v>
+      </c>
+      <c r="J813" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s" s="0">
+        <v>2535</v>
+      </c>
+      <c r="B814" t="s" s="0">
+        <v>2536</v>
+      </c>
+      <c r="C814" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D814" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E814" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F814" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G814" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H814" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I814" t="s" s="0">
+        <v>2537</v>
+      </c>
+      <c r="J814" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s" s="0">
+        <v>2538</v>
+      </c>
+      <c r="B815" t="s" s="0">
+        <v>2539</v>
+      </c>
+      <c r="C815" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D815" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E815" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F815" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G815" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H815" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I815" t="s" s="0">
+        <v>2540</v>
+      </c>
+      <c r="J815" t="s" s="0">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s" s="0">
+        <v>2541</v>
+      </c>
+      <c r="B816" t="s" s="0">
+        <v>2542</v>
+      </c>
+      <c r="C816" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D816" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E816" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F816" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G816" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H816" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I816" t="s" s="0">
+        <v>2543</v>
+      </c>
+      <c r="J816" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8160" uniqueCount="2544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8830" uniqueCount="2746">
   <si>
     <t>File Name</t>
   </si>
@@ -7644,6 +7644,612 @@
   </si>
   <si>
     <t>26c5ba34000d4fe88b7ab34c0082defe</t>
+  </si>
+  <si>
+    <t>Twilight-Zephyr-J1E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Twilight-Zephyr-J1E.jpg</t>
+  </si>
+  <si>
+    <t>c340f5806a064ee8b689b34c0082e47a</t>
+  </si>
+  <si>
+    <t>Bannister-Oak-J6M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Bannister-Oak-J6M.jpg</t>
+  </si>
+  <si>
+    <t>a8bc4b36966843f89c95b34c0082ea5f</t>
+  </si>
+  <si>
+    <t>Stipple-Graphite-551.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stipple-Graphite-551.jpg</t>
+  </si>
+  <si>
+    <t>4002d111a82b41f489c9b34c0082eeed</t>
+  </si>
+  <si>
+    <t>Natural-Cotton-J6D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Natural-Cotton-J6D.jpg</t>
+  </si>
+  <si>
+    <t>b09f171e384e422cb4f2b34c0082f7ea</t>
+  </si>
+  <si>
+    <t>Montana-Walnut-J6J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Montana-Walnut-J6J.jpg</t>
+  </si>
+  <si>
+    <t>a5eb3f17c0fb468598cab34c0082fec5</t>
+  </si>
+  <si>
+    <t>Kopi-Susu-K15.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Kopi-Susu-K15.jpg</t>
+  </si>
+  <si>
+    <t>cb95da2fa57447619084b34c00830622</t>
+  </si>
+  <si>
+    <t>Alabaster-J7G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Alabaster-J7G.jpg</t>
+  </si>
+  <si>
+    <t>aa3b44d1539541c4b225b34c0082f41b</t>
+  </si>
+  <si>
+    <t>Windswept-Bronze-J17.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Windswept-Bronze-J17.jpg</t>
+  </si>
+  <si>
+    <t>7631812a7b784e76b89db34c00830ec0</t>
+  </si>
+  <si>
+    <t>Spice-Walnut-J3T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Spice-Walnut-J3T.jpg</t>
+  </si>
+  <si>
+    <t>0e6556c1f3b04b28bc2ab34c008314e1</t>
+  </si>
+  <si>
+    <t>Spicewood-Springs-J5B.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Spicewood-Springs-J5B.jpg</t>
+  </si>
+  <si>
+    <t>8f432138bdc34be6a8f4b34c00831586</t>
+  </si>
+  <si>
+    <t>Cosmic-Strandz-K00.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cosmic-Strandz-K00.jpg</t>
+  </si>
+  <si>
+    <t>8a0471de212b4aedb7f9b34c008320d3</t>
+  </si>
+  <si>
+    <t>River-Cherry-J6W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/River-Cherry-J6W.jpg</t>
+  </si>
+  <si>
+    <t>6a387aacf5944aed823fb34c00832578</t>
+  </si>
+  <si>
+    <t>Eggplant-J5K.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Eggplant-J5K.jpg</t>
+  </si>
+  <si>
+    <t>7e5621ecbefe4377b1a8b34c0083254d</t>
+  </si>
+  <si>
+    <t>Honey-Maple-J1X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Honey-Maple-J1X.jpg</t>
+  </si>
+  <si>
+    <t>ae977065f1234475aabfb34c00832e82</t>
+  </si>
+  <si>
+    <t>Pampas-J0Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pampas-J0Y.jpg</t>
+  </si>
+  <si>
+    <t>9c16866582b64bc4ac4bb34c0083363e</t>
+  </si>
+  <si>
+    <t>Gray-Glace-J0W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gray-Glace-J0W.jpg</t>
+  </si>
+  <si>
+    <t>9e20e48a811942fc91c9b34c00833fb5</t>
+  </si>
+  <si>
+    <t>03 - Glass-Clear-Monolithic-Quarter.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/03 - Glass-Clear-Monolithic-Quarter.jpg</t>
+  </si>
+  <si>
+    <t>7e7ebec3dc904aefa2c8b34c00834693</t>
+  </si>
+  <si>
+    <t>Slate-Grey-J08.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Slate-Grey-J08.jpg</t>
+  </si>
+  <si>
+    <t>1ee89c3346854ea782b1b34c00833922</t>
+  </si>
+  <si>
+    <t>Tan-Soapstone-J55.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tan-Soapstone-J55.jpg</t>
+  </si>
+  <si>
+    <t>9dbaa13a3a2b47adb6e8b34c00834e32</t>
+  </si>
+  <si>
+    <t>Raw-Cotton-J6E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Raw-Cotton-J6E.jpg</t>
+  </si>
+  <si>
+    <t>f1dc112687104b77a8dfb34c00835547</t>
+  </si>
+  <si>
+    <t>Pewter-Brush-J32.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pewter-Brush-J32.jpg</t>
+  </si>
+  <si>
+    <t>36fb837858b748ba8578b34c00835528</t>
+  </si>
+  <si>
+    <t>Coffee-Bean-JCX.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Coffee-Bean-JCX.jpg</t>
+  </si>
+  <si>
+    <t>d311f21052ae4dfda840b34c008361f1</t>
+  </si>
+  <si>
+    <t>Lapis-Blue-J7F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Lapis-Blue-J7F.jpg</t>
+  </si>
+  <si>
+    <t>3145bfe8351240ea9fc8b34c0083633a</t>
+  </si>
+  <si>
+    <t>Biltmore-Cherry-JB4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Biltmore-Cherry-JB4.jpg</t>
+  </si>
+  <si>
+    <t>9a4ea76c4dce4c22a02ab34c00836f85</t>
+  </si>
+  <si>
+    <t>Frosty-White-J0R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Frosty-White-J0R.jpg</t>
+  </si>
+  <si>
+    <t>ee7e88b4d8c74ce79cc6b34c008373be</t>
+  </si>
+  <si>
+    <t>Shadow-Zephyr-J4G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Shadow-Zephyr-J4G.jpg</t>
+  </si>
+  <si>
+    <t>d88d53ee45674e029078b34c00837dcd</t>
+  </si>
+  <si>
+    <t>Natural-Tigris-JP9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Natural-Tigris-JP9.jpg</t>
+  </si>
+  <si>
+    <t>3ee0423151f04a4fa4c5b34c00837f82</t>
+  </si>
+  <si>
+    <t>Desert-Zephyr-J1D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Desert-Zephyr-J1D.jpg</t>
+  </si>
+  <si>
+    <t>48397d5b183c466d8e85b34c00838351</t>
+  </si>
+  <si>
+    <t>Castle-Oak-J6U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Castle-Oak-J6U.jpg</t>
+  </si>
+  <si>
+    <t>e43a226971714df3966ab34c00838bd8</t>
+  </si>
+  <si>
+    <t>Bronze-Legacy-J2D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Bronze-Legacy-J2D.jpg</t>
+  </si>
+  <si>
+    <t>310eb1619395410baf6cb34c0083921d</t>
+  </si>
+  <si>
+    <t>Mystique-Night-J2N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mystique-Night-J2N.jpg</t>
+  </si>
+  <si>
+    <t>1ca2199718e84498b9aab34c00838d89</t>
+  </si>
+  <si>
+    <t>Studio-Teak-JC2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Studio-Teak-JC2.jpg</t>
+  </si>
+  <si>
+    <t>d3449b71717e4aa7bdd7b34c00839c58</t>
+  </si>
+  <si>
+    <t>Landmark-Wood-K13.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Landmark-Wood-K13.jpg</t>
+  </si>
+  <si>
+    <t>c6c4278fa20d406a9862b34c0083a19f</t>
+  </si>
+  <si>
+    <t>Luminary-Teak-J48.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Luminary-Teak-J48.jpg</t>
+  </si>
+  <si>
+    <t>ca08f33398f9488eacd3b34c0083a618</t>
+  </si>
+  <si>
+    <t>Cordial-Gray-J0F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cordial-Gray-J0F.jpg</t>
+  </si>
+  <si>
+    <t>504fcc842fcd4563adccb34c0083ae1c</t>
+  </si>
+  <si>
+    <t>Mystique-Moonlight-J2K.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mystique-Moonlight-J2K.jpg</t>
+  </si>
+  <si>
+    <t>15d2eedb8f7b43b58f09b34c0083af00</t>
+  </si>
+  <si>
+    <t>Organic-Cotton-J6C.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Organic-Cotton-J6C.jpg</t>
+  </si>
+  <si>
+    <t>ff84a82d716b4cd08e68b34c0083b56d</t>
+  </si>
+  <si>
+    <t>White-Twill-J9E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/White-Twill-J9E.jpg</t>
+  </si>
+  <si>
+    <t>cc2d436a15e543b8ba68b34c0083bc32</t>
+  </si>
+  <si>
+    <t>Mystique-Dawn-J2R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Mystique-Dawn-J2R.jpg</t>
+  </si>
+  <si>
+    <t>917d9b79d955489ca5f9b34c0083bce3</t>
+  </si>
+  <si>
+    <t>Negotiating-in-Geneva-J3G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Negotiating-in-Geneva-J3G.jpg</t>
+  </si>
+  <si>
+    <t>a5e08a4437d74b90a1efb34c0083c3a1</t>
+  </si>
+  <si>
+    <t>Vanilla-Fiber-J3E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Vanilla-Fiber-J3E.jpg</t>
+  </si>
+  <si>
+    <t>83a42e324c324d079872b34c0083c9e7</t>
+  </si>
+  <si>
+    <t>Cool-Chic-J3W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cool-Chic-J3W.jpg</t>
+  </si>
+  <si>
+    <t>b19a7bf4d8214b04b686b34c0083d28a</t>
+  </si>
+  <si>
+    <t>Silicon-Ev-J12.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Silicon-Ev-J12.jpg</t>
+  </si>
+  <si>
+    <t>83a0c34b71e5434ea528b34c0083cba5</t>
+  </si>
+  <si>
+    <t>Pearl-Soapstone-J53.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pearl-Soapstone-J53.jpg</t>
+  </si>
+  <si>
+    <t>75c94506e1954ad3b23fb34c0083d8a1</t>
+  </si>
+  <si>
+    <t>Oiled-Soapstone-J4Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Oiled-Soapstone-J4Y.jpg</t>
+  </si>
+  <si>
+    <t>0592b4a67e6e47e4abaab34c0083e035</t>
+  </si>
+  <si>
+    <t>Cubicle-Papel-J3M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cubicle-Papel-J3M.jpg</t>
+  </si>
+  <si>
+    <t>bd9a2fc0679242ccb5dfb34c0083df92</t>
+  </si>
+  <si>
+    <t>Titanium-Ev-J13.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Titanium-Ev-J13.jpg</t>
+  </si>
+  <si>
+    <t>7cf60cae7a084784a142b34c0083e86a</t>
+  </si>
+  <si>
+    <t>Cloud-Nebula-J1P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cloud-Nebula-J1P.jpg</t>
+  </si>
+  <si>
+    <t>412875b7e37744ee80c1b34c0083ef18</t>
+  </si>
+  <si>
+    <t>Passin-Thru-J3R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Passin-Thru-J3R.jpg</t>
+  </si>
+  <si>
+    <t>9694a7150ae24c6bb7dbb34c0083ee90</t>
+  </si>
+  <si>
+    <t>5th-Ave.-Elm-K10.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/5th-Ave.-Elm-K10.jpg</t>
+  </si>
+  <si>
+    <t>3c17d273777c428baf66b34c0083f842</t>
+  </si>
+  <si>
+    <t>HPL_WIlsonart_HighLine_K12.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/HPL_WIlsonart_HighLine_K12.jpg</t>
+  </si>
+  <si>
+    <t>3f3d0276d1224be7be80b34c0083fd2c</t>
+  </si>
+  <si>
+    <t>05 - Glass-Frosted-Quarter.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/05 - Glass-Frosted-Quarter.jpg</t>
+  </si>
+  <si>
+    <t>adc10510eb7a4708be00b34c0083fef3</t>
+  </si>
+  <si>
+    <t>2.58 MB</t>
+  </si>
+  <si>
+    <t>HPL_Nevamar_StippleBirch_JF1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/HPL_Nevamar_StippleBirch_JF1.jpg</t>
+  </si>
+  <si>
+    <t>28258724c5934e8eb74cb34c008406bc</t>
+  </si>
+  <si>
+    <t>Asian-Night.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Asian-Night.jpg</t>
+  </si>
+  <si>
+    <t>06e7157fbd9747da83cbb34c00840c46</t>
+  </si>
+  <si>
+    <t>Travelin-Light-J3J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Travelin-Light-J3J.jpg</t>
+  </si>
+  <si>
+    <t>b9c328ecba5f4cc69403b34c00840c77</t>
+  </si>
+  <si>
+    <t>Grey-Mesh-J4U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grey-Mesh-J4U.jpg</t>
+  </si>
+  <si>
+    <t>78d3847ab41848888c90b34c0084152a</t>
+  </si>
+  <si>
+    <t>Fashion-Grew-J7D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fashion-Grew-J7D.jpg</t>
+  </si>
+  <si>
+    <t>ba54386b65d34f7f843ab34c00841af4</t>
+  </si>
+  <si>
+    <t>Steel-Mesh-J4W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Steel-Mesh-J4W.jpg</t>
+  </si>
+  <si>
+    <t>b5523ab5c1b44c728501b34c00841aca</t>
+  </si>
+  <si>
+    <t>vous-Tempest-J44.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/vous-Tempest-J44.jpg</t>
+  </si>
+  <si>
+    <t>8fbc6fde73ec4079ab35b34c00842393</t>
+  </si>
+  <si>
+    <t>Natural-Pear-J6H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Natural-Pear-J6H.jpg</t>
+  </si>
+  <si>
+    <t>1489b216adc04fac8ec5b34c0084280e</t>
+  </si>
+  <si>
+    <t>Windswept-Pewter-J18.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Windswept-Pewter-J18.jpg</t>
+  </si>
+  <si>
+    <t>444c63d1eca8459885f1b34c008428d1</t>
+  </si>
+  <si>
+    <t>Walnut-Heights-JC8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Walnut-Heights-JC8.jpg</t>
+  </si>
+  <si>
+    <t>13686be1caed4f98be85b34c008432af</t>
+  </si>
+  <si>
+    <t>Green-Tigris-JL6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Green-Tigris-JL6.jpg</t>
+  </si>
+  <si>
+    <t>9771b0071fd14f398e07b34c008437a7</t>
+  </si>
+  <si>
+    <t>Raw-Chestnut-JBW.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Raw-Chestnut-JBW.jpg</t>
+  </si>
+  <si>
+    <t>eacd4494a24e444d826cb34c00843754</t>
+  </si>
+  <si>
+    <t>Woolamai-Brush-J2J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Woolamai-Brush-J2J.jpg</t>
+  </si>
+  <si>
+    <t>3c6be2d3c4604b66a475b34c00844356</t>
+  </si>
+  <si>
+    <t>Stucco-V49.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stucco-V49.jpg</t>
+  </si>
+  <si>
+    <t>bd308ad470ea4563b2bcb34c00844639</t>
+  </si>
+  <si>
+    <t>Khaki-Brown-JNN.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Khaki-Brown-JNN.jpg</t>
+  </si>
+  <si>
+    <t>86d3e0efadcd454680b7b34c00844520</t>
   </si>
 </sst>
 </file>
@@ -7688,7 +8294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J816"/>
+  <dimension ref="A1:J883"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -33806,6 +34412,2150 @@
         <v>1194</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817" t="s" s="0">
+        <v>2544</v>
+      </c>
+      <c r="B817" t="s" s="0">
+        <v>2545</v>
+      </c>
+      <c r="C817" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D817" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E817" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F817" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G817" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H817" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I817" t="s" s="0">
+        <v>2546</v>
+      </c>
+      <c r="J817" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s" s="0">
+        <v>2547</v>
+      </c>
+      <c r="B818" t="s" s="0">
+        <v>2548</v>
+      </c>
+      <c r="C818" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D818" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E818" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F818" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G818" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H818" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I818" t="s" s="0">
+        <v>2549</v>
+      </c>
+      <c r="J818" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s" s="0">
+        <v>2550</v>
+      </c>
+      <c r="B819" t="s" s="0">
+        <v>2551</v>
+      </c>
+      <c r="C819" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D819" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E819" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F819" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G819" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H819" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I819" t="s" s="0">
+        <v>2552</v>
+      </c>
+      <c r="J819" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s" s="0">
+        <v>2553</v>
+      </c>
+      <c r="B820" t="s" s="0">
+        <v>2554</v>
+      </c>
+      <c r="C820" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D820" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E820" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F820" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G820" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H820" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I820" t="s" s="0">
+        <v>2555</v>
+      </c>
+      <c r="J820" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s" s="0">
+        <v>2556</v>
+      </c>
+      <c r="B821" t="s" s="0">
+        <v>2557</v>
+      </c>
+      <c r="C821" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D821" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E821" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F821" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G821" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H821" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I821" t="s" s="0">
+        <v>2558</v>
+      </c>
+      <c r="J821" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s" s="0">
+        <v>2559</v>
+      </c>
+      <c r="B822" t="s" s="0">
+        <v>2560</v>
+      </c>
+      <c r="C822" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D822" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E822" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F822" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G822" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H822" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I822" t="s" s="0">
+        <v>2561</v>
+      </c>
+      <c r="J822" t="s" s="0">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="B823" t="s" s="0">
+        <v>2563</v>
+      </c>
+      <c r="C823" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D823" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E823" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F823" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="G823" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H823" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I823" t="s" s="0">
+        <v>2564</v>
+      </c>
+      <c r="J823" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s" s="0">
+        <v>2565</v>
+      </c>
+      <c r="B824" t="s" s="0">
+        <v>2566</v>
+      </c>
+      <c r="C824" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D824" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E824" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F824" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G824" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H824" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I824" t="s" s="0">
+        <v>2567</v>
+      </c>
+      <c r="J824" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s" s="0">
+        <v>2568</v>
+      </c>
+      <c r="B825" t="s" s="0">
+        <v>2569</v>
+      </c>
+      <c r="C825" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D825" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E825" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F825" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G825" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H825" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I825" t="s" s="0">
+        <v>2570</v>
+      </c>
+      <c r="J825" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s" s="0">
+        <v>2571</v>
+      </c>
+      <c r="B826" t="s" s="0">
+        <v>2572</v>
+      </c>
+      <c r="C826" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D826" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E826" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F826" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G826" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H826" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I826" t="s" s="0">
+        <v>2573</v>
+      </c>
+      <c r="J826" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s" s="0">
+        <v>2574</v>
+      </c>
+      <c r="B827" t="s" s="0">
+        <v>2575</v>
+      </c>
+      <c r="C827" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D827" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E827" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F827" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G827" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H827" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I827" t="s" s="0">
+        <v>2576</v>
+      </c>
+      <c r="J827" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s" s="0">
+        <v>2577</v>
+      </c>
+      <c r="B828" t="s" s="0">
+        <v>2578</v>
+      </c>
+      <c r="C828" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D828" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E828" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F828" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G828" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H828" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I828" t="s" s="0">
+        <v>2579</v>
+      </c>
+      <c r="J828" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s" s="0">
+        <v>2580</v>
+      </c>
+      <c r="B829" t="s" s="0">
+        <v>2581</v>
+      </c>
+      <c r="C829" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D829" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E829" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F829" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G829" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H829" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I829" t="s" s="0">
+        <v>2582</v>
+      </c>
+      <c r="J829" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s" s="0">
+        <v>2583</v>
+      </c>
+      <c r="B830" t="s" s="0">
+        <v>2584</v>
+      </c>
+      <c r="C830" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D830" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E830" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F830" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G830" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H830" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I830" t="s" s="0">
+        <v>2585</v>
+      </c>
+      <c r="J830" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s" s="0">
+        <v>2586</v>
+      </c>
+      <c r="B831" t="s" s="0">
+        <v>2587</v>
+      </c>
+      <c r="C831" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D831" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E831" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F831" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G831" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H831" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I831" t="s" s="0">
+        <v>2588</v>
+      </c>
+      <c r="J831" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s" s="0">
+        <v>2589</v>
+      </c>
+      <c r="B832" t="s" s="0">
+        <v>2590</v>
+      </c>
+      <c r="C832" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D832" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E832" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F832" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G832" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H832" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I832" t="s" s="0">
+        <v>2591</v>
+      </c>
+      <c r="J832" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s" s="0">
+        <v>2592</v>
+      </c>
+      <c r="B833" t="s" s="0">
+        <v>2593</v>
+      </c>
+      <c r="C833" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D833" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E833" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F833" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G833" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H833" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I833" t="s" s="0">
+        <v>2594</v>
+      </c>
+      <c r="J833" t="s" s="0">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s" s="0">
+        <v>2595</v>
+      </c>
+      <c r="B834" t="s" s="0">
+        <v>2596</v>
+      </c>
+      <c r="C834" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D834" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E834" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F834" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G834" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H834" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I834" t="s" s="0">
+        <v>2597</v>
+      </c>
+      <c r="J834" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s" s="0">
+        <v>2598</v>
+      </c>
+      <c r="B835" t="s" s="0">
+        <v>2599</v>
+      </c>
+      <c r="C835" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D835" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E835" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F835" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G835" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H835" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I835" t="s" s="0">
+        <v>2600</v>
+      </c>
+      <c r="J835" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s" s="0">
+        <v>2601</v>
+      </c>
+      <c r="B836" t="s" s="0">
+        <v>2602</v>
+      </c>
+      <c r="C836" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D836" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E836" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F836" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G836" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H836" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I836" t="s" s="0">
+        <v>2603</v>
+      </c>
+      <c r="J836" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="B837" t="s" s="0">
+        <v>2605</v>
+      </c>
+      <c r="C837" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D837" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E837" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F837" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G837" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H837" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I837" t="s" s="0">
+        <v>2606</v>
+      </c>
+      <c r="J837" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s" s="0">
+        <v>2607</v>
+      </c>
+      <c r="B838" t="s" s="0">
+        <v>2608</v>
+      </c>
+      <c r="C838" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D838" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E838" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F838" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G838" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H838" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I838" t="s" s="0">
+        <v>2609</v>
+      </c>
+      <c r="J838" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s" s="0">
+        <v>2610</v>
+      </c>
+      <c r="B839" t="s" s="0">
+        <v>2611</v>
+      </c>
+      <c r="C839" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D839" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E839" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F839" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G839" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H839" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I839" t="s" s="0">
+        <v>2612</v>
+      </c>
+      <c r="J839" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s" s="0">
+        <v>2613</v>
+      </c>
+      <c r="B840" t="s" s="0">
+        <v>2614</v>
+      </c>
+      <c r="C840" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D840" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E840" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F840" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G840" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H840" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I840" t="s" s="0">
+        <v>2615</v>
+      </c>
+      <c r="J840" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s" s="0">
+        <v>2616</v>
+      </c>
+      <c r="B841" t="s" s="0">
+        <v>2617</v>
+      </c>
+      <c r="C841" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D841" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E841" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F841" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G841" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H841" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I841" t="s" s="0">
+        <v>2618</v>
+      </c>
+      <c r="J841" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s" s="0">
+        <v>2619</v>
+      </c>
+      <c r="B842" t="s" s="0">
+        <v>2620</v>
+      </c>
+      <c r="C842" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D842" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E842" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="F842" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G842" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H842" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I842" t="s" s="0">
+        <v>2621</v>
+      </c>
+      <c r="J842" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s" s="0">
+        <v>2622</v>
+      </c>
+      <c r="B843" t="s" s="0">
+        <v>2623</v>
+      </c>
+      <c r="C843" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D843" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E843" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F843" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G843" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H843" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I843" t="s" s="0">
+        <v>2624</v>
+      </c>
+      <c r="J843" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s" s="0">
+        <v>2625</v>
+      </c>
+      <c r="B844" t="s" s="0">
+        <v>2626</v>
+      </c>
+      <c r="C844" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D844" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E844" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F844" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G844" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H844" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I844" t="s" s="0">
+        <v>2627</v>
+      </c>
+      <c r="J844" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s" s="0">
+        <v>2628</v>
+      </c>
+      <c r="B845" t="s" s="0">
+        <v>2629</v>
+      </c>
+      <c r="C845" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D845" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E845" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F845" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G845" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H845" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I845" t="s" s="0">
+        <v>2630</v>
+      </c>
+      <c r="J845" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s" s="0">
+        <v>2631</v>
+      </c>
+      <c r="B846" t="s" s="0">
+        <v>2632</v>
+      </c>
+      <c r="C846" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D846" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E846" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F846" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G846" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H846" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I846" t="s" s="0">
+        <v>2633</v>
+      </c>
+      <c r="J846" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s" s="0">
+        <v>2634</v>
+      </c>
+      <c r="B847" t="s" s="0">
+        <v>2635</v>
+      </c>
+      <c r="C847" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D847" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E847" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F847" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="G847" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H847" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I847" t="s" s="0">
+        <v>2636</v>
+      </c>
+      <c r="J847" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s" s="0">
+        <v>2637</v>
+      </c>
+      <c r="B848" t="s" s="0">
+        <v>2638</v>
+      </c>
+      <c r="C848" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D848" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E848" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F848" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G848" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H848" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I848" t="s" s="0">
+        <v>2639</v>
+      </c>
+      <c r="J848" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s" s="0">
+        <v>2640</v>
+      </c>
+      <c r="B849" t="s" s="0">
+        <v>2641</v>
+      </c>
+      <c r="C849" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D849" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E849" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F849" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G849" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H849" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I849" t="s" s="0">
+        <v>2642</v>
+      </c>
+      <c r="J849" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s" s="0">
+        <v>2643</v>
+      </c>
+      <c r="B850" t="s" s="0">
+        <v>2644</v>
+      </c>
+      <c r="C850" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D850" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E850" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F850" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G850" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H850" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I850" t="s" s="0">
+        <v>2645</v>
+      </c>
+      <c r="J850" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s" s="0">
+        <v>2646</v>
+      </c>
+      <c r="B851" t="s" s="0">
+        <v>2647</v>
+      </c>
+      <c r="C851" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D851" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E851" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F851" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G851" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H851" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I851" t="s" s="0">
+        <v>2648</v>
+      </c>
+      <c r="J851" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s" s="0">
+        <v>2649</v>
+      </c>
+      <c r="B852" t="s" s="0">
+        <v>2650</v>
+      </c>
+      <c r="C852" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D852" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E852" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F852" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G852" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H852" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I852" t="s" s="0">
+        <v>2651</v>
+      </c>
+      <c r="J852" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s" s="0">
+        <v>2652</v>
+      </c>
+      <c r="B853" t="s" s="0">
+        <v>2653</v>
+      </c>
+      <c r="C853" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D853" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E853" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F853" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G853" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H853" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I853" t="s" s="0">
+        <v>2654</v>
+      </c>
+      <c r="J853" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s" s="0">
+        <v>2655</v>
+      </c>
+      <c r="B854" t="s" s="0">
+        <v>2656</v>
+      </c>
+      <c r="C854" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D854" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E854" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F854" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G854" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H854" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I854" t="s" s="0">
+        <v>2657</v>
+      </c>
+      <c r="J854" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s" s="0">
+        <v>2658</v>
+      </c>
+      <c r="B855" t="s" s="0">
+        <v>2659</v>
+      </c>
+      <c r="C855" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D855" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E855" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F855" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G855" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H855" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I855" t="s" s="0">
+        <v>2660</v>
+      </c>
+      <c r="J855" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s" s="0">
+        <v>2661</v>
+      </c>
+      <c r="B856" t="s" s="0">
+        <v>2662</v>
+      </c>
+      <c r="C856" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D856" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E856" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F856" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G856" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H856" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I856" t="s" s="0">
+        <v>2663</v>
+      </c>
+      <c r="J856" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s" s="0">
+        <v>2664</v>
+      </c>
+      <c r="B857" t="s" s="0">
+        <v>2665</v>
+      </c>
+      <c r="C857" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D857" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E857" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F857" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G857" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H857" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I857" t="s" s="0">
+        <v>2666</v>
+      </c>
+      <c r="J857" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s" s="0">
+        <v>2667</v>
+      </c>
+      <c r="B858" t="s" s="0">
+        <v>2668</v>
+      </c>
+      <c r="C858" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D858" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E858" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F858" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G858" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H858" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I858" t="s" s="0">
+        <v>2669</v>
+      </c>
+      <c r="J858" t="s" s="0">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s" s="0">
+        <v>2670</v>
+      </c>
+      <c r="B859" t="s" s="0">
+        <v>2671</v>
+      </c>
+      <c r="C859" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D859" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E859" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F859" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G859" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H859" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I859" t="s" s="0">
+        <v>2672</v>
+      </c>
+      <c r="J859" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s" s="0">
+        <v>2673</v>
+      </c>
+      <c r="B860" t="s" s="0">
+        <v>2674</v>
+      </c>
+      <c r="C860" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D860" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E860" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F860" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G860" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H860" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I860" t="s" s="0">
+        <v>2675</v>
+      </c>
+      <c r="J860" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s" s="0">
+        <v>2676</v>
+      </c>
+      <c r="B861" t="s" s="0">
+        <v>2677</v>
+      </c>
+      <c r="C861" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D861" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E861" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F861" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G861" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H861" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I861" t="s" s="0">
+        <v>2678</v>
+      </c>
+      <c r="J861" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s" s="0">
+        <v>2679</v>
+      </c>
+      <c r="B862" t="s" s="0">
+        <v>2680</v>
+      </c>
+      <c r="C862" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D862" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E862" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F862" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G862" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H862" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I862" t="s" s="0">
+        <v>2681</v>
+      </c>
+      <c r="J862" t="s" s="0">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s" s="0">
+        <v>2682</v>
+      </c>
+      <c r="B863" t="s" s="0">
+        <v>2683</v>
+      </c>
+      <c r="C863" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D863" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E863" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F863" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G863" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H863" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I863" t="s" s="0">
+        <v>2684</v>
+      </c>
+      <c r="J863" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s" s="0">
+        <v>2685</v>
+      </c>
+      <c r="B864" t="s" s="0">
+        <v>2686</v>
+      </c>
+      <c r="C864" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D864" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E864" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F864" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G864" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H864" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I864" t="s" s="0">
+        <v>2687</v>
+      </c>
+      <c r="J864" t="s" s="0">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s" s="0">
+        <v>2688</v>
+      </c>
+      <c r="B865" t="s" s="0">
+        <v>2689</v>
+      </c>
+      <c r="C865" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D865" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E865" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F865" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G865" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H865" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I865" t="s" s="0">
+        <v>2690</v>
+      </c>
+      <c r="J865" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s" s="0">
+        <v>2691</v>
+      </c>
+      <c r="B866" t="s" s="0">
+        <v>2692</v>
+      </c>
+      <c r="C866" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D866" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E866" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F866" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G866" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H866" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I866" t="s" s="0">
+        <v>2693</v>
+      </c>
+      <c r="J866" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s" s="0">
+        <v>2694</v>
+      </c>
+      <c r="B867" t="s" s="0">
+        <v>2695</v>
+      </c>
+      <c r="C867" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D867" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E867" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F867" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G867" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H867" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I867" t="s" s="0">
+        <v>2696</v>
+      </c>
+      <c r="J867" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s" s="0">
+        <v>2697</v>
+      </c>
+      <c r="B868" t="s" s="0">
+        <v>2698</v>
+      </c>
+      <c r="C868" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D868" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E868" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F868" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G868" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H868" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I868" t="s" s="0">
+        <v>2699</v>
+      </c>
+      <c r="J868" t="s" s="0">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s" s="0">
+        <v>2701</v>
+      </c>
+      <c r="B869" t="s" s="0">
+        <v>2702</v>
+      </c>
+      <c r="C869" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D869" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E869" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F869" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G869" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H869" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I869" t="s" s="0">
+        <v>2703</v>
+      </c>
+      <c r="J869" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s" s="0">
+        <v>2704</v>
+      </c>
+      <c r="B870" t="s" s="0">
+        <v>2705</v>
+      </c>
+      <c r="C870" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D870" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E870" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F870" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G870" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H870" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I870" t="s" s="0">
+        <v>2706</v>
+      </c>
+      <c r="J870" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s" s="0">
+        <v>2707</v>
+      </c>
+      <c r="B871" t="s" s="0">
+        <v>2708</v>
+      </c>
+      <c r="C871" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D871" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E871" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F871" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G871" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H871" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I871" t="s" s="0">
+        <v>2709</v>
+      </c>
+      <c r="J871" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s" s="0">
+        <v>2710</v>
+      </c>
+      <c r="B872" t="s" s="0">
+        <v>2711</v>
+      </c>
+      <c r="C872" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D872" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E872" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F872" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G872" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H872" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I872" t="s" s="0">
+        <v>2712</v>
+      </c>
+      <c r="J872" t="s" s="0">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s" s="0">
+        <v>2713</v>
+      </c>
+      <c r="B873" t="s" s="0">
+        <v>2714</v>
+      </c>
+      <c r="C873" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D873" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E873" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F873" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G873" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H873" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I873" t="s" s="0">
+        <v>2715</v>
+      </c>
+      <c r="J873" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s" s="0">
+        <v>2716</v>
+      </c>
+      <c r="B874" t="s" s="0">
+        <v>2717</v>
+      </c>
+      <c r="C874" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D874" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E874" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F874" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G874" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H874" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I874" t="s" s="0">
+        <v>2718</v>
+      </c>
+      <c r="J874" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s" s="0">
+        <v>2719</v>
+      </c>
+      <c r="B875" t="s" s="0">
+        <v>2720</v>
+      </c>
+      <c r="C875" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D875" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E875" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F875" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G875" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H875" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I875" t="s" s="0">
+        <v>2721</v>
+      </c>
+      <c r="J875" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s" s="0">
+        <v>2722</v>
+      </c>
+      <c r="B876" t="s" s="0">
+        <v>2723</v>
+      </c>
+      <c r="C876" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D876" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E876" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F876" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G876" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H876" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I876" t="s" s="0">
+        <v>2724</v>
+      </c>
+      <c r="J876" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s" s="0">
+        <v>2725</v>
+      </c>
+      <c r="B877" t="s" s="0">
+        <v>2726</v>
+      </c>
+      <c r="C877" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D877" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E877" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F877" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G877" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H877" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I877" t="s" s="0">
+        <v>2727</v>
+      </c>
+      <c r="J877" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s" s="0">
+        <v>2728</v>
+      </c>
+      <c r="B878" t="s" s="0">
+        <v>2729</v>
+      </c>
+      <c r="C878" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D878" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E878" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F878" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G878" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H878" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I878" t="s" s="0">
+        <v>2730</v>
+      </c>
+      <c r="J878" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s" s="0">
+        <v>2731</v>
+      </c>
+      <c r="B879" t="s" s="0">
+        <v>2732</v>
+      </c>
+      <c r="C879" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D879" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E879" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F879" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G879" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H879" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I879" t="s" s="0">
+        <v>2733</v>
+      </c>
+      <c r="J879" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s" s="0">
+        <v>2734</v>
+      </c>
+      <c r="B880" t="s" s="0">
+        <v>2735</v>
+      </c>
+      <c r="C880" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D880" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E880" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F880" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G880" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H880" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I880" t="s" s="0">
+        <v>2736</v>
+      </c>
+      <c r="J880" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s" s="0">
+        <v>2737</v>
+      </c>
+      <c r="B881" t="s" s="0">
+        <v>2738</v>
+      </c>
+      <c r="C881" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D881" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E881" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F881" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G881" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H881" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I881" t="s" s="0">
+        <v>2739</v>
+      </c>
+      <c r="J881" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s" s="0">
+        <v>2740</v>
+      </c>
+      <c r="B882" t="s" s="0">
+        <v>2741</v>
+      </c>
+      <c r="C882" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D882" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E882" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F882" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G882" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H882" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I882" t="s" s="0">
+        <v>2742</v>
+      </c>
+      <c r="J882" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s" s="0">
+        <v>2743</v>
+      </c>
+      <c r="B883" t="s" s="0">
+        <v>2744</v>
+      </c>
+      <c r="C883" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D883" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E883" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F883" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G883" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H883" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I883" t="s" s="0">
+        <v>2745</v>
+      </c>
+      <c r="J883" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8830" uniqueCount="2746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9190" uniqueCount="2854">
   <si>
     <t>File Name</t>
   </si>
@@ -8250,6 +8250,330 @@
   </si>
   <si>
     <t>86d3e0efadcd454680b7b34c00844520</t>
+  </si>
+  <si>
+    <t>Antique-Brush-J33.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Antique-Brush-J33.jpg</t>
+  </si>
+  <si>
+    <t>cff188635075481f8020b34c008454bf</t>
+  </si>
+  <si>
+    <t>HPL_Wilsonart_BrightonWalnut_J1M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/HPL_Wilsonart_BrightonWalnut_J1M.jpg</t>
+  </si>
+  <si>
+    <t>98683d8ccce447cd9acfb34c008452b3</t>
+  </si>
+  <si>
+    <t>Carbon-Mesh-J4X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Carbon-Mesh-J4X.jpg</t>
+  </si>
+  <si>
+    <t>30634d0bd43b48108b8db34c0084559b</t>
+  </si>
+  <si>
+    <t>Misted-Zephyr-J1B.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Misted-Zephyr-J1B.jpg</t>
+  </si>
+  <si>
+    <t>b6efe998ed774d9d871cb34c008464fb</t>
+  </si>
+  <si>
+    <t>Oxide-J0U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Oxide-J0U.jpg</t>
+  </si>
+  <si>
+    <t>820051196f4b4eab8501b34c00846556</t>
+  </si>
+  <si>
+    <t>White-Barn-JCA.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/White-Barn-JCA.jpg</t>
+  </si>
+  <si>
+    <t>c447fed960584289abbbb34c008464a9</t>
+  </si>
+  <si>
+    <t>Asian-Sun-JB3.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Asian-Sun-JB3.jpg</t>
+  </si>
+  <si>
+    <t>701fb924422f471980dab34c00847425</t>
+  </si>
+  <si>
+    <t>Stipple-Gray-553.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stipple-Gray-553.jpg</t>
+  </si>
+  <si>
+    <t>f5cbca6022834f86a76bb34c008473ee</t>
+  </si>
+  <si>
+    <t>Linen-JD1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Linen-JD1.jpg</t>
+  </si>
+  <si>
+    <t>e39f50d9ac3d4e3ea1b8b34c0084745d</t>
+  </si>
+  <si>
+    <t>North-Sea-J7R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/North-Sea-J7R.jpg</t>
+  </si>
+  <si>
+    <t>ce9e815f76e2485cb7d1b34c0084830d</t>
+  </si>
+  <si>
+    <t>Platinum-V53.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Platinum-V53.jpg</t>
+  </si>
+  <si>
+    <t>05e41514c37c4f80ae5cb34c0084835e</t>
+  </si>
+  <si>
+    <t>Almond-Leather-J0V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Almond-Leather-J0V.jpg</t>
+  </si>
+  <si>
+    <t>37dd7dff91424476b581b34c00848138</t>
+  </si>
+  <si>
+    <t>Old-Mill-Oak-JBU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Old-Mill-Oak-JBU.jpg</t>
+  </si>
+  <si>
+    <t>b694961ff4fd44e4884bb34c008492ac</t>
+  </si>
+  <si>
+    <t>Navy-Legacy-J1N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Navy-Legacy-J1N.jpg</t>
+  </si>
+  <si>
+    <t>c6833d7bedeb4c22ae0db34c008493db</t>
+  </si>
+  <si>
+    <t>Fonthill-Pear-J28.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fonthill-Pear-J28.jpg</t>
+  </si>
+  <si>
+    <t>b6ab27f380824c619f43b34c008493cd</t>
+  </si>
+  <si>
+    <t>Leave-Likatre-J3A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Leave-Likatre-J3A.jpg</t>
+  </si>
+  <si>
+    <t>1bdbe09fe6f544698d42b34c0084a042</t>
+  </si>
+  <si>
+    <t>Brittany-Blue-J79.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Brittany-Blue-J79.jpg</t>
+  </si>
+  <si>
+    <t>2d494a77cbc84c51aaaab34c0084a306</t>
+  </si>
+  <si>
+    <t>Windsor-Mahogany-J6F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Windsor-Mahogany-J6F.jpg</t>
+  </si>
+  <si>
+    <t>057f07b2cf6d4fd9944fb34c0084a286</t>
+  </si>
+  <si>
+    <t>Easy-Elegance-J3U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Easy-Elegance-J3U.jpg</t>
+  </si>
+  <si>
+    <t>b81984a66ff94997b433b34c0084b0b1</t>
+  </si>
+  <si>
+    <t>Tungsten-EV-J16.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Tungsten-EV-J16.jpg</t>
+  </si>
+  <si>
+    <t>e1fbe370a7074b5993f5b34c0084b187</t>
+  </si>
+  <si>
+    <t>Xanadu-JCD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Xanadu-JCD.jpg</t>
+  </si>
+  <si>
+    <t>526f580e5a7342348ffab34c0084b2cd</t>
+  </si>
+  <si>
+    <t>Skyline-Walnut-JC1.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Skyline-Walnut-JC1.jpg</t>
+  </si>
+  <si>
+    <t>662982ba2a254354a17eb34c0084beef</t>
+  </si>
+  <si>
+    <t>Gold-Pannin-J3K.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Gold-Pannin-J3K.jpg</t>
+  </si>
+  <si>
+    <t>95cb11fda6af4c08b154b34c0084bfdf</t>
+  </si>
+  <si>
+    <t>Kensington-Maple-J73.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Kensington-Maple-J73.jpg</t>
+  </si>
+  <si>
+    <t>6faafe959e5040d68b68b34c0084c4e1</t>
+  </si>
+  <si>
+    <t>Nepal-Teak-J6K.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nepal-Teak-J6K.jpg</t>
+  </si>
+  <si>
+    <t>a239380736e5492fbbeeb34c0084cedd</t>
+  </si>
+  <si>
+    <t>Sorrel-AS4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sorrel-AS4.jpg</t>
+  </si>
+  <si>
+    <t>f0194db7948e4d02aa5cb34c0084d17d</t>
+  </si>
+  <si>
+    <t>Carbon-EV-J15.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Carbon-EV-J15.jpg</t>
+  </si>
+  <si>
+    <t>eef721556c4441e2a1e0b34c0084d577</t>
+  </si>
+  <si>
+    <t>Regimental-Red-K08.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Regimental-Red-K08.jpg</t>
+  </si>
+  <si>
+    <t>a92758f1fc6e4dc5b848b34c0084df1c</t>
+  </si>
+  <si>
+    <t>Canyon-Zephyr-J1A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Canyon-Zephyr-J1A.jpg</t>
+  </si>
+  <si>
+    <t>e80af6a473ac4347a6a3b34c0084dfc0</t>
+  </si>
+  <si>
+    <t>Stipple-Straw-J46.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stipple-Straw-J46.jpg</t>
+  </si>
+  <si>
+    <t>64cb92447f5e402990c9b34c0084e495</t>
+  </si>
+  <si>
+    <t>Pepperdust-J7A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pepperdust-J7A.jpg</t>
+  </si>
+  <si>
+    <t>bbdcaad4b79341cbadc7b34c0084ee5d</t>
+  </si>
+  <si>
+    <t>Pewter-Mesh-J4V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pewter-Mesh-J4V.jpg</t>
+  </si>
+  <si>
+    <t>300be1dd1f3d4d228011b34c0084f306</t>
+  </si>
+  <si>
+    <t>Grey-Nebula-J1Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grey-Nebula-J1Y.jpg</t>
+  </si>
+  <si>
+    <t>88fd785d1c0d4c27a13ab34c0084eee7</t>
+  </si>
+  <si>
+    <t>Vapor-Strandz-K03.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Vapor-Strandz-K03.jpg</t>
+  </si>
+  <si>
+    <t>51856f3b041c468abd1ab34c008500b8</t>
+  </si>
+  <si>
+    <t>Recon-Oak-J49.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Recon-Oak-J49.jpg</t>
+  </si>
+  <si>
+    <t>7741eb77217a456d9bc2b34c008500fd</t>
+  </si>
+  <si>
+    <t>Blue-Agave-J5U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Blue-Agave-J5U.jpg</t>
+  </si>
+  <si>
+    <t>3ae2ffab36174a2b8357b34c008503f3</t>
   </si>
 </sst>
 </file>
@@ -8294,7 +8618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J883"/>
+  <dimension ref="A1:J919"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -36556,6 +36880,1158 @@
         <v>23</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" t="s" s="0">
+        <v>2746</v>
+      </c>
+      <c r="B884" t="s" s="0">
+        <v>2747</v>
+      </c>
+      <c r="C884" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D884" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E884" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F884" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G884" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H884" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I884" t="s" s="0">
+        <v>2748</v>
+      </c>
+      <c r="J884" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s" s="0">
+        <v>2749</v>
+      </c>
+      <c r="B885" t="s" s="0">
+        <v>2750</v>
+      </c>
+      <c r="C885" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D885" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E885" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F885" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G885" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H885" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I885" t="s" s="0">
+        <v>2751</v>
+      </c>
+      <c r="J885" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s" s="0">
+        <v>2752</v>
+      </c>
+      <c r="B886" t="s" s="0">
+        <v>2753</v>
+      </c>
+      <c r="C886" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D886" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E886" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F886" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G886" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H886" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I886" t="s" s="0">
+        <v>2754</v>
+      </c>
+      <c r="J886" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s" s="0">
+        <v>2755</v>
+      </c>
+      <c r="B887" t="s" s="0">
+        <v>2756</v>
+      </c>
+      <c r="C887" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D887" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E887" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F887" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G887" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H887" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I887" t="s" s="0">
+        <v>2757</v>
+      </c>
+      <c r="J887" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s" s="0">
+        <v>2758</v>
+      </c>
+      <c r="B888" t="s" s="0">
+        <v>2759</v>
+      </c>
+      <c r="C888" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D888" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E888" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F888" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G888" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H888" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I888" t="s" s="0">
+        <v>2760</v>
+      </c>
+      <c r="J888" t="s" s="0">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s" s="0">
+        <v>2761</v>
+      </c>
+      <c r="B889" t="s" s="0">
+        <v>2762</v>
+      </c>
+      <c r="C889" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D889" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E889" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F889" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G889" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H889" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I889" t="s" s="0">
+        <v>2763</v>
+      </c>
+      <c r="J889" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s" s="0">
+        <v>2764</v>
+      </c>
+      <c r="B890" t="s" s="0">
+        <v>2765</v>
+      </c>
+      <c r="C890" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D890" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E890" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F890" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G890" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H890" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I890" t="s" s="0">
+        <v>2766</v>
+      </c>
+      <c r="J890" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s" s="0">
+        <v>2767</v>
+      </c>
+      <c r="B891" t="s" s="0">
+        <v>2768</v>
+      </c>
+      <c r="C891" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D891" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E891" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F891" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G891" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H891" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I891" t="s" s="0">
+        <v>2769</v>
+      </c>
+      <c r="J891" t="s" s="0">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s" s="0">
+        <v>2770</v>
+      </c>
+      <c r="B892" t="s" s="0">
+        <v>2771</v>
+      </c>
+      <c r="C892" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D892" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E892" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F892" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G892" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H892" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I892" t="s" s="0">
+        <v>2772</v>
+      </c>
+      <c r="J892" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s" s="0">
+        <v>2773</v>
+      </c>
+      <c r="B893" t="s" s="0">
+        <v>2774</v>
+      </c>
+      <c r="C893" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D893" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E893" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F893" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G893" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H893" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I893" t="s" s="0">
+        <v>2775</v>
+      </c>
+      <c r="J893" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s" s="0">
+        <v>2776</v>
+      </c>
+      <c r="B894" t="s" s="0">
+        <v>2777</v>
+      </c>
+      <c r="C894" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D894" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E894" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F894" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G894" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H894" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I894" t="s" s="0">
+        <v>2778</v>
+      </c>
+      <c r="J894" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s" s="0">
+        <v>2779</v>
+      </c>
+      <c r="B895" t="s" s="0">
+        <v>2780</v>
+      </c>
+      <c r="C895" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D895" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E895" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F895" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G895" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H895" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I895" t="s" s="0">
+        <v>2781</v>
+      </c>
+      <c r="J895" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s" s="0">
+        <v>2782</v>
+      </c>
+      <c r="B896" t="s" s="0">
+        <v>2783</v>
+      </c>
+      <c r="C896" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D896" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E896" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F896" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G896" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H896" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I896" t="s" s="0">
+        <v>2784</v>
+      </c>
+      <c r="J896" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s" s="0">
+        <v>2785</v>
+      </c>
+      <c r="B897" t="s" s="0">
+        <v>2786</v>
+      </c>
+      <c r="C897" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D897" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E897" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F897" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G897" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H897" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I897" t="s" s="0">
+        <v>2787</v>
+      </c>
+      <c r="J897" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s" s="0">
+        <v>2788</v>
+      </c>
+      <c r="B898" t="s" s="0">
+        <v>2789</v>
+      </c>
+      <c r="C898" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D898" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E898" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F898" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G898" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H898" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I898" t="s" s="0">
+        <v>2790</v>
+      </c>
+      <c r="J898" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s" s="0">
+        <v>2791</v>
+      </c>
+      <c r="B899" t="s" s="0">
+        <v>2792</v>
+      </c>
+      <c r="C899" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D899" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E899" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F899" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G899" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H899" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I899" t="s" s="0">
+        <v>2793</v>
+      </c>
+      <c r="J899" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s" s="0">
+        <v>2794</v>
+      </c>
+      <c r="B900" t="s" s="0">
+        <v>2795</v>
+      </c>
+      <c r="C900" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D900" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E900" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F900" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G900" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H900" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I900" t="s" s="0">
+        <v>2796</v>
+      </c>
+      <c r="J900" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s" s="0">
+        <v>2797</v>
+      </c>
+      <c r="B901" t="s" s="0">
+        <v>2798</v>
+      </c>
+      <c r="C901" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D901" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E901" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F901" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G901" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H901" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I901" t="s" s="0">
+        <v>2799</v>
+      </c>
+      <c r="J901" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s" s="0">
+        <v>2800</v>
+      </c>
+      <c r="B902" t="s" s="0">
+        <v>2801</v>
+      </c>
+      <c r="C902" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D902" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E902" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F902" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G902" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H902" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I902" t="s" s="0">
+        <v>2802</v>
+      </c>
+      <c r="J902" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s" s="0">
+        <v>2803</v>
+      </c>
+      <c r="B903" t="s" s="0">
+        <v>2804</v>
+      </c>
+      <c r="C903" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D903" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E903" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F903" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G903" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H903" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I903" t="s" s="0">
+        <v>2805</v>
+      </c>
+      <c r="J903" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s" s="0">
+        <v>2806</v>
+      </c>
+      <c r="B904" t="s" s="0">
+        <v>2807</v>
+      </c>
+      <c r="C904" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D904" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E904" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F904" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G904" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H904" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I904" t="s" s="0">
+        <v>2808</v>
+      </c>
+      <c r="J904" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s" s="0">
+        <v>2809</v>
+      </c>
+      <c r="B905" t="s" s="0">
+        <v>2810</v>
+      </c>
+      <c r="C905" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D905" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E905" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F905" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G905" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H905" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I905" t="s" s="0">
+        <v>2811</v>
+      </c>
+      <c r="J905" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s" s="0">
+        <v>2812</v>
+      </c>
+      <c r="B906" t="s" s="0">
+        <v>2813</v>
+      </c>
+      <c r="C906" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D906" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E906" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F906" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G906" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H906" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I906" t="s" s="0">
+        <v>2814</v>
+      </c>
+      <c r="J906" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s" s="0">
+        <v>2815</v>
+      </c>
+      <c r="B907" t="s" s="0">
+        <v>2816</v>
+      </c>
+      <c r="C907" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D907" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E907" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F907" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G907" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H907" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I907" t="s" s="0">
+        <v>2817</v>
+      </c>
+      <c r="J907" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s" s="0">
+        <v>2818</v>
+      </c>
+      <c r="B908" t="s" s="0">
+        <v>2819</v>
+      </c>
+      <c r="C908" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D908" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E908" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F908" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G908" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H908" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I908" t="s" s="0">
+        <v>2820</v>
+      </c>
+      <c r="J908" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s" s="0">
+        <v>2821</v>
+      </c>
+      <c r="B909" t="s" s="0">
+        <v>2822</v>
+      </c>
+      <c r="C909" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D909" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E909" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F909" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G909" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H909" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I909" t="s" s="0">
+        <v>2823</v>
+      </c>
+      <c r="J909" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s" s="0">
+        <v>2824</v>
+      </c>
+      <c r="B910" t="s" s="0">
+        <v>2825</v>
+      </c>
+      <c r="C910" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D910" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E910" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F910" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G910" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H910" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I910" t="s" s="0">
+        <v>2826</v>
+      </c>
+      <c r="J910" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s" s="0">
+        <v>2827</v>
+      </c>
+      <c r="B911" t="s" s="0">
+        <v>2828</v>
+      </c>
+      <c r="C911" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D911" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E911" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F911" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G911" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H911" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I911" t="s" s="0">
+        <v>2829</v>
+      </c>
+      <c r="J911" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s" s="0">
+        <v>2830</v>
+      </c>
+      <c r="B912" t="s" s="0">
+        <v>2831</v>
+      </c>
+      <c r="C912" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D912" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E912" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F912" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G912" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H912" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I912" t="s" s="0">
+        <v>2832</v>
+      </c>
+      <c r="J912" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s" s="0">
+        <v>2833</v>
+      </c>
+      <c r="B913" t="s" s="0">
+        <v>2834</v>
+      </c>
+      <c r="C913" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D913" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E913" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F913" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G913" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H913" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I913" t="s" s="0">
+        <v>2835</v>
+      </c>
+      <c r="J913" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s" s="0">
+        <v>2836</v>
+      </c>
+      <c r="B914" t="s" s="0">
+        <v>2837</v>
+      </c>
+      <c r="C914" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D914" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E914" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F914" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G914" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H914" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I914" t="s" s="0">
+        <v>2838</v>
+      </c>
+      <c r="J914" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s" s="0">
+        <v>2839</v>
+      </c>
+      <c r="B915" t="s" s="0">
+        <v>2840</v>
+      </c>
+      <c r="C915" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D915" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E915" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F915" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G915" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H915" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I915" t="s" s="0">
+        <v>2841</v>
+      </c>
+      <c r="J915" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s" s="0">
+        <v>2842</v>
+      </c>
+      <c r="B916" t="s" s="0">
+        <v>2843</v>
+      </c>
+      <c r="C916" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D916" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E916" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F916" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="G916" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H916" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I916" t="s" s="0">
+        <v>2844</v>
+      </c>
+      <c r="J916" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s" s="0">
+        <v>2845</v>
+      </c>
+      <c r="B917" t="s" s="0">
+        <v>2846</v>
+      </c>
+      <c r="C917" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D917" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E917" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F917" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G917" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H917" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I917" t="s" s="0">
+        <v>2847</v>
+      </c>
+      <c r="J917" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s" s="0">
+        <v>2848</v>
+      </c>
+      <c r="B918" t="s" s="0">
+        <v>2849</v>
+      </c>
+      <c r="C918" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D918" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E918" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F918" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G918" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H918" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I918" t="s" s="0">
+        <v>2850</v>
+      </c>
+      <c r="J918" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s" s="0">
+        <v>2851</v>
+      </c>
+      <c r="B919" t="s" s="0">
+        <v>2852</v>
+      </c>
+      <c r="C919" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D919" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E919" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F919" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G919" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H919" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I919" t="s" s="0">
+        <v>2853</v>
+      </c>
+      <c r="J919" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9190" uniqueCount="2854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9710" uniqueCount="3022">
   <si>
     <t>File Name</t>
   </si>
@@ -8574,6 +8574,510 @@
   </si>
   <si>
     <t>3ae2ffab36174a2b8357b34c008503f3</t>
+  </si>
+  <si>
+    <t>Blond-Echo-JB5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Blond-Echo-JB5.jpg</t>
+  </si>
+  <si>
+    <t>131d1729cf644d989a67b34c00850f5d</t>
+  </si>
+  <si>
+    <t>New-Age-Oak-J1J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/New-Age-Oak-J1J.jpg</t>
+  </si>
+  <si>
+    <t>3bcd4d6b42074ea78f41b34c00851011</t>
+  </si>
+  <si>
+    <t>Appears-likatre-J3D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Appears-likatre-J3D.jpg</t>
+  </si>
+  <si>
+    <t>13b3751103eb49a89c8ab34c008512c3</t>
+  </si>
+  <si>
+    <t>Grey-Pampas-J1T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grey-Pampas-J1T.jpg</t>
+  </si>
+  <si>
+    <t>46e1e55481a046c69f3cb34c00851db8</t>
+  </si>
+  <si>
+    <t>Asian-Sand-JB2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Asian-Sand-JB2.jpg</t>
+  </si>
+  <si>
+    <t>07ad6baf82f84757b047b34c00852320</t>
+  </si>
+  <si>
+    <t>Vous-Metal-J43.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Vous-Metal-J43.jpg</t>
+  </si>
+  <si>
+    <t>80c0c88b02044b1e9da7b34c008522f7</t>
+  </si>
+  <si>
+    <t>Illustrious-Maple-J45.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Illustrious-Maple-J45.jpg</t>
+  </si>
+  <si>
+    <t>3918bf8eeb114643abacb34c00853273</t>
+  </si>
+  <si>
+    <t>Cloud-Zephyr-J4F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cloud-Zephyr-J4F.jpg</t>
+  </si>
+  <si>
+    <t>8ce2eb1cfb1c45dd95b4b34c0085308b</t>
+  </si>
+  <si>
+    <t>Stipple-Storm-K16.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stipple-Storm-K16.jpg</t>
+  </si>
+  <si>
+    <t>f3e791bf93d9407395b4b34c00852e82</t>
+  </si>
+  <si>
+    <t>Atlantis-J75.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Atlantis-J75.jpg</t>
+  </si>
+  <si>
+    <t>7aa4b0b6dc6f482e8f86b34c008541ad</t>
+  </si>
+  <si>
+    <t>Clear-Die-Cast-Aluminum-S5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Clear-Die-Cast-Aluminum-S5.jpg</t>
+  </si>
+  <si>
+    <t>0a1e7f90625547f993bfb34c0085415f</t>
+  </si>
+  <si>
+    <t>Wheat-Fiber-J3F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wheat-Fiber-J3F.jpg</t>
+  </si>
+  <si>
+    <t>5941fc54cd7146c6bb9ab34c008548b0</t>
+  </si>
+  <si>
+    <t>HPL_Pionite_LooksLikatre_J39.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/HPL_Pionite_LooksLikatre_J39.jpg</t>
+  </si>
+  <si>
+    <t>17dba9e806094b6887b6b34c00855009</t>
+  </si>
+  <si>
+    <t>Wrought-Iron-K18.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wrought-Iron-K18.jpg</t>
+  </si>
+  <si>
+    <t>349f5fabebfb4ef18fe1b34c00855070</t>
+  </si>
+  <si>
+    <t>Satin-Stainless-K01.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Satin-Stainless-K01.jpg</t>
+  </si>
+  <si>
+    <t>9eec48d9eb204cc78e0cb34c00855587</t>
+  </si>
+  <si>
+    <t>Cavalcade-South-J3H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Cavalcade-South-J3H.jpg</t>
+  </si>
+  <si>
+    <t>20b3a504327147c0b10ab34c00855e67</t>
+  </si>
+  <si>
+    <t>Solar-Oak-J6N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Solar-Oak-J6N.jpg</t>
+  </si>
+  <si>
+    <t>e7ecc5a440164d9e8616b34c00856071</t>
+  </si>
+  <si>
+    <t>Neutral-Twill-J9F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Neutral-Twill-J9F.jpg</t>
+  </si>
+  <si>
+    <t>aeddb9724edb4c60b876b34c0085669d</t>
+  </si>
+  <si>
+    <t>Frost-Tempered-1-2-Inch-E3A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Frost-Tempered-1-2-Inch-E3A.jpg</t>
+  </si>
+  <si>
+    <t>9e1aad1161454c70a0e5b34c00856e4d</t>
+  </si>
+  <si>
+    <t>Stucco-Smooth-J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stucco-Smooth-J.jpg</t>
+  </si>
+  <si>
+    <t>0871d2ae11fc4bf58a07b34c008576f9</t>
+  </si>
+  <si>
+    <t>Classic-Linen-J6A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Classic-Linen-J6A.jpg</t>
+  </si>
+  <si>
+    <t>99890e83f9064a0ca780b34c0085703d</t>
+  </si>
+  <si>
+    <t>Sarum-Twill-J9G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sarum-Twill-J9G.jpg</t>
+  </si>
+  <si>
+    <t>91e685814d554c51982eb34c00857e07</t>
+  </si>
+  <si>
+    <t>Crisp-Linen-J69.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crisp-Linen-J69.jpg</t>
+  </si>
+  <si>
+    <t>66660b3db9e14f0a8724b34c00858a1f</t>
+  </si>
+  <si>
+    <t>Horizon-T2J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Horizon-T2J.jpg</t>
+  </si>
+  <si>
+    <t>e194437ade2c46f987ecb34c00858c51</t>
+  </si>
+  <si>
+    <t>2.42 MB</t>
+  </si>
+  <si>
+    <t>Reeded-T2R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Reeded-T2R.jpg</t>
+  </si>
+  <si>
+    <t>990fca54a7d84e45b045b34c00858f48</t>
+  </si>
+  <si>
+    <t>2.72 MB</t>
+  </si>
+  <si>
+    <t>Evening-Tigris-JM4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Evening-Tigris-JM4.jpg</t>
+  </si>
+  <si>
+    <t>57f9c97762914aa3b681b34c00859843</t>
+  </si>
+  <si>
+    <t>Earthen-Twill-J9H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Earthen-Twill-J9H.jpg</t>
+  </si>
+  <si>
+    <t>4d9c4893aece46b5bd2fb34c00859c40</t>
+  </si>
+  <si>
+    <t>Sand-J20.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Sand-J20.jpg</t>
+  </si>
+  <si>
+    <t>8830ff00117644969e19b34c00859d9b</t>
+  </si>
+  <si>
+    <t>Wild-Cherry-J1R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wild-Cherry-J1R.jpg</t>
+  </si>
+  <si>
+    <t>342b97046e064cb082efb34c0085a7a7</t>
+  </si>
+  <si>
+    <t>Stucco-J11.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Stucco-J11.jpg</t>
+  </si>
+  <si>
+    <t>a27aead24729424d9fc4b34c0085a8da</t>
+  </si>
+  <si>
+    <t>Casual-Linen-J6B.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Casual-Linen-J6B.jpg</t>
+  </si>
+  <si>
+    <t>20d1d31c8d7e4ed8a029b34c0085ac30</t>
+  </si>
+  <si>
+    <t>Graphite-Twill-J9J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graphite-Twill-J9J.jpg</t>
+  </si>
+  <si>
+    <t>f6788c8ca1d94c05acc0b34c0085b62b</t>
+  </si>
+  <si>
+    <t>Aquatex-T2P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Aquatex-T2P.jpg</t>
+  </si>
+  <si>
+    <t>c9922971e049476e8a41b34c0085b7fa</t>
+  </si>
+  <si>
+    <t>2.62 MB</t>
+  </si>
+  <si>
+    <t>Shadow-J04.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Shadow-J04.jpg</t>
+  </si>
+  <si>
+    <t>5e6f7832496446f3ab02b34c0085bb5b</t>
+  </si>
+  <si>
+    <t>Graphite-J9D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graphite-J9D.jpg</t>
+  </si>
+  <si>
+    <t>688d4d792c4645749503b34c0085c486</t>
+  </si>
+  <si>
+    <t>Goose-AQ9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Goose-AQ9.jpg</t>
+  </si>
+  <si>
+    <t>49302072e95647268706b34c0085c763</t>
+  </si>
+  <si>
+    <t>Birch-AQ8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Birch-AQ8.jpg</t>
+  </si>
+  <si>
+    <t>33cfa641c55a42ffb937b34c0085ca5d</t>
+  </si>
+  <si>
+    <t>Graphite-BFM.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Graphite-BFM.jpg</t>
+  </si>
+  <si>
+    <t>d1717e67d8f94049af93b34c0085d64e</t>
+  </si>
+  <si>
+    <t>Wolf-BFJ.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wolf-BFJ.jpg</t>
+  </si>
+  <si>
+    <t>9905702e73d34775a1e3b34c0085d75f</t>
+  </si>
+  <si>
+    <t>Onyx-GEB.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Onyx-GEB.jpg</t>
+  </si>
+  <si>
+    <t>0fcccc8af7634ebfa844b34c0085e0e0</t>
+  </si>
+  <si>
+    <t>Quarry-Blue-AQ6.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Quarry-Blue-AQ6.jpg</t>
+  </si>
+  <si>
+    <t>7b0b8a8cbfab4b7cabc3b34c0085e689</t>
+  </si>
+  <si>
+    <t>Slate-AQ5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Slate-AQ5.jpg</t>
+  </si>
+  <si>
+    <t>5eb65229718d4fd0ae5ab34c0085e8ad</t>
+  </si>
+  <si>
+    <t>Asteroid-AR0.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Asteroid-AR0.jpg</t>
+  </si>
+  <si>
+    <t>d1d079fa4ce44a3eb8e9b34c0085ee85</t>
+  </si>
+  <si>
+    <t>Z78 - Spinach.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z78 - Spinach.jpg</t>
+  </si>
+  <si>
+    <t>592f66a959264d14b96bb34c0085f5ed</t>
+  </si>
+  <si>
+    <t>3.64 MB</t>
+  </si>
+  <si>
+    <t>Z6D - Sandalwood.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z6D - Sandalwood.jpg</t>
+  </si>
+  <si>
+    <t>869690ea54a2493c9b85b34c0085fa15</t>
+  </si>
+  <si>
+    <t>3.77 MB</t>
+  </si>
+  <si>
+    <t>Z6F - Sorrel.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z6F - Sorrel.jpg</t>
+  </si>
+  <si>
+    <t>8fe764d7c90c44d38d5fb34c00860046</t>
+  </si>
+  <si>
+    <t>3.40 MB</t>
+  </si>
+  <si>
+    <t>Z79 - Saxon Blue.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z79 - Saxon Blue.jpg</t>
+  </si>
+  <si>
+    <t>d2fb986dbc05403ba6c8b34c0086045e</t>
+  </si>
+  <si>
+    <t>3.41 MB</t>
+  </si>
+  <si>
+    <t>Z6E - Artichoke.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z6E - Artichoke.jpg</t>
+  </si>
+  <si>
+    <t>3ebdc2c122b7410eb7e8b34c00860b15</t>
+  </si>
+  <si>
+    <t>3.30 MB</t>
+  </si>
+  <si>
+    <t>Z6G - Nettle.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z6G - Nettle.jpg</t>
+  </si>
+  <si>
+    <t>23178096634d46a98079b34c0086104d</t>
+  </si>
+  <si>
+    <t>3.94 MB</t>
+  </si>
+  <si>
+    <t>Z6H - Lichen.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z6H - Lichen.jpg</t>
+  </si>
+  <si>
+    <t>523b69c7207b4be0b522b34c008614f4</t>
+  </si>
+  <si>
+    <t>2.94 MB</t>
+  </si>
+  <si>
+    <t>Z7A - Cornflower.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z7A - Cornflower.jpg</t>
+  </si>
+  <si>
+    <t>b9183a1fcbae4c01a67bb34c00861e6b</t>
+  </si>
+  <si>
+    <t>3.83 MB</t>
+  </si>
+  <si>
+    <t>Z67 - Alder.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Z67 - Alder.jpg</t>
+  </si>
+  <si>
+    <t>9aa3cdc8fda34db3b771b34c008620b3</t>
+  </si>
+  <si>
+    <t>3.24 MB</t>
   </si>
 </sst>
 </file>
@@ -8618,7 +9122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J919"/>
+  <dimension ref="A1:J971"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -38032,6 +38536,1670 @@
         <v>604</v>
       </c>
     </row>
+    <row r="920">
+      <c r="A920" t="s" s="0">
+        <v>2854</v>
+      </c>
+      <c r="B920" t="s" s="0">
+        <v>2855</v>
+      </c>
+      <c r="C920" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D920" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E920" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F920" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G920" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H920" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I920" t="s" s="0">
+        <v>2856</v>
+      </c>
+      <c r="J920" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s" s="0">
+        <v>2857</v>
+      </c>
+      <c r="B921" t="s" s="0">
+        <v>2858</v>
+      </c>
+      <c r="C921" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D921" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E921" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F921" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G921" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H921" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I921" t="s" s="0">
+        <v>2859</v>
+      </c>
+      <c r="J921" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s" s="0">
+        <v>2860</v>
+      </c>
+      <c r="B922" t="s" s="0">
+        <v>2861</v>
+      </c>
+      <c r="C922" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D922" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E922" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F922" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G922" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H922" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I922" t="s" s="0">
+        <v>2862</v>
+      </c>
+      <c r="J922" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s" s="0">
+        <v>2863</v>
+      </c>
+      <c r="B923" t="s" s="0">
+        <v>2864</v>
+      </c>
+      <c r="C923" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D923" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E923" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F923" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G923" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H923" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I923" t="s" s="0">
+        <v>2865</v>
+      </c>
+      <c r="J923" t="s" s="0">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s" s="0">
+        <v>2866</v>
+      </c>
+      <c r="B924" t="s" s="0">
+        <v>2867</v>
+      </c>
+      <c r="C924" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D924" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E924" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F924" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G924" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H924" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I924" t="s" s="0">
+        <v>2868</v>
+      </c>
+      <c r="J924" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s" s="0">
+        <v>2869</v>
+      </c>
+      <c r="B925" t="s" s="0">
+        <v>2870</v>
+      </c>
+      <c r="C925" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D925" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E925" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F925" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G925" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H925" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I925" t="s" s="0">
+        <v>2871</v>
+      </c>
+      <c r="J925" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s" s="0">
+        <v>2872</v>
+      </c>
+      <c r="B926" t="s" s="0">
+        <v>2873</v>
+      </c>
+      <c r="C926" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D926" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E926" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F926" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G926" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H926" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I926" t="s" s="0">
+        <v>2874</v>
+      </c>
+      <c r="J926" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s" s="0">
+        <v>2875</v>
+      </c>
+      <c r="B927" t="s" s="0">
+        <v>2876</v>
+      </c>
+      <c r="C927" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D927" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E927" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F927" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G927" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H927" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I927" t="s" s="0">
+        <v>2877</v>
+      </c>
+      <c r="J927" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s" s="0">
+        <v>2878</v>
+      </c>
+      <c r="B928" t="s" s="0">
+        <v>2879</v>
+      </c>
+      <c r="C928" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D928" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E928" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F928" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="G928" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H928" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I928" t="s" s="0">
+        <v>2880</v>
+      </c>
+      <c r="J928" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s" s="0">
+        <v>2881</v>
+      </c>
+      <c r="B929" t="s" s="0">
+        <v>2882</v>
+      </c>
+      <c r="C929" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D929" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E929" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F929" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G929" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H929" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I929" t="s" s="0">
+        <v>2883</v>
+      </c>
+      <c r="J929" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s" s="0">
+        <v>2884</v>
+      </c>
+      <c r="B930" t="s" s="0">
+        <v>2885</v>
+      </c>
+      <c r="C930" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D930" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E930" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F930" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G930" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H930" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I930" t="s" s="0">
+        <v>2886</v>
+      </c>
+      <c r="J930" t="s" s="0">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s" s="0">
+        <v>2887</v>
+      </c>
+      <c r="B931" t="s" s="0">
+        <v>2888</v>
+      </c>
+      <c r="C931" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D931" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E931" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F931" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G931" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H931" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I931" t="s" s="0">
+        <v>2889</v>
+      </c>
+      <c r="J931" t="s" s="0">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s" s="0">
+        <v>2890</v>
+      </c>
+      <c r="B932" t="s" s="0">
+        <v>2891</v>
+      </c>
+      <c r="C932" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D932" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E932" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F932" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G932" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H932" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I932" t="s" s="0">
+        <v>2892</v>
+      </c>
+      <c r="J932" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s" s="0">
+        <v>2893</v>
+      </c>
+      <c r="B933" t="s" s="0">
+        <v>2894</v>
+      </c>
+      <c r="C933" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D933" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E933" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F933" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G933" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H933" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I933" t="s" s="0">
+        <v>2895</v>
+      </c>
+      <c r="J933" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s" s="0">
+        <v>2896</v>
+      </c>
+      <c r="B934" t="s" s="0">
+        <v>2897</v>
+      </c>
+      <c r="C934" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D934" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E934" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F934" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G934" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H934" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I934" t="s" s="0">
+        <v>2898</v>
+      </c>
+      <c r="J934" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s" s="0">
+        <v>2899</v>
+      </c>
+      <c r="B935" t="s" s="0">
+        <v>2900</v>
+      </c>
+      <c r="C935" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D935" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E935" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F935" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G935" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H935" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I935" t="s" s="0">
+        <v>2901</v>
+      </c>
+      <c r="J935" t="s" s="0">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s" s="0">
+        <v>2902</v>
+      </c>
+      <c r="B936" t="s" s="0">
+        <v>2903</v>
+      </c>
+      <c r="C936" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D936" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E936" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F936" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G936" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H936" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I936" t="s" s="0">
+        <v>2904</v>
+      </c>
+      <c r="J936" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s" s="0">
+        <v>2905</v>
+      </c>
+      <c r="B937" t="s" s="0">
+        <v>2906</v>
+      </c>
+      <c r="C937" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D937" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E937" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F937" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G937" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H937" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I937" t="s" s="0">
+        <v>2907</v>
+      </c>
+      <c r="J937" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s" s="0">
+        <v>2908</v>
+      </c>
+      <c r="B938" t="s" s="0">
+        <v>2909</v>
+      </c>
+      <c r="C938" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D938" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E938" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F938" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G938" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H938" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I938" t="s" s="0">
+        <v>2910</v>
+      </c>
+      <c r="J938" t="s" s="0">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s" s="0">
+        <v>2911</v>
+      </c>
+      <c r="B939" t="s" s="0">
+        <v>2912</v>
+      </c>
+      <c r="C939" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D939" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E939" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F939" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G939" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H939" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I939" t="s" s="0">
+        <v>2913</v>
+      </c>
+      <c r="J939" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s" s="0">
+        <v>2914</v>
+      </c>
+      <c r="B940" t="s" s="0">
+        <v>2915</v>
+      </c>
+      <c r="C940" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D940" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E940" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F940" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G940" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H940" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I940" t="s" s="0">
+        <v>2916</v>
+      </c>
+      <c r="J940" t="s" s="0">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s" s="0">
+        <v>2917</v>
+      </c>
+      <c r="B941" t="s" s="0">
+        <v>2918</v>
+      </c>
+      <c r="C941" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D941" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E941" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F941" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G941" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H941" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I941" t="s" s="0">
+        <v>2919</v>
+      </c>
+      <c r="J941" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s" s="0">
+        <v>2920</v>
+      </c>
+      <c r="B942" t="s" s="0">
+        <v>2921</v>
+      </c>
+      <c r="C942" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D942" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E942" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F942" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G942" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H942" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I942" t="s" s="0">
+        <v>2922</v>
+      </c>
+      <c r="J942" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s" s="0">
+        <v>2923</v>
+      </c>
+      <c r="B943" t="s" s="0">
+        <v>2924</v>
+      </c>
+      <c r="C943" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D943" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E943" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F943" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G943" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H943" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I943" t="s" s="0">
+        <v>2925</v>
+      </c>
+      <c r="J943" t="s" s="0">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s" s="0">
+        <v>2927</v>
+      </c>
+      <c r="B944" t="s" s="0">
+        <v>2928</v>
+      </c>
+      <c r="C944" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D944" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E944" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F944" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G944" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H944" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I944" t="s" s="0">
+        <v>2929</v>
+      </c>
+      <c r="J944" t="s" s="0">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s" s="0">
+        <v>2931</v>
+      </c>
+      <c r="B945" t="s" s="0">
+        <v>2932</v>
+      </c>
+      <c r="C945" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D945" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E945" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F945" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G945" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H945" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I945" t="s" s="0">
+        <v>2933</v>
+      </c>
+      <c r="J945" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s" s="0">
+        <v>2934</v>
+      </c>
+      <c r="B946" t="s" s="0">
+        <v>2935</v>
+      </c>
+      <c r="C946" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D946" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E946" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F946" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G946" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H946" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I946" t="s" s="0">
+        <v>2936</v>
+      </c>
+      <c r="J946" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s" s="0">
+        <v>2937</v>
+      </c>
+      <c r="B947" t="s" s="0">
+        <v>2938</v>
+      </c>
+      <c r="C947" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D947" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E947" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F947" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G947" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H947" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I947" t="s" s="0">
+        <v>2939</v>
+      </c>
+      <c r="J947" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s" s="0">
+        <v>2940</v>
+      </c>
+      <c r="B948" t="s" s="0">
+        <v>2941</v>
+      </c>
+      <c r="C948" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D948" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E948" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F948" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G948" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H948" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I948" t="s" s="0">
+        <v>2942</v>
+      </c>
+      <c r="J948" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s" s="0">
+        <v>2943</v>
+      </c>
+      <c r="B949" t="s" s="0">
+        <v>2944</v>
+      </c>
+      <c r="C949" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D949" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E949" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F949" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G949" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H949" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I949" t="s" s="0">
+        <v>2945</v>
+      </c>
+      <c r="J949" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s" s="0">
+        <v>2946</v>
+      </c>
+      <c r="B950" t="s" s="0">
+        <v>2947</v>
+      </c>
+      <c r="C950" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D950" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E950" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F950" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G950" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H950" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I950" t="s" s="0">
+        <v>2948</v>
+      </c>
+      <c r="J950" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s" s="0">
+        <v>2949</v>
+      </c>
+      <c r="B951" t="s" s="0">
+        <v>2950</v>
+      </c>
+      <c r="C951" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D951" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E951" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F951" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G951" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H951" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I951" t="s" s="0">
+        <v>2951</v>
+      </c>
+      <c r="J951" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s" s="0">
+        <v>2952</v>
+      </c>
+      <c r="B952" t="s" s="0">
+        <v>2953</v>
+      </c>
+      <c r="C952" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D952" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E952" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F952" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G952" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H952" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I952" t="s" s="0">
+        <v>2954</v>
+      </c>
+      <c r="J952" t="s" s="0">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s" s="0">
+        <v>2956</v>
+      </c>
+      <c r="B953" t="s" s="0">
+        <v>2957</v>
+      </c>
+      <c r="C953" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D953" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E953" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F953" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G953" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H953" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I953" t="s" s="0">
+        <v>2958</v>
+      </c>
+      <c r="J953" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s" s="0">
+        <v>2959</v>
+      </c>
+      <c r="B954" t="s" s="0">
+        <v>2960</v>
+      </c>
+      <c r="C954" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D954" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E954" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F954" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G954" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H954" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I954" t="s" s="0">
+        <v>2961</v>
+      </c>
+      <c r="J954" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s" s="0">
+        <v>2962</v>
+      </c>
+      <c r="B955" t="s" s="0">
+        <v>2963</v>
+      </c>
+      <c r="C955" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D955" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E955" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F955" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G955" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H955" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I955" t="s" s="0">
+        <v>2964</v>
+      </c>
+      <c r="J955" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s" s="0">
+        <v>2965</v>
+      </c>
+      <c r="B956" t="s" s="0">
+        <v>2966</v>
+      </c>
+      <c r="C956" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D956" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E956" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F956" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="G956" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H956" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I956" t="s" s="0">
+        <v>2967</v>
+      </c>
+      <c r="J956" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s" s="0">
+        <v>2968</v>
+      </c>
+      <c r="B957" t="s" s="0">
+        <v>2969</v>
+      </c>
+      <c r="C957" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D957" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E957" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F957" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G957" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H957" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I957" t="s" s="0">
+        <v>2970</v>
+      </c>
+      <c r="J957" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s" s="0">
+        <v>2971</v>
+      </c>
+      <c r="B958" t="s" s="0">
+        <v>2972</v>
+      </c>
+      <c r="C958" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D958" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E958" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F958" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G958" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H958" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I958" t="s" s="0">
+        <v>2973</v>
+      </c>
+      <c r="J958" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s" s="0">
+        <v>2974</v>
+      </c>
+      <c r="B959" t="s" s="0">
+        <v>2975</v>
+      </c>
+      <c r="C959" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D959" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E959" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F959" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G959" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H959" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I959" t="s" s="0">
+        <v>2976</v>
+      </c>
+      <c r="J959" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s" s="0">
+        <v>2977</v>
+      </c>
+      <c r="B960" t="s" s="0">
+        <v>2978</v>
+      </c>
+      <c r="C960" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D960" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E960" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F960" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G960" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H960" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I960" t="s" s="0">
+        <v>2979</v>
+      </c>
+      <c r="J960" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s" s="0">
+        <v>2980</v>
+      </c>
+      <c r="B961" t="s" s="0">
+        <v>2981</v>
+      </c>
+      <c r="C961" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D961" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E961" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F961" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G961" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H961" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I961" t="s" s="0">
+        <v>2982</v>
+      </c>
+      <c r="J961" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s" s="0">
+        <v>2983</v>
+      </c>
+      <c r="B962" t="s" s="0">
+        <v>2984</v>
+      </c>
+      <c r="C962" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D962" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E962" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F962" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G962" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H962" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I962" t="s" s="0">
+        <v>2985</v>
+      </c>
+      <c r="J962" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s" s="0">
+        <v>2986</v>
+      </c>
+      <c r="B963" t="s" s="0">
+        <v>2987</v>
+      </c>
+      <c r="C963" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D963" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E963" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F963" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G963" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H963" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I963" t="s" s="0">
+        <v>2988</v>
+      </c>
+      <c r="J963" t="s" s="0">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s" s="0">
+        <v>2990</v>
+      </c>
+      <c r="B964" t="s" s="0">
+        <v>2991</v>
+      </c>
+      <c r="C964" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D964" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E964" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F964" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G964" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H964" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I964" t="s" s="0">
+        <v>2992</v>
+      </c>
+      <c r="J964" t="s" s="0">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s" s="0">
+        <v>2994</v>
+      </c>
+      <c r="B965" t="s" s="0">
+        <v>2995</v>
+      </c>
+      <c r="C965" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D965" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E965" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F965" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G965" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H965" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I965" t="s" s="0">
+        <v>2996</v>
+      </c>
+      <c r="J965" t="s" s="0">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s" s="0">
+        <v>2998</v>
+      </c>
+      <c r="B966" t="s" s="0">
+        <v>2999</v>
+      </c>
+      <c r="C966" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D966" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E966" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F966" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G966" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H966" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I966" t="s" s="0">
+        <v>3000</v>
+      </c>
+      <c r="J966" t="s" s="0">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s" s="0">
+        <v>3002</v>
+      </c>
+      <c r="B967" t="s" s="0">
+        <v>3003</v>
+      </c>
+      <c r="C967" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D967" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E967" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F967" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="G967" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H967" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I967" t="s" s="0">
+        <v>3004</v>
+      </c>
+      <c r="J967" t="s" s="0">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s" s="0">
+        <v>3006</v>
+      </c>
+      <c r="B968" t="s" s="0">
+        <v>3007</v>
+      </c>
+      <c r="C968" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D968" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E968" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F968" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G968" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H968" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I968" t="s" s="0">
+        <v>3008</v>
+      </c>
+      <c r="J968" t="s" s="0">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s" s="0">
+        <v>3010</v>
+      </c>
+      <c r="B969" t="s" s="0">
+        <v>3011</v>
+      </c>
+      <c r="C969" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D969" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E969" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F969" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G969" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H969" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I969" t="s" s="0">
+        <v>3012</v>
+      </c>
+      <c r="J969" t="s" s="0">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s" s="0">
+        <v>3014</v>
+      </c>
+      <c r="B970" t="s" s="0">
+        <v>3015</v>
+      </c>
+      <c r="C970" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D970" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E970" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F970" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G970" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H970" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I970" t="s" s="0">
+        <v>3016</v>
+      </c>
+      <c r="J970" t="s" s="0">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s" s="0">
+        <v>3018</v>
+      </c>
+      <c r="B971" t="s" s="0">
+        <v>3019</v>
+      </c>
+      <c r="C971" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D971" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E971" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F971" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G971" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H971" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I971" t="s" s="0">
+        <v>3020</v>
+      </c>
+      <c r="J971" t="s" s="0">
+        <v>3021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-02_06-50.xlsx
+++ b/fellowes2025-09-02_06-50.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12330" uniqueCount="3949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12862" uniqueCount="4136">
   <si>
     <t>File Name</t>
   </si>
@@ -11859,6 +11859,567 @@
   </si>
   <si>
     <t>798aaba3914f464a99e1b34c008be171</t>
+  </si>
+  <si>
+    <t>Fawn Cypress - JPC.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fawn Cypress - JPC.jpg</t>
+  </si>
+  <si>
+    <t>e4322e0b13e94a6a972db34c008be10c</t>
+  </si>
+  <si>
+    <t>Florence Walnut - JPD.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Florence Walnut - JPD.jpg</t>
+  </si>
+  <si>
+    <t>1af0ddcc5cf84a80a49eb34c008be6c8</t>
+  </si>
+  <si>
+    <t>Coronado Oak - JPA.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Coronado Oak - JPA.jpg</t>
+  </si>
+  <si>
+    <t>1eb2ef0677474efea98bb34c008beee3</t>
+  </si>
+  <si>
+    <t>Empire-Mahogany-M8.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Empire-Mahogany-M8.jpg</t>
+  </si>
+  <si>
+    <t>a52b1cfe80c647f7a75fb34c008bf4b7</t>
+  </si>
+  <si>
+    <t>Pasadena Oak - JPB.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pasadena Oak - JPB.jpg</t>
+  </si>
+  <si>
+    <t>21beb2e7ca8f4d3b8cdcb34c008bf4a6</t>
+  </si>
+  <si>
+    <t>Beigewood-M4.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Beigewood-M4.jpg</t>
+  </si>
+  <si>
+    <t>cd5e10f5afe541319a4eb34c008bfc9e</t>
+  </si>
+  <si>
+    <t>Beigewood J06 - Full Panel.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Beigewood J06 - Full Panel.jpg</t>
+  </si>
+  <si>
+    <t>96c6d0ac410f49caa631b34c008c0213</t>
+  </si>
+  <si>
+    <t>Wild-Cherry-M9.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Wild-Cherry-M9.jpg</t>
+  </si>
+  <si>
+    <t>81fee4671dfa45038b2ab34c008c0347</t>
+  </si>
+  <si>
+    <t>Brazilwood-M5.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Brazilwood-M5.jpg</t>
+  </si>
+  <si>
+    <t>4c5bd07a89174ad1a1a3b34c008c0a25</t>
+  </si>
+  <si>
+    <t>Fusion-Maple-M2.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fusion-Maple-M2.jpg</t>
+  </si>
+  <si>
+    <t>637417b21e3444c6a0a5b34c008c12ae</t>
+  </si>
+  <si>
+    <t>Red-BXU.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Red-BXU.jpg</t>
+  </si>
+  <si>
+    <t>24298b9bacc24f909b9bb34c008c1148</t>
+  </si>
+  <si>
+    <t>Fawn Cypress - JPC-CI.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Fawn Cypress - JPC-CI.jpg</t>
+  </si>
+  <si>
+    <t>83e31568fbf241d8bd61b34c008c17df</t>
+  </si>
+  <si>
+    <t>Pasadena Oak - JPB-CI.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Pasadena Oak - JPB-CI.jpg</t>
+  </si>
+  <si>
+    <t>a88e94c051d24ad59990b34c008c2199</t>
+  </si>
+  <si>
+    <t>Italian Silver Ash - JPE-CI.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Italian Silver Ash - JPE-CI.jpg</t>
+  </si>
+  <si>
+    <t>0b1faa966f09433ea34eb34c008c20e2</t>
+  </si>
+  <si>
+    <t>Coronado Oak - JPA-CI.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Coronado Oak - JPA-CI.jpg</t>
+  </si>
+  <si>
+    <t>75e357638904495c97b7b34c008c2844</t>
+  </si>
+  <si>
+    <t>Florence Walnut - JPD-CI.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Florence Walnut - JPD-CI.jpg</t>
+  </si>
+  <si>
+    <t>31052472ae7e4990b509b34c008c3048</t>
+  </si>
+  <si>
+    <t>Grey-Z2U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Grey-Z2U.jpg</t>
+  </si>
+  <si>
+    <t>02c761f4c07f46b09798b34c008c30da</t>
+  </si>
+  <si>
+    <t>Crespo - Navy - Z7T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Navy - Z7T.jpg</t>
+  </si>
+  <si>
+    <t>f3348da79ba6466294feb34c008c3710</t>
+  </si>
+  <si>
+    <t>1.31 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Pinot - Z7U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Pinot - Z7U.jpg</t>
+  </si>
+  <si>
+    <t>bea6eb8164484ade919eb34c008c3f85</t>
+  </si>
+  <si>
+    <t>1.25 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Pumice - Z7V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Pumice - Z7V.jpg</t>
+  </si>
+  <si>
+    <t>124e1d899d5047db86a6b34c008c4247</t>
+  </si>
+  <si>
+    <t>1.64 MB</t>
+  </si>
+  <si>
+    <t>Crespo - River - Z7W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - River - Z7W.jpg</t>
+  </si>
+  <si>
+    <t>4aa869da51a24b9c9670b34c008c46c4</t>
+  </si>
+  <si>
+    <t>1.72 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Slate - Z7X.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Slate - Z7X.jpg</t>
+  </si>
+  <si>
+    <t>4688e03057fa4acdb382b34c008c505b</t>
+  </si>
+  <si>
+    <t>1.62 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Bayou - Z7P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Bayou - Z7P.jpg</t>
+  </si>
+  <si>
+    <t>b57f9b546ef244748d3eb34c008c515f</t>
+  </si>
+  <si>
+    <t>1.54 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Spice - Z7Y.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Spice - Z7Y.jpg</t>
+  </si>
+  <si>
+    <t>f8c8b79ab2b94e3ba1a2b34c008c5411</t>
+  </si>
+  <si>
+    <t>1.79 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Basalt - Z7N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Basalt - Z7N.jpg</t>
+  </si>
+  <si>
+    <t>c88213e419a44ad8bd61b34c008c5ead</t>
+  </si>
+  <si>
+    <t>Nestle - Mink - Z8G.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Mink - Z8G.jpg</t>
+  </si>
+  <si>
+    <t>fa53405c72f34334a07cb34c008c62d6</t>
+  </si>
+  <si>
+    <t>1.65 MB</t>
+  </si>
+  <si>
+    <t>Crespo - Maestro - Z7R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Crespo - Maestro - Z7R.jpg</t>
+  </si>
+  <si>
+    <t>2b71a2e1f6a74ec7ac48b34c008c6004</t>
+  </si>
+  <si>
+    <t>1.15 MB</t>
+  </si>
+  <si>
+    <t>Nestle - Almond - Z89.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Almond - Z89.jpg</t>
+  </si>
+  <si>
+    <t>b41f57e7591d4dcab168b34c008c6d0c</t>
+  </si>
+  <si>
+    <t>1.66 MB</t>
+  </si>
+  <si>
+    <t>Nestle - Mesa - Z8E.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Mesa - Z8E.jpg</t>
+  </si>
+  <si>
+    <t>48e74ddce39a4d239baeb34c008c7011</t>
+  </si>
+  <si>
+    <t>2.37 MB</t>
+  </si>
+  <si>
+    <t>Ego - Dove - Z80.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Dove - Z80.jpg</t>
+  </si>
+  <si>
+    <t>770a4b9675b943d98af4b34c008c709e</t>
+  </si>
+  <si>
+    <t>1.91 MB</t>
+  </si>
+  <si>
+    <t>Ego - Galena - Z82.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Galena - Z82.jpg</t>
+  </si>
+  <si>
+    <t>cdf22bfe5cf94bfd9d53b34c008c7e44</t>
+  </si>
+  <si>
+    <t>Ego - Spa - Z87.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Spa - Z87.jpg</t>
+  </si>
+  <si>
+    <t>873ec5ef2ddf44afb8cab34c008c813a</t>
+  </si>
+  <si>
+    <t>2.09 MB</t>
+  </si>
+  <si>
+    <t>Ego - Foil - Z81.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Foil - Z81.jpg</t>
+  </si>
+  <si>
+    <t>2a754057fcaf4880b67ab34c008c7cc9</t>
+  </si>
+  <si>
+    <t>Ego - Onyx - Z86.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Onyx - Z86.jpg</t>
+  </si>
+  <si>
+    <t>83f363e9af6744f6b610b34c008c8c65</t>
+  </si>
+  <si>
+    <t>1.45 MB</t>
+  </si>
+  <si>
+    <t>Ego - Ginger - Z83.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Ginger - Z83.jpg</t>
+  </si>
+  <si>
+    <t>257136ae5c434f008086b34c008c9231</t>
+  </si>
+  <si>
+    <t>2.30 MB</t>
+  </si>
+  <si>
+    <t>Ego - Twig - Z88.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Twig - Z88.jpg</t>
+  </si>
+  <si>
+    <t>b48093fc75df4f6cb66bb34c008c91a8</t>
+  </si>
+  <si>
+    <t>1.89 MB</t>
+  </si>
+  <si>
+    <t>Ego - Midnight - Z85.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Midnight - Z85.jpg</t>
+  </si>
+  <si>
+    <t>36587fb60dc24f1db17cb34c008c9d5e</t>
+  </si>
+  <si>
+    <t>Ego - Jade - Z84.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Ego - Jade - Z84.jpg</t>
+  </si>
+  <si>
+    <t>754315e84f7f41719d65b34c008ca1bf</t>
+  </si>
+  <si>
+    <t>1.93 MB</t>
+  </si>
+  <si>
+    <t>Scatter - Fossil - Z8R.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Fossil - Z8R.jpg</t>
+  </si>
+  <si>
+    <t>6c0fe15ec6a2457a9f46b34c008ca1f1</t>
+  </si>
+  <si>
+    <t>Scatter - Spruce - Z8W.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Spruce - Z8W.jpg</t>
+  </si>
+  <si>
+    <t>297175d2f1a44ca79597b34c008cad62</t>
+  </si>
+  <si>
+    <t>1.57 MB</t>
+  </si>
+  <si>
+    <t>Nestle - Mineral - Z8F.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Mineral - Z8F.jpg</t>
+  </si>
+  <si>
+    <t>e58ba81ad2a047c19aa7b34c008cafef</t>
+  </si>
+  <si>
+    <t>Nestle - Nickel - Z8H.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Nickel - Z8H.jpg</t>
+  </si>
+  <si>
+    <t>d28248e8c7844ef6a934b34c008cb13e</t>
+  </si>
+  <si>
+    <t>Nestle - Pepper - Z8J.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Pepper - Z8J.jpg</t>
+  </si>
+  <si>
+    <t>9442fa642ce74d169f69b34c008cbdd3</t>
+  </si>
+  <si>
+    <t>Scatter - Flint - Z8P.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Flint - Z8P.jpg</t>
+  </si>
+  <si>
+    <t>f9a0c95319b04754ae06b34c008cbef5</t>
+  </si>
+  <si>
+    <t>1.48 MB</t>
+  </si>
+  <si>
+    <t>Scatter - Noir - Z8U.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Noir - Z8U.jpg</t>
+  </si>
+  <si>
+    <t>c153f951214e4d33bc4bb34c008cc119</t>
+  </si>
+  <si>
+    <t>1.24 MB</t>
+  </si>
+  <si>
+    <t>Scatter - Barley - Z8M.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Barley - Z8M.jpg</t>
+  </si>
+  <si>
+    <t>232bdc278f4e4f02bff5b34c008cd0ba</t>
+  </si>
+  <si>
+    <t>1.86 MB</t>
+  </si>
+  <si>
+    <t>Scatter - Baltic - Z8K.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Baltic - Z8K.jpg</t>
+  </si>
+  <si>
+    <t>284420b4dd9c4464ba7cb34c008ccefb</t>
+  </si>
+  <si>
+    <t>Scatter - Caspian - Z8N.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Caspian - Z8N.jpg</t>
+  </si>
+  <si>
+    <t>1581ccdd2c264a1eb118b34c008cd08a</t>
+  </si>
+  <si>
+    <t>1.56 MB</t>
+  </si>
+  <si>
+    <t>Scatter - Garnet - Z8T.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Garnet - Z8T.jpg</t>
+  </si>
+  <si>
+    <t>ae7fef85bed5471b9b2ab34c008cded9</t>
+  </si>
+  <si>
+    <t>Scatter - Pewter - Z8V.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Scatter - Pewter - Z8V.jpg</t>
+  </si>
+  <si>
+    <t>164ffaee5b7e484fb0e0b34c008ce131</t>
+  </si>
+  <si>
+    <t>1.52 MB</t>
+  </si>
+  <si>
+    <t>Nestle - Eve - Z8C.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Eve - Z8C.jpg</t>
+  </si>
+  <si>
+    <t>fdf1f807501645b9a1d3b34c008ce4c6</t>
+  </si>
+  <si>
+    <t>1.83 MB</t>
+  </si>
+  <si>
+    <t>Nestle - Cascade - Z8A.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Cascade - Z8A.jpg</t>
+  </si>
+  <si>
+    <t>e7e16f0d24784c3a837fb34c008cef0c</t>
+  </si>
+  <si>
+    <t>Nestle - Grove - Z8D.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Surface-Material/en-US/Nestle - Grove - Z8D.jpg</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>21a10ba84b6e46ec8b8cb34c008cf1d0</t>
+  </si>
+  <si>
+    <t>1.70 MB</t>
+  </si>
+  <si>
+    <t>Total File Size:</t>
+  </si>
+  <si>
+    <t>1309.65 MB</t>
   </si>
 </sst>
 </file>
@@ -11903,7 +12464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1233"/>
+  <dimension ref="A1:J1287"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -51365,6 +51926,1710 @@
         <v>1732</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="s" s="0">
+        <v>3949</v>
+      </c>
+      <c r="B1234" t="s" s="0">
+        <v>3950</v>
+      </c>
+      <c r="C1234" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1234" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1234" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1234" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1234" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1234" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1234" t="s" s="0">
+        <v>3951</v>
+      </c>
+      <c r="J1234" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="s" s="0">
+        <v>3952</v>
+      </c>
+      <c r="B1235" t="s" s="0">
+        <v>3953</v>
+      </c>
+      <c r="C1235" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1235" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1235" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1235" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1235" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1235" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1235" t="s" s="0">
+        <v>3954</v>
+      </c>
+      <c r="J1235" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="s" s="0">
+        <v>3955</v>
+      </c>
+      <c r="B1236" t="s" s="0">
+        <v>3956</v>
+      </c>
+      <c r="C1236" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1236" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1236" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1236" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1236" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1236" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1236" t="s" s="0">
+        <v>3957</v>
+      </c>
+      <c r="J1236" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="s" s="0">
+        <v>3958</v>
+      </c>
+      <c r="B1237" t="s" s="0">
+        <v>3959</v>
+      </c>
+      <c r="C1237" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1237" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1237" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1237" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G1237" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1237" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1237" t="s" s="0">
+        <v>3960</v>
+      </c>
+      <c r="J1237" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="s" s="0">
+        <v>3961</v>
+      </c>
+      <c r="B1238" t="s" s="0">
+        <v>3962</v>
+      </c>
+      <c r="C1238" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1238" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1238" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1238" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1238" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1238" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1238" t="s" s="0">
+        <v>3963</v>
+      </c>
+      <c r="J1238" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="s" s="0">
+        <v>3964</v>
+      </c>
+      <c r="B1239" t="s" s="0">
+        <v>3965</v>
+      </c>
+      <c r="C1239" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1239" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1239" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1239" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1239" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1239" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1239" t="s" s="0">
+        <v>3966</v>
+      </c>
+      <c r="J1239" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="s" s="0">
+        <v>3967</v>
+      </c>
+      <c r="B1240" t="s" s="0">
+        <v>3968</v>
+      </c>
+      <c r="C1240" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1240" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1240" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1240" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1240" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1240" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1240" t="s" s="0">
+        <v>3969</v>
+      </c>
+      <c r="J1240" t="s" s="0">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="s" s="0">
+        <v>3970</v>
+      </c>
+      <c r="B1241" t="s" s="0">
+        <v>3971</v>
+      </c>
+      <c r="C1241" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1241" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1241" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1241" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1241" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1241" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1241" t="s" s="0">
+        <v>3972</v>
+      </c>
+      <c r="J1241" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="s" s="0">
+        <v>3973</v>
+      </c>
+      <c r="B1242" t="s" s="0">
+        <v>3974</v>
+      </c>
+      <c r="C1242" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1242" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1242" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1242" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1242" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1242" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1242" t="s" s="0">
+        <v>3975</v>
+      </c>
+      <c r="J1242" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="s" s="0">
+        <v>3976</v>
+      </c>
+      <c r="B1243" t="s" s="0">
+        <v>3977</v>
+      </c>
+      <c r="C1243" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1243" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1243" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1243" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1243" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1243" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1243" t="s" s="0">
+        <v>3978</v>
+      </c>
+      <c r="J1243" t="s" s="0">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="s" s="0">
+        <v>3979</v>
+      </c>
+      <c r="B1244" t="s" s="0">
+        <v>3980</v>
+      </c>
+      <c r="C1244" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1244" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1244" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1244" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1244" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1244" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1244" t="s" s="0">
+        <v>3981</v>
+      </c>
+      <c r="J1244" t="s" s="0">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="s" s="0">
+        <v>3982</v>
+      </c>
+      <c r="B1245" t="s" s="0">
+        <v>3983</v>
+      </c>
+      <c r="C1245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1245" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1245" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1245" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1245" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1245" t="s" s="0">
+        <v>3984</v>
+      </c>
+      <c r="J1245" t="s" s="0">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="s" s="0">
+        <v>3985</v>
+      </c>
+      <c r="B1246" t="s" s="0">
+        <v>3986</v>
+      </c>
+      <c r="C1246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1246" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1246" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1246" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1246" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1246" t="s" s="0">
+        <v>3987</v>
+      </c>
+      <c r="J1246" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="s" s="0">
+        <v>3988</v>
+      </c>
+      <c r="B1247" t="s" s="0">
+        <v>3989</v>
+      </c>
+      <c r="C1247" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1247" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1247" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1247" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1247" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1247" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1247" t="s" s="0">
+        <v>3990</v>
+      </c>
+      <c r="J1247" t="s" s="0">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="s" s="0">
+        <v>3991</v>
+      </c>
+      <c r="B1248" t="s" s="0">
+        <v>3992</v>
+      </c>
+      <c r="C1248" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1248" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1248" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1248" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1248" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1248" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1248" t="s" s="0">
+        <v>3993</v>
+      </c>
+      <c r="J1248" t="s" s="0">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="s" s="0">
+        <v>3994</v>
+      </c>
+      <c r="B1249" t="s" s="0">
+        <v>3995</v>
+      </c>
+      <c r="C1249" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1249" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1249" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1249" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1249" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1249" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1249" t="s" s="0">
+        <v>3996</v>
+      </c>
+      <c r="J1249" t="s" s="0">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="s" s="0">
+        <v>3997</v>
+      </c>
+      <c r="B1250" t="s" s="0">
+        <v>3998</v>
+      </c>
+      <c r="C1250" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1250" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1250" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1250" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1250" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1250" t="s" s="0">
+        <v>3999</v>
+      </c>
+      <c r="J1250" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="s" s="0">
+        <v>4000</v>
+      </c>
+      <c r="B1251" t="s" s="0">
+        <v>4001</v>
+      </c>
+      <c r="C1251" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1251" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1251" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1251" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1251" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1251" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1251" t="s" s="0">
+        <v>4002</v>
+      </c>
+      <c r="J1251" t="s" s="0">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="s" s="0">
+        <v>4004</v>
+      </c>
+      <c r="B1252" t="s" s="0">
+        <v>4005</v>
+      </c>
+      <c r="C1252" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1252" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1252" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1252" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1252" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1252" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1252" t="s" s="0">
+        <v>4006</v>
+      </c>
+      <c r="J1252" t="s" s="0">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="s" s="0">
+        <v>4008</v>
+      </c>
+      <c r="B1253" t="s" s="0">
+        <v>4009</v>
+      </c>
+      <c r="C1253" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1253" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1253" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1253" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1253" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1253" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1253" t="s" s="0">
+        <v>4010</v>
+      </c>
+      <c r="J1253" t="s" s="0">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="s" s="0">
+        <v>4012</v>
+      </c>
+      <c r="B1254" t="s" s="0">
+        <v>4013</v>
+      </c>
+      <c r="C1254" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1254" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1254" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1254" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G1254" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1254" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1254" t="s" s="0">
+        <v>4014</v>
+      </c>
+      <c r="J1254" t="s" s="0">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="s" s="0">
+        <v>4016</v>
+      </c>
+      <c r="B1255" t="s" s="0">
+        <v>4017</v>
+      </c>
+      <c r="C1255" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1255" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1255" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1255" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1255" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1255" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1255" t="s" s="0">
+        <v>4018</v>
+      </c>
+      <c r="J1255" t="s" s="0">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="s" s="0">
+        <v>4020</v>
+      </c>
+      <c r="B1256" t="s" s="0">
+        <v>4021</v>
+      </c>
+      <c r="C1256" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1256" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1256" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1256" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1256" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1256" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1256" t="s" s="0">
+        <v>4022</v>
+      </c>
+      <c r="J1256" t="s" s="0">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="s" s="0">
+        <v>4024</v>
+      </c>
+      <c r="B1257" t="s" s="0">
+        <v>4025</v>
+      </c>
+      <c r="C1257" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1257" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1257" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1257" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1257" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1257" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1257" t="s" s="0">
+        <v>4026</v>
+      </c>
+      <c r="J1257" t="s" s="0">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="s" s="0">
+        <v>4028</v>
+      </c>
+      <c r="B1258" t="s" s="0">
+        <v>4029</v>
+      </c>
+      <c r="C1258" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1258" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1258" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1258" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1258" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1258" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1258" t="s" s="0">
+        <v>4030</v>
+      </c>
+      <c r="J1258" t="s" s="0">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="s" s="0">
+        <v>4031</v>
+      </c>
+      <c r="B1259" t="s" s="0">
+        <v>4032</v>
+      </c>
+      <c r="C1259" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1259" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1259" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1259" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G1259" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1259" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1259" t="s" s="0">
+        <v>4033</v>
+      </c>
+      <c r="J1259" t="s" s="0">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="s" s="0">
+        <v>4035</v>
+      </c>
+      <c r="B1260" t="s" s="0">
+        <v>4036</v>
+      </c>
+      <c r="C1260" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1260" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1260" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1260" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1260" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1260" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1260" t="s" s="0">
+        <v>4037</v>
+      </c>
+      <c r="J1260" t="s" s="0">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="s" s="0">
+        <v>4039</v>
+      </c>
+      <c r="B1261" t="s" s="0">
+        <v>4040</v>
+      </c>
+      <c r="C1261" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1261" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1261" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1261" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1261" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1261" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1261" t="s" s="0">
+        <v>4041</v>
+      </c>
+      <c r="J1261" t="s" s="0">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="s" s="0">
+        <v>4043</v>
+      </c>
+      <c r="B1262" t="s" s="0">
+        <v>4044</v>
+      </c>
+      <c r="C1262" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1262" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1262" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1262" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1262" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1262" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1262" t="s" s="0">
+        <v>4045</v>
+      </c>
+      <c r="J1262" t="s" s="0">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="s" s="0">
+        <v>4047</v>
+      </c>
+      <c r="B1263" t="s" s="0">
+        <v>4048</v>
+      </c>
+      <c r="C1263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1263" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1263" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1263" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1263" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1263" t="s" s="0">
+        <v>4049</v>
+      </c>
+      <c r="J1263" t="s" s="0">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="s" s="0">
+        <v>4051</v>
+      </c>
+      <c r="B1264" t="s" s="0">
+        <v>4052</v>
+      </c>
+      <c r="C1264" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1264" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1264" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1264" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1264" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1264" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1264" t="s" s="0">
+        <v>4053</v>
+      </c>
+      <c r="J1264" t="s" s="0">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="s" s="0">
+        <v>4054</v>
+      </c>
+      <c r="B1265" t="s" s="0">
+        <v>4055</v>
+      </c>
+      <c r="C1265" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1265" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1265" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1265" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1265" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1265" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1265" t="s" s="0">
+        <v>4056</v>
+      </c>
+      <c r="J1265" t="s" s="0">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="s" s="0">
+        <v>4058</v>
+      </c>
+      <c r="B1266" t="s" s="0">
+        <v>4059</v>
+      </c>
+      <c r="C1266" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1266" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1266" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1266" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1266" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1266" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1266" t="s" s="0">
+        <v>4060</v>
+      </c>
+      <c r="J1266" t="s" s="0">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s" s="0">
+        <v>4061</v>
+      </c>
+      <c r="B1267" t="s" s="0">
+        <v>4062</v>
+      </c>
+      <c r="C1267" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1267" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1267" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1267" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1267" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1267" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1267" t="s" s="0">
+        <v>4063</v>
+      </c>
+      <c r="J1267" t="s" s="0">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="s" s="0">
+        <v>4065</v>
+      </c>
+      <c r="B1268" t="s" s="0">
+        <v>4066</v>
+      </c>
+      <c r="C1268" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1268" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1268" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1268" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1268" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1268" t="s" s="0">
+        <v>4067</v>
+      </c>
+      <c r="J1268" t="s" s="0">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="s" s="0">
+        <v>4069</v>
+      </c>
+      <c r="B1269" t="s" s="0">
+        <v>4070</v>
+      </c>
+      <c r="C1269" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1269" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1269" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1269" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1269" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1269" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1269" t="s" s="0">
+        <v>4071</v>
+      </c>
+      <c r="J1269" t="s" s="0">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="s" s="0">
+        <v>4073</v>
+      </c>
+      <c r="B1270" t="s" s="0">
+        <v>4074</v>
+      </c>
+      <c r="C1270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1270" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1270" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1270" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1270" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1270" t="s" s="0">
+        <v>4075</v>
+      </c>
+      <c r="J1270" t="s" s="0">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="s" s="0">
+        <v>4076</v>
+      </c>
+      <c r="B1271" t="s" s="0">
+        <v>4077</v>
+      </c>
+      <c r="C1271" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1271" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1271" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1271" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1271" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1271" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1271" t="s" s="0">
+        <v>4078</v>
+      </c>
+      <c r="J1271" t="s" s="0">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="s" s="0">
+        <v>4080</v>
+      </c>
+      <c r="B1272" t="s" s="0">
+        <v>4081</v>
+      </c>
+      <c r="C1272" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1272" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1272" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1272" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1272" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1272" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1272" t="s" s="0">
+        <v>4082</v>
+      </c>
+      <c r="J1272" t="s" s="0">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="s" s="0">
+        <v>4083</v>
+      </c>
+      <c r="B1273" t="s" s="0">
+        <v>4084</v>
+      </c>
+      <c r="C1273" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1273" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1273" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1273" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1273" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1273" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1273" t="s" s="0">
+        <v>4085</v>
+      </c>
+      <c r="J1273" t="s" s="0">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="s" s="0">
+        <v>4087</v>
+      </c>
+      <c r="B1274" t="s" s="0">
+        <v>4088</v>
+      </c>
+      <c r="C1274" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1274" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1274" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1274" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1274" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1274" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1274" t="s" s="0">
+        <v>4089</v>
+      </c>
+      <c r="J1274" t="s" s="0">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s" s="0">
+        <v>4090</v>
+      </c>
+      <c r="B1275" t="s" s="0">
+        <v>4091</v>
+      </c>
+      <c r="C1275" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1275" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1275" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1275" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1275" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1275" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1275" t="s" s="0">
+        <v>4092</v>
+      </c>
+      <c r="J1275" t="s" s="0">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s" s="0">
+        <v>4093</v>
+      </c>
+      <c r="B1276" t="s" s="0">
+        <v>4094</v>
+      </c>
+      <c r="C1276" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1276" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1276" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1276" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1276" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1276" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1276" t="s" s="0">
+        <v>4095</v>
+      </c>
+      <c r="J1276" t="s" s="0">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s" s="0">
+        <v>4096</v>
+      </c>
+      <c r="B1277" t="s" s="0">
+        <v>4097</v>
+      </c>
+      <c r="C1277" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1277" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1277" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1277" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1277" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1277" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1277" t="s" s="0">
+        <v>4098</v>
+      </c>
+      <c r="J1277" t="s" s="0">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s" s="0">
+        <v>4100</v>
+      </c>
+      <c r="B1278" t="s" s="0">
+        <v>4101</v>
+      </c>
+      <c r="C1278" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1278" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1278" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1278" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1278" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1278" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1278" t="s" s="0">
+        <v>4102</v>
+      </c>
+      <c r="J1278" t="s" s="0">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s" s="0">
+        <v>4104</v>
+      </c>
+      <c r="B1279" t="s" s="0">
+        <v>4105</v>
+      </c>
+      <c r="C1279" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1279" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1279" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1279" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1279" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1279" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1279" t="s" s="0">
+        <v>4106</v>
+      </c>
+      <c r="J1279" t="s" s="0">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s" s="0">
+        <v>4108</v>
+      </c>
+      <c r="B1280" t="s" s="0">
+        <v>4109</v>
+      </c>
+      <c r="C1280" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1280" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1280" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1280" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1280" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1280" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1280" t="s" s="0">
+        <v>4110</v>
+      </c>
+      <c r="J1280" t="s" s="0">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s" s="0">
+        <v>4111</v>
+      </c>
+      <c r="B1281" t="s" s="0">
+        <v>4112</v>
+      </c>
+      <c r="C1281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1281" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1281" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1281" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1281" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1281" t="s" s="0">
+        <v>4113</v>
+      </c>
+      <c r="J1281" t="s" s="0">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s" s="0">
+        <v>4115</v>
+      </c>
+      <c r="B1282" t="s" s="0">
+        <v>4116</v>
+      </c>
+      <c r="C1282" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1282" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1282" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1282" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1282" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1282" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1282" t="s" s="0">
+        <v>4117</v>
+      </c>
+      <c r="J1282" t="s" s="0">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s" s="0">
+        <v>4118</v>
+      </c>
+      <c r="B1283" t="s" s="0">
+        <v>4119</v>
+      </c>
+      <c r="C1283" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1283" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1283" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1283" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1283" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1283" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1283" t="s" s="0">
+        <v>4120</v>
+      </c>
+      <c r="J1283" t="s" s="0">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s" s="0">
+        <v>4122</v>
+      </c>
+      <c r="B1284" t="s" s="0">
+        <v>4123</v>
+      </c>
+      <c r="C1284" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1284" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1284" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1284" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1284" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1284" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1284" t="s" s="0">
+        <v>4124</v>
+      </c>
+      <c r="J1284" t="s" s="0">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s" s="0">
+        <v>4126</v>
+      </c>
+      <c r="B1285" t="s" s="0">
+        <v>4127</v>
+      </c>
+      <c r="C1285" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1285" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1285" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="F1285" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1285" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1285" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1285" t="s" s="0">
+        <v>4128</v>
+      </c>
+      <c r="J1285" t="s" s="0">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s" s="0">
+        <v>4129</v>
+      </c>
+      <c r="B1286" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="C1286" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1286" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E1286" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F1286" t="s" s="0">
+        <v>4131</v>
+      </c>
+      <c r="G1286" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H1286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I1286" t="s" s="0">
+        <v>4132</v>
+      </c>
+      <c r="J1286" t="s" s="0">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="I1287" t="s" s="0">
+        <v>4134</v>
+      </c>
+      <c r="J1287" t="s" s="0">
+        <v>4135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
